--- a/data_clean/DNB 15.12.2020.xlsx
+++ b/data_clean/DNB 15.12.2020.xlsx
@@ -1446,7 +1446,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K2">
-        <v>50.67045591250964</v>
+        <v>0.006704559125096289</v>
       </c>
       <c r="L2">
         <v>0.001132360366814611</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1517,7 +1517,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K3">
-        <v>50.67045591250964</v>
+        <v>0.006704559125096289</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1588,7 +1588,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.01108566206407917</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000621504039776</v>
+        <v>0.0006215040397761218</v>
       </c>
       <c r="V4">
-        <v>1.000621504039776</v>
+        <v>0.0006215040397761218</v>
       </c>
       <c r="W4">
-        <v>1.001864512119329</v>
+        <v>0.001864512119328587</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1659,7 +1659,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0.01639335720448461</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.00054347826087</v>
+        <v>0.0005434782608695343</v>
       </c>
       <c r="V5">
-        <v>1.00054347826087</v>
+        <v>0.0005434782608695343</v>
       </c>
       <c r="W5">
-        <v>1.000930521091811</v>
+        <v>0.0009305210918113538</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1730,7 +1730,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>0.01803283488996586</v>
@@ -1760,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000325909831613</v>
+        <v>0.0003259098316132913</v>
       </c>
       <c r="V6">
-        <v>1.000325909831613</v>
+        <v>0.0003259098316132913</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1801,7 +1801,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
         <v>0.01944687816628255</v>
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000372347027429</v>
+        <v>0.0003723470274294982</v>
       </c>
       <c r="V7">
-        <v>1.000372347027429</v>
+        <v>0.0003723470274294982</v>
       </c>
       <c r="W7">
-        <v>1.00092965602727</v>
+        <v>0.0009296560272700205</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1872,7 +1872,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <v>0.02318006373417104</v>
@@ -1902,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000664657922723</v>
+        <v>0.0006646579227225224</v>
       </c>
       <c r="V8">
-        <v>1.000664657922723</v>
+        <v>0.0006646579227225224</v>
       </c>
       <c r="W8">
-        <v>1.002786377708978</v>
+        <v>0.002786377708978272</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1943,7 +1943,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
         <v>0.0269892252913983</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000575654253199</v>
+        <v>0.0005756542531991649</v>
       </c>
       <c r="V9">
-        <v>1.000575654253199</v>
+        <v>0.0005756542531991649</v>
       </c>
       <c r="W9">
-        <v>1.000617474529176</v>
+        <v>0.000617474529175821</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2014,7 +2014,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
         <v>0.02987634427546869</v>
@@ -2044,13 +2044,13 @@
         <v>0.07152777777776009</v>
       </c>
       <c r="U10">
-        <v>1.000447473495801</v>
+        <v>0.0004474734958006543</v>
       </c>
       <c r="V10">
-        <v>1.000447473495801</v>
+        <v>0.0004474734958006543</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2085,7 +2085,7 @@
         <v>1.188841332514997</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
         <v>0.03195266596857722</v>
@@ -2115,13 +2115,13 @@
         <v>0.1587499999999977</v>
       </c>
       <c r="U11">
-        <v>1.000388783760537</v>
+        <v>0.0003887837605367483</v>
       </c>
       <c r="V11">
-        <v>1.000388783760537</v>
+        <v>0.0003887837605367483</v>
       </c>
       <c r="W11">
-        <v>1.000308546744832</v>
+        <v>0.000308546744831828</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2156,7 +2156,7 @@
         <v>18.39218353852172</v>
       </c>
       <c r="K12">
-        <v>94.84328312996035</v>
+        <v>0.4484328312996035</v>
       </c>
       <c r="L12">
         <v>0.03300589688292409</v>
@@ -2186,13 +2186,13 @@
         <v>0.2181818181818187</v>
       </c>
       <c r="U12">
-        <v>1.000289833050535</v>
+        <v>0.0002898330505352043</v>
       </c>
       <c r="V12">
-        <v>1.000289833050535</v>
+        <v>0.0002898330505352043</v>
       </c>
       <c r="W12">
-        <v>0.9996915484268971</v>
+        <v>-0.0003084515731028858</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2227,7 +2227,7 @@
         <v>8.960294544405404</v>
       </c>
       <c r="K13">
-        <v>89.96013626362395</v>
+        <v>0.3996013626362395</v>
       </c>
       <c r="L13">
         <v>0.03309972621031446</v>
@@ -2257,13 +2257,13 @@
         <v>0.2645833333333485</v>
       </c>
       <c r="U13">
-        <v>1.000215670830051</v>
+        <v>0.0002156708300513621</v>
       </c>
       <c r="V13">
-        <v>1.000215670830051</v>
+        <v>0.0002156708300513621</v>
       </c>
       <c r="W13">
-        <v>0.9996914532551681</v>
+        <v>-0.000308546744831939</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2298,7 +2298,7 @@
         <v>10.57972774278611</v>
       </c>
       <c r="K14">
-        <v>91.36421838049711</v>
+        <v>0.4136421838049711</v>
       </c>
       <c r="L14">
         <v>0.03302793151868935</v>
@@ -2328,13 +2328,13 @@
         <v>0.3235576923076735</v>
       </c>
       <c r="U14">
-        <v>1.000253845360579</v>
+        <v>0.0002538453605793745</v>
       </c>
       <c r="V14">
-        <v>1.000253845360579</v>
+        <v>0.0002538453605793745</v>
       </c>
       <c r="W14">
-        <v>1.000925925925926</v>
+        <v>0.0009259259259259967</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2369,7 +2369,7 @@
         <v>3.232535143789399</v>
       </c>
       <c r="K15">
-        <v>76.37349800940584</v>
+        <v>0.2637349800940584</v>
       </c>
       <c r="L15">
         <v>0.0320872466920093</v>
@@ -2399,13 +2399,13 @@
         <v>0.3589285714285779</v>
       </c>
       <c r="U15">
-        <v>1.000129156370978</v>
+        <v>0.0001291563709777677</v>
       </c>
       <c r="V15">
-        <v>1.000129156370978</v>
+        <v>0.0001291563709777677</v>
       </c>
       <c r="W15">
-        <v>0.9987665741597286</v>
+        <v>-0.001233425840271418</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2440,7 +2440,7 @@
         <v>1.312960537212895</v>
       </c>
       <c r="K16">
-        <v>56.76536698697875</v>
+        <v>0.06765366986978749</v>
       </c>
       <c r="L16">
         <v>0.02946170319706749</v>
@@ -2470,13 +2470,13 @@
         <v>0.317499999999967</v>
       </c>
       <c r="U16">
-        <v>0.9999469847581182</v>
+        <v>-5.301524188183748E-05</v>
       </c>
       <c r="V16">
-        <v>0.9999469847581182</v>
+        <v>-5.301524188183748E-05</v>
       </c>
       <c r="W16">
-        <v>0.9975301018832975</v>
+        <v>-0.002469898116702507</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2511,7 +2511,7 @@
         <v>1.312960537212895</v>
       </c>
       <c r="K17">
-        <v>56.76536698697875</v>
+        <v>0.06765366986978749</v>
       </c>
       <c r="L17">
         <v>0.02603908102902732</v>
@@ -2541,13 +2541,13 @@
         <v>0.2625000000000171</v>
       </c>
       <c r="U17">
-        <v>0.9999536092039338</v>
+        <v>-4.63907960661647E-05</v>
       </c>
       <c r="V17">
-        <v>1.000268035710604</v>
+        <v>0.0002680357106037423</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2582,7 +2582,7 @@
         <v>1.806447625067318</v>
       </c>
       <c r="K18">
-        <v>64.36776546022259</v>
+        <v>0.1436776546022258</v>
       </c>
       <c r="L18">
         <v>0.02315741271307943</v>
@@ -2612,13 +2612,13 @@
         <v>0.1781250000000227</v>
       </c>
       <c r="U18">
-        <v>1.000068224923929</v>
+        <v>6.822492392921653E-05</v>
       </c>
       <c r="V18">
-        <v>1.000391639526734</v>
+        <v>0.0003916395267344885</v>
       </c>
       <c r="W18">
-        <v>1.001857010213556</v>
+        <v>0.001857010213555998</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2653,7 +2653,7 @@
         <v>1.979600989226765</v>
       </c>
       <c r="K19">
-        <v>66.43845925626741</v>
+        <v>0.1643845925626741</v>
       </c>
       <c r="L19">
         <v>0.02095307632697646</v>
@@ -2683,13 +2683,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U19">
-        <v>1.000095003042119</v>
+        <v>9.500304211873534E-05</v>
       </c>
       <c r="V19">
-        <v>1.000309068056786</v>
+        <v>0.0003090680567863213</v>
       </c>
       <c r="W19">
-        <v>1.000617856039543</v>
+        <v>0.0006178560395426747</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2724,7 +2724,7 @@
         <v>2.435267737014809</v>
       </c>
       <c r="K20">
-        <v>70.89018741610563</v>
+        <v>0.2089018741610563</v>
       </c>
       <c r="L20">
         <v>0.01983960186069802</v>
@@ -2754,13 +2754,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U20">
-        <v>1.000166372500796</v>
+        <v>0.0001663725007956529</v>
       </c>
       <c r="V20">
-        <v>1.000350168905001</v>
+        <v>0.0003501689050011692</v>
       </c>
       <c r="W20">
-        <v>1.001543686322939</v>
+        <v>0.001543686322939219</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2795,7 +2795,7 @@
         <v>2.723057261933584</v>
       </c>
       <c r="K21">
-        <v>73.14035402505074</v>
+        <v>0.2314035402505074</v>
       </c>
       <c r="L21">
         <v>0.01971350006147487</v>
@@ -2825,13 +2825,13 @@
         <v>0.03125</v>
       </c>
       <c r="U21">
-        <v>1.000196088003645</v>
+        <v>0.0001960880036451229</v>
       </c>
       <c r="V21">
-        <v>1.000411819211366</v>
+        <v>0.0004118192113662378</v>
       </c>
       <c r="W21">
-        <v>1.000924784217016</v>
+        <v>0.0009247842170161391</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2866,7 +2866,7 @@
         <v>2.723057261933584</v>
       </c>
       <c r="K22">
-        <v>73.14035402505074</v>
+        <v>0.2314035402505074</v>
       </c>
       <c r="L22">
         <v>0.02007632376464745</v>
@@ -2896,13 +2896,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U22">
-        <v>1.000177378173947</v>
+        <v>0.0001773781739469182</v>
       </c>
       <c r="V22">
-        <v>1.0003499022332</v>
+        <v>0.0003499022331998614</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2937,7 +2937,7 @@
         <v>3.148231075294677</v>
       </c>
       <c r="K23">
-        <v>75.89333906793118</v>
+        <v>0.2589333906793118</v>
       </c>
       <c r="L23">
         <v>0.02109936780699388</v>
@@ -2967,13 +2967,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U23">
-        <v>1.000217418645288</v>
+        <v>0.0002174186452876814</v>
       </c>
       <c r="V23">
-        <v>1.000246903419612</v>
+        <v>0.0002469034196121989</v>
       </c>
       <c r="W23">
-        <v>1.001231906375116</v>
+        <v>0.00123190637511561</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3008,7 +3008,7 @@
         <v>2.572555655275136</v>
       </c>
       <c r="K24">
-        <v>72.00883354963476</v>
+        <v>0.2200883354963475</v>
       </c>
       <c r="L24">
         <v>0.02210898171891207</v>
@@ -3038,13 +3038,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U24">
-        <v>1.000171599804828</v>
+        <v>0.0001715998048281708</v>
       </c>
       <c r="V24">
-        <v>1.000164561648908</v>
+        <v>0.0001645616489078794</v>
       </c>
       <c r="W24">
-        <v>0.9993848046754843</v>
+        <v>-0.0006151953245157049</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3079,7 +3079,7 @@
         <v>2.668796069629034</v>
       </c>
       <c r="K25">
-        <v>72.74310206887259</v>
+        <v>0.2274310206887259</v>
       </c>
       <c r="L25">
         <v>0.02307322065794173</v>
@@ -3109,13 +3109,13 @@
         <v>0.1749999999999545</v>
       </c>
       <c r="U25">
-        <v>1.000170145698448</v>
+        <v>0.0001701456984479766</v>
       </c>
       <c r="V25">
-        <v>1.000185101394431</v>
+        <v>0.0001851013944305091</v>
       </c>
       <c r="W25">
-        <v>1.000307787011388</v>
+        <v>0.0003077870113881165</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3150,7 +3150,7 @@
         <v>2.219167448976206</v>
       </c>
       <c r="K26">
-        <v>68.93606760598828</v>
+        <v>0.1893606760598828</v>
       </c>
       <c r="L26">
         <v>0.0236196386925673</v>
@@ -3180,13 +3180,13 @@
         <v>0.2218750000000114</v>
       </c>
       <c r="U26">
-        <v>1.000131795716639</v>
+        <v>0.000131795716639127</v>
       </c>
       <c r="V26">
-        <v>1.000123378092163</v>
+        <v>0.0001233780921632288</v>
       </c>
       <c r="W26">
-        <v>0.9993846153846154</v>
+        <v>-0.0006153846153845732</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3221,7 +3221,7 @@
         <v>2.307839133239321</v>
       </c>
       <c r="K27">
-        <v>69.76878379751454</v>
+        <v>0.1976878379751454</v>
       </c>
       <c r="L27">
         <v>0.02390886460908067</v>
@@ -3251,13 +3251,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U27">
-        <v>1.000133520610641</v>
+        <v>0.0001335206106405362</v>
       </c>
       <c r="V27">
-        <v>1.000164483829184</v>
+        <v>0.0001644838291836592</v>
       </c>
       <c r="W27">
-        <v>1.000307881773399</v>
+        <v>0.0003078817733987993</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3292,7 +3292,7 @@
         <v>1.944790946385243</v>
       </c>
       <c r="K28">
-        <v>66.04173205478273</v>
+        <v>0.1604173205478273</v>
       </c>
       <c r="L28">
         <v>0.02370245009886174</v>
@@ -3322,13 +3322,13 @@
         <v>0.2625000000000171</v>
       </c>
       <c r="U28">
-        <v>1.000100738558805</v>
+        <v>0.0001007385588052134</v>
       </c>
       <c r="V28">
-        <v>1.000143899681365</v>
+        <v>0.0001438996813649673</v>
       </c>
       <c r="W28">
-        <v>0.9993844259772238</v>
+        <v>-0.000615574022776233</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3363,7 +3363,7 @@
         <v>2.027586142258774</v>
       </c>
       <c r="K29">
-        <v>66.97038653856646</v>
+        <v>0.1697038653856646</v>
       </c>
       <c r="L29">
         <v>0.02324091313255341</v>
@@ -3393,13 +3393,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U29">
-        <v>1.000104561495229</v>
+        <v>0.000104561495229305</v>
       </c>
       <c r="V29">
-        <v>1.000102770698019</v>
+        <v>0.0001027706980185616</v>
       </c>
       <c r="W29">
-        <v>1.000307976593779</v>
+        <v>0.0003079765937790135</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3434,7 +3434,7 @@
         <v>1.72662551541825</v>
       </c>
       <c r="K30">
-        <v>63.32462986408292</v>
+        <v>0.1332462986408292</v>
       </c>
       <c r="L30">
         <v>0.02233973477615201</v>
@@ -3464,13 +3464,13 @@
         <v>0.2281250000000341</v>
       </c>
       <c r="U30">
-        <v>1.000076047015307</v>
+        <v>7.604701530672386E-05</v>
       </c>
       <c r="V30">
-        <v>1.000143864192202</v>
+        <v>0.0001438641922024697</v>
       </c>
       <c r="W30">
-        <v>0.999384236453202</v>
+        <v>-0.0006157635467980427</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3505,7 +3505,7 @@
         <v>1.49330390565668</v>
       </c>
       <c r="K31">
-        <v>59.89257475868661</v>
+        <v>0.09892574758686612</v>
       </c>
       <c r="L31">
         <v>0.02092176628156434</v>
@@ -3535,13 +3535,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U31">
-        <v>1.000050389990135</v>
+        <v>5.0389990134736E-05</v>
       </c>
       <c r="V31">
-        <v>1.000267137925366</v>
+        <v>0.0002671379253658124</v>
       </c>
       <c r="W31">
-        <v>0.9993838570548366</v>
+        <v>-0.0006161429451634337</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3576,7 +3576,7 @@
         <v>1.777791412985488</v>
       </c>
       <c r="K32">
-        <v>64.0001767114245</v>
+        <v>0.1400017671142451</v>
       </c>
       <c r="L32">
         <v>0.01966613712495142</v>
@@ -3606,13 +3606,13 @@
         <v>0.109375</v>
       </c>
       <c r="U32">
-        <v>1.000308711848361</v>
+        <v>0.0003087118483608986</v>
       </c>
       <c r="V32">
-        <v>1.0003492409146</v>
+        <v>0.0003492409146004238</v>
       </c>
       <c r="W32">
-        <v>1.001233045622688</v>
+        <v>0.001233045622688111</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3647,7 +3647,7 @@
         <v>2.077251947015769</v>
       </c>
       <c r="K33">
-        <v>67.50347331911605</v>
+        <v>0.1750347331911606</v>
       </c>
       <c r="L33">
         <v>0.01897225470621944</v>
@@ -3677,13 +3677,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U33">
-        <v>1.000349765451403</v>
+        <v>0.0003497654514030835</v>
       </c>
       <c r="V33">
-        <v>1.000308046165852</v>
+        <v>0.0003080461658520051</v>
       </c>
       <c r="W33">
-        <v>1.001231527093596</v>
+        <v>0.001231527093596085</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3718,7 +3718,7 @@
         <v>1.794430333377204</v>
       </c>
       <c r="K34">
-        <v>64.21453102423736</v>
+        <v>0.1421453102423736</v>
       </c>
       <c r="L34">
         <v>0.01836277474235647</v>
@@ -3748,13 +3748,13 @@
         <v>0.02812499999996021</v>
       </c>
       <c r="U34">
-        <v>1.000267374179881</v>
+        <v>0.0002673741798810969</v>
       </c>
       <c r="V34">
-        <v>1.000225830955265</v>
+        <v>0.0002258309552649607</v>
       </c>
       <c r="W34">
-        <v>0.9993849938499385</v>
+        <v>-0.0006150061500614923</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3789,7 +3789,7 @@
         <v>1.476925907467419</v>
       </c>
       <c r="K35">
-        <v>59.62737532902349</v>
+        <v>0.09627375329023491</v>
       </c>
       <c r="L35">
         <v>0.01743498627179829</v>
@@ -3819,13 +3819,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U35">
-        <v>1.00020561746926</v>
+        <v>0.0002056174692601775</v>
       </c>
       <c r="V35">
-        <v>1.00006157635468</v>
+        <v>6.157635467984868E-05</v>
       </c>
       <c r="W35">
-        <v>0.9990769230769231</v>
+        <v>-0.0009230769230769154</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3860,7 +3860,7 @@
         <v>1.476925907467418</v>
       </c>
       <c r="K36">
-        <v>59.62737532902348</v>
+        <v>0.0962737532902348</v>
       </c>
       <c r="L36">
         <v>0.01631109894076228</v>
@@ -3890,13 +3890,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U36">
-        <v>1.000205575199408</v>
+        <v>0.0002055751994081145</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3931,7 +3931,7 @@
         <v>1.476925907467419</v>
       </c>
       <c r="K37">
-        <v>59.62737532902349</v>
+        <v>0.09627375329023491</v>
       </c>
       <c r="L37">
         <v>0.01508136269468983</v>
@@ -3961,13 +3961,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U37">
-        <v>1.000174703004892</v>
+        <v>0.0001747030048917519</v>
       </c>
       <c r="V37">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4002,7 +4002,7 @@
         <v>1.224269944031321</v>
       </c>
       <c r="K38">
-        <v>55.0414281915991</v>
+        <v>0.05041428191599107</v>
       </c>
       <c r="L38">
         <v>0.0134724881259162</v>
@@ -4032,13 +4032,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U38">
-        <v>1.000051374261495</v>
+        <v>5.137426149492974E-05</v>
       </c>
       <c r="V38">
-        <v>0.9998563306857134</v>
+        <v>-0.0001436693142865542</v>
       </c>
       <c r="W38">
-        <v>0.9990760702186633</v>
+        <v>-0.0009239297813367076</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4073,7 +4073,7 @@
         <v>1.093051035696517</v>
       </c>
       <c r="K39">
-        <v>52.22285634964347</v>
+        <v>0.02222856349643476</v>
       </c>
       <c r="L39">
         <v>0.01146301542123169</v>
@@ -4103,13 +4103,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U39">
-        <v>1.000010274324463</v>
+        <v>1.027432446321086E-05</v>
       </c>
       <c r="V39">
-        <v>0.9998563100418751</v>
+        <v>-0.0001436899581248596</v>
       </c>
       <c r="W39">
-        <v>0.9993834771886561</v>
+        <v>-0.0006165228113439447</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4144,7 +4144,7 @@
         <v>1.205873511933572</v>
       </c>
       <c r="K40">
-        <v>54.66648497340885</v>
+        <v>0.04666484973408846</v>
       </c>
       <c r="L40">
         <v>0.009524071538308384</v>
@@ -4174,13 +4174,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U40">
-        <v>1.000030822656707</v>
+        <v>3.082265670739659E-05</v>
       </c>
       <c r="V40">
-        <v>0.9998768194789464</v>
+        <v>-0.0001231805210536452</v>
       </c>
       <c r="W40">
-        <v>1.000616903146206</v>
+        <v>0.0006169031462059937</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4215,7 +4215,7 @@
         <v>0.9298113552644354</v>
       </c>
       <c r="K41">
-        <v>48.1814635781862</v>
+        <v>-0.01818536421813804</v>
       </c>
       <c r="L41">
         <v>0.007153770642581793</v>
@@ -4245,13 +4245,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U41">
-        <v>0.9999691782932992</v>
+        <v>-3.082170670076767E-05</v>
       </c>
       <c r="V41">
-        <v>0.9998152064554549</v>
+        <v>-0.0001847935445451476</v>
       </c>
       <c r="W41">
-        <v>0.9984586929716399</v>
+        <v>-0.001541307028360084</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4286,7 +4286,7 @@
         <v>1.074399526902591</v>
       </c>
       <c r="K42">
-        <v>51.79327863166458</v>
+        <v>0.01793278631664574</v>
       </c>
       <c r="L42">
         <v>0.004986116005619871</v>
@@ -4316,13 +4316,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U42">
-        <v>1.000010274218903</v>
+        <v>1.027421890276159E-05</v>
       </c>
       <c r="V42">
-        <v>0.9998562451226022</v>
+        <v>-0.000143754877397817</v>
       </c>
       <c r="W42">
-        <v>1.000926211793764</v>
+        <v>0.0009262117937636205</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4357,7 +4357,7 @@
         <v>1.226597602311175</v>
       </c>
       <c r="K43">
-        <v>55.08842734035036</v>
+        <v>0.05088427340350365</v>
       </c>
       <c r="L43">
         <v>0.003398961688187198</v>
@@ -4387,13 +4387,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U43">
-        <v>1.00005137056672</v>
+        <v>5.137056672022133E-05</v>
       </c>
       <c r="V43">
-        <v>0.999958921272619</v>
+        <v>-4.107872738101648E-05</v>
       </c>
       <c r="W43">
-        <v>1.000925354719309</v>
+        <v>0.0009253547193091016</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4428,7 +4428,7 @@
         <v>1.333403269264557</v>
       </c>
       <c r="K44">
-        <v>57.14414164186972</v>
+        <v>0.07144141641869728</v>
       </c>
       <c r="L44">
         <v>0.002476861272283668</v>
@@ -4458,13 +4458,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U44">
-        <v>1.000041094342336</v>
+        <v>4.109434233612319E-05</v>
       </c>
       <c r="V44">
-        <v>0.9999794597925439</v>
+        <v>-2.054020745612117E-05</v>
       </c>
       <c r="W44">
-        <v>1.000616332819723</v>
+        <v>0.0006163328197226203</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4499,7 +4499,7 @@
         <v>1.445830287110223</v>
       </c>
       <c r="K45">
-        <v>59.11408877099516</v>
+        <v>0.09114088770995155</v>
       </c>
       <c r="L45">
         <v>0.00223182930071536</v>
@@ -4529,13 +4529,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U45">
-        <v>1.000102731634152</v>
+        <v>0.0001027316341521978</v>
       </c>
       <c r="V45">
-        <v>1.000061621888095</v>
+        <v>6.162188809466507E-05</v>
       </c>
       <c r="W45">
-        <v>1.000615953187558</v>
+        <v>0.000615953187557805</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4570,7 +4570,7 @@
         <v>1.445830287110223</v>
       </c>
       <c r="K46">
-        <v>59.11408877099516</v>
+        <v>0.09114088770995155</v>
       </c>
       <c r="L46">
         <v>0.00240399600671788</v>
@@ -4600,13 +4600,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U46">
-        <v>1.000184897946605</v>
+        <v>0.0001848979466054779</v>
       </c>
       <c r="V46">
-        <v>1.000102696818453</v>
+        <v>0.0001026968184525412</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4641,7 +4641,7 @@
         <v>1.285670606037014</v>
       </c>
       <c r="K47">
-        <v>56.2491639277</v>
+        <v>0.06249163927699997</v>
       </c>
       <c r="L47">
         <v>0.002584148402531494</v>
@@ -4671,13 +4671,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U47">
-        <v>1.000164323347266</v>
+        <v>0.0001643233472663486</v>
       </c>
       <c r="V47">
-        <v>0.99997946274542</v>
+        <v>-2.053725457995537E-05</v>
       </c>
       <c r="W47">
-        <v>0.9993844259772238</v>
+        <v>-0.000615574022776233</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4712,7 +4712,7 @@
         <v>1.460576132095097</v>
       </c>
       <c r="K48">
-        <v>59.3591115935708</v>
+        <v>0.09359111593570801</v>
       </c>
       <c r="L48">
         <v>0.003085232823173939</v>
@@ -4742,13 +4742,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U48">
-        <v>1.000133490784002</v>
+        <v>0.0001334907840015997</v>
       </c>
       <c r="V48">
-        <v>0.9999589246472654</v>
+        <v>-4.107535273456531E-05</v>
       </c>
       <c r="W48">
-        <v>1.000923929781337</v>
+        <v>0.0009239297813365965</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4783,7 +4783,7 @@
         <v>1.460576132095097</v>
       </c>
       <c r="K49">
-        <v>59.35911159357081</v>
+        <v>0.09359111593570812</v>
       </c>
       <c r="L49">
         <v>0.003737353115457438</v>
@@ -4813,13 +4813,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U49">
-        <v>1.000112938664038</v>
+        <v>0.0001129386640383867</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4854,7 +4854,7 @@
         <v>1.52517651106393</v>
       </c>
       <c r="K50">
-        <v>60.39880794001719</v>
+        <v>0.1039880794001719</v>
       </c>
       <c r="L50">
         <v>0.004537948248283054</v>
@@ -4884,13 +4884,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U50">
-        <v>1.000071861942942</v>
+        <v>7.186194294162007E-05</v>
       </c>
       <c r="V50">
-        <v>1.000082154079977</v>
+        <v>8.215407997713697E-05</v>
       </c>
       <c r="W50">
-        <v>1.000307692307692</v>
+        <v>0.0003076923076923421</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4925,7 +4925,7 @@
         <v>1.729177707807537</v>
       </c>
       <c r="K51">
-        <v>63.35892686140463</v>
+        <v>0.1335892686140463</v>
       </c>
       <c r="L51">
         <v>0.005697613332857419</v>
@@ -4955,13 +4955,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U51">
-        <v>1.000071856779174</v>
+        <v>7.185677917376232E-05</v>
       </c>
       <c r="V51">
-        <v>1.000143757829667</v>
+        <v>0.000143757829667468</v>
       </c>
       <c r="W51">
-        <v>1.000922792986773</v>
+        <v>0.0009227929867732243</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4996,7 +4996,7 @@
         <v>1.613672081237654</v>
       </c>
       <c r="K52">
-        <v>61.73965329550946</v>
+        <v>0.1173965329550947</v>
       </c>
       <c r="L52">
         <v>0.006867604772015651</v>
@@ -5026,13 +5026,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U52">
-        <v>1.000061587099556</v>
+        <v>6.158709955572661E-05</v>
       </c>
       <c r="V52">
-        <v>1.000123203285421</v>
+        <v>0.0001232032854210363</v>
       </c>
       <c r="W52">
-        <v>0.9996926859250155</v>
+        <v>-0.0003073140749845216</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5067,7 +5067,7 @@
         <v>1.613672081237654</v>
       </c>
       <c r="K53">
-        <v>61.73965329550946</v>
+        <v>0.1173965329550947</v>
       </c>
       <c r="L53">
         <v>0.007944091805817141</v>
@@ -5097,13 +5097,13 @@
         <v>0.1718749999999716</v>
       </c>
       <c r="U53">
-        <v>1.000020527768939</v>
+        <v>2.052776893934904E-05</v>
       </c>
       <c r="V53">
-        <v>1.000184782162362</v>
+        <v>0.0001847821623617296</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5138,7 +5138,7 @@
         <v>1.983744148393668</v>
       </c>
       <c r="K54">
-        <v>66.48506204734875</v>
+        <v>0.1648506204734875</v>
       </c>
       <c r="L54">
         <v>0.009427365361341878</v>
@@ -5168,13 +5168,13 @@
         <v>0.1843750000000455</v>
       </c>
       <c r="U54">
-        <v>1.000092373064015</v>
+        <v>9.237306401477241E-05</v>
       </c>
       <c r="V54">
-        <v>1.000328440931951</v>
+        <v>0.0003284409319510573</v>
       </c>
       <c r="W54">
-        <v>1.001537042729788</v>
+        <v>0.00153704272978783</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5209,7 +5209,7 @@
         <v>1.512415525349477</v>
       </c>
       <c r="K55">
-        <v>60.19766675096866</v>
+        <v>0.1019766675096867</v>
       </c>
       <c r="L55">
         <v>0.01057898725226227</v>
@@ -5239,13 +5239,13 @@
         <v>0.1906250000000114</v>
       </c>
       <c r="U55">
-        <v>1.00004105090312</v>
+        <v>4.105090311989912E-05</v>
       </c>
       <c r="V55">
-        <v>1.000205208183703</v>
+        <v>0.0002052081837025099</v>
       </c>
       <c r="W55">
-        <v>0.9987722529158992</v>
+        <v>-0.001227747084100783</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5280,7 +5280,7 @@
         <v>1.637465772650751</v>
       </c>
       <c r="K56">
-        <v>62.08481602417297</v>
+        <v>0.1208481602417296</v>
       </c>
       <c r="L56">
         <v>0.01164201663764366</v>
@@ -5310,13 +5310,13 @@
         <v>0.1906250000000114</v>
       </c>
       <c r="U56">
-        <v>1.000082098436025</v>
+        <v>8.209843602480227E-05</v>
       </c>
       <c r="V56">
-        <v>1.000348782339304</v>
+        <v>0.0003487823393035772</v>
       </c>
       <c r="W56">
-        <v>1.000614628149969</v>
+        <v>0.0006146281499694872</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5351,7 +5351,7 @@
         <v>1.637465772650751</v>
       </c>
       <c r="K57">
-        <v>62.08481602417297</v>
+        <v>0.1208481602417297</v>
       </c>
       <c r="L57">
         <v>0.01254101490685153</v>
@@ -5381,13 +5381,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U57">
-        <v>1.000071830234372</v>
+        <v>7.183023437185021E-05</v>
       </c>
       <c r="V57">
-        <v>1.000287132368022</v>
+        <v>0.000287132368021803</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5422,7 +5422,7 @@
         <v>1.637465772650751</v>
       </c>
       <c r="K58">
-        <v>62.08481602417297</v>
+        <v>0.1208481602417297</v>
       </c>
       <c r="L58">
         <v>0.01323749715138234</v>
@@ -5452,13 +5452,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U58">
-        <v>1.000092346525205</v>
+        <v>9.234652520517805E-05</v>
       </c>
       <c r="V58">
-        <v>1.000225539243829</v>
+        <v>0.0002255392438286208</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5493,7 +5493,7 @@
         <v>2.075023133086634</v>
       </c>
       <c r="K59">
-        <v>67.47991944385069</v>
+        <v>0.1747991944385069</v>
       </c>
       <c r="L59">
         <v>0.01439135067188162</v>
@@ -5523,13 +5523,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U59">
-        <v>1.000143636885952</v>
+        <v>0.0001436368859524251</v>
       </c>
       <c r="V59">
-        <v>1.000307484164565</v>
+        <v>0.0003074841645653859</v>
       </c>
       <c r="W59">
-        <v>1.001842751842752</v>
+        <v>0.001842751842751733</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5564,7 +5564,7 @@
         <v>2.075023133086634</v>
       </c>
       <c r="K60">
-        <v>67.47991944385069</v>
+        <v>0.1747991944385069</v>
       </c>
       <c r="L60">
         <v>0.01569585178146842</v>
@@ -5594,13 +5594,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U60">
-        <v>1.000164132865555</v>
+        <v>0.0001641328655546115</v>
       </c>
       <c r="V60">
-        <v>1.000266404360834</v>
+        <v>0.0002664043608344713</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5635,7 +5635,7 @@
         <v>2.155827816454318</v>
       </c>
       <c r="K61">
-        <v>68.31259314002959</v>
+        <v>0.1831259314002959</v>
       </c>
       <c r="L61">
         <v>0.01706297070094968</v>
@@ -5665,13 +5665,13 @@
         <v>0.1875</v>
       </c>
       <c r="U61">
-        <v>1.000194875792324</v>
+        <v>0.000194875792324023</v>
       </c>
       <c r="V61">
-        <v>1.000286820593719</v>
+        <v>0.0002868205937185397</v>
       </c>
       <c r="W61">
-        <v>1.000306560392397</v>
+        <v>0.0003065603923972926</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5706,7 +5706,7 @@
         <v>1.986832674198353</v>
       </c>
       <c r="K62">
-        <v>66.51971807331344</v>
+        <v>0.1651971807331344</v>
       </c>
       <c r="L62">
         <v>0.0182062217430798</v>
@@ -5736,13 +5736,13 @@
         <v>0.171875</v>
       </c>
       <c r="U62">
-        <v>1.000143564711794</v>
+        <v>0.0001435647117937755</v>
       </c>
       <c r="V62">
-        <v>1.000307219662058</v>
+        <v>0.0003072196620583778</v>
       </c>
       <c r="W62">
-        <v>0.9996935335580753</v>
+        <v>-0.0003064664419246688</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5777,7 +5777,7 @@
         <v>1.986832674198353</v>
       </c>
       <c r="K63">
-        <v>66.51971807331344</v>
+        <v>0.1651971807331344</v>
       </c>
       <c r="L63">
         <v>0.01907435772877154</v>
@@ -5807,13 +5807,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U63">
-        <v>1.000102531502804</v>
+        <v>0.0001025315028042595</v>
       </c>
       <c r="V63">
-        <v>1.0002457002457</v>
+        <v>0.0002457002457001423</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5848,7 +5848,7 @@
         <v>1.986832674198353</v>
       </c>
       <c r="K64">
-        <v>66.51971807331344</v>
+        <v>0.1651971807331344</v>
       </c>
       <c r="L64">
         <v>0.0196507660264942</v>
@@ -5878,13 +5878,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U64">
-        <v>1.000123025189408</v>
+        <v>0.000123025189407544</v>
       </c>
       <c r="V64">
-        <v>1.000245639891918</v>
+        <v>0.0002456398919183922</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5919,7 +5919,7 @@
         <v>2.261123062069088</v>
       </c>
       <c r="K65">
-        <v>69.33571714507673</v>
+        <v>0.1933571714507673</v>
       </c>
       <c r="L65">
         <v>0.02027794305992886</v>
@@ -5949,13 +5949,13 @@
         <v>0.1843750000000171</v>
       </c>
       <c r="U65">
-        <v>1.000184515084108</v>
+        <v>0.0001845150841082166</v>
       </c>
       <c r="V65">
-        <v>1.000286509495743</v>
+        <v>0.0002865094957431591</v>
       </c>
       <c r="W65">
-        <v>1.000919681177192</v>
+        <v>0.0009196811771918778</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5990,7 +5990,7 @@
         <v>2.646092027501663</v>
       </c>
       <c r="K66">
-        <v>72.57337465820331</v>
+        <v>0.225733746582033</v>
       </c>
       <c r="L66">
         <v>0.02126957549154845</v>
@@ -6020,13 +6020,13 @@
         <v>0.2093749999999943</v>
       </c>
       <c r="U66">
-        <v>1.000225476832255</v>
+        <v>0.000225476832255378</v>
       </c>
       <c r="V66">
-        <v>1.000306886533819</v>
+        <v>0.0003068865338189397</v>
       </c>
       <c r="W66">
-        <v>1.001225114854517</v>
+        <v>0.001225114854517484</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6061,7 +6061,7 @@
         <v>2.646092027501663</v>
       </c>
       <c r="K67">
-        <v>72.57337465820331</v>
+        <v>0.225733746582033</v>
       </c>
       <c r="L67">
         <v>0.02234067510217916</v>
@@ -6091,13 +6091,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U67">
-        <v>1.000225426003914</v>
+        <v>0.0002254260039142864</v>
       </c>
       <c r="V67">
-        <v>1.000327245208926</v>
+        <v>0.0003272452089255751</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6132,7 +6132,7 @@
         <v>2.391105488411956</v>
       </c>
       <c r="K68">
-        <v>70.51109134123996</v>
+        <v>0.2051109134123996</v>
       </c>
       <c r="L68">
         <v>0.0231977813281781</v>
@@ -6162,13 +6162,13 @@
         <v>0.1968750000000057</v>
       </c>
       <c r="U68">
-        <v>1.000245863852891</v>
+        <v>0.0002458638528914925</v>
       </c>
       <c r="V68">
-        <v>1.000306692019874</v>
+        <v>0.0003066920198735446</v>
       </c>
       <c r="W68">
-        <v>0.9996940960538392</v>
+        <v>-0.0003059039461608126</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6203,7 +6203,7 @@
         <v>2.391105488411957</v>
       </c>
       <c r="K69">
-        <v>70.51109134123998</v>
+        <v>0.2051109134123997</v>
       </c>
       <c r="L69">
         <v>0.02378573551209188</v>
@@ -6233,13 +6233,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U69">
-        <v>1.000266287036942</v>
+        <v>0.0002662870369423143</v>
       </c>
       <c r="V69">
-        <v>1.000204398659145</v>
+        <v>0.0002043986591448999</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6274,7 +6274,7 @@
         <v>1.811002195200014</v>
       </c>
       <c r="K70">
-        <v>64.4254991437726</v>
+        <v>0.144254991437726</v>
       </c>
       <c r="L70">
         <v>0.02375059276069548</v>
@@ -6304,13 +6304,13 @@
         <v>0.1781249999999943</v>
       </c>
       <c r="U70">
-        <v>1.000215020734142</v>
+        <v>0.0002150207341422572</v>
       </c>
       <c r="V70">
-        <v>1.000224792577758</v>
+        <v>0.0002247925777578708</v>
       </c>
       <c r="W70">
-        <v>0.9990820073439413</v>
+        <v>-0.0009179926560587415</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6345,7 +6345,7 @@
         <v>1.668932784012319</v>
       </c>
       <c r="K71">
-        <v>62.53184021754726</v>
+        <v>0.1253184021754725</v>
       </c>
       <c r="L71">
         <v>0.02314189891088131</v>
@@ -6375,13 +6375,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U71">
-        <v>1.000255922035911</v>
+        <v>0.0002559220359108494</v>
       </c>
       <c r="V71">
-        <v>1.000163448769027</v>
+        <v>0.0001634487690265196</v>
       </c>
       <c r="W71">
-        <v>0.9996937212863706</v>
+        <v>-0.0003062787136294265</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6416,7 +6416,7 @@
         <v>1.337574866081676</v>
       </c>
       <c r="K72">
-        <v>57.22062148639394</v>
+        <v>0.07220621486393941</v>
       </c>
       <c r="L72">
         <v>0.02180493575735228</v>
@@ -6446,13 +6446,13 @@
         <v>0.1374999999999602</v>
       </c>
       <c r="U72">
-        <v>1.000194450983001</v>
+        <v>0.0001944509830009711</v>
       </c>
       <c r="V72">
-        <v>1.000102138786183</v>
+        <v>0.0001021387861825929</v>
       </c>
       <c r="W72">
-        <v>0.9990808823529413</v>
+        <v>-0.0009191176470586537</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6487,7 +6487,7 @@
         <v>1.407239706529279</v>
       </c>
       <c r="K73">
-        <v>58.4586446755739</v>
+        <v>0.08458644675573901</v>
       </c>
       <c r="L73">
         <v>0.02014475380402887</v>
@@ -6517,13 +6517,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U73">
-        <v>1.000173948633992</v>
+        <v>0.0001739486339915608</v>
       </c>
       <c r="V73">
-        <v>1.0001225540259</v>
+        <v>0.0001225540258995572</v>
       </c>
       <c r="W73">
-        <v>1.000306654400491</v>
+        <v>0.0003066544004906024</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6558,7 +6558,7 @@
         <v>1.480571117526798</v>
       </c>
       <c r="K74">
-        <v>59.68670307678866</v>
+        <v>0.09686703076788661</v>
       </c>
       <c r="L74">
         <v>0.01843319199363831</v>
@@ -6588,13 +6588,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U74">
-        <v>1.000163687888119</v>
+        <v>0.0001636878881194903</v>
       </c>
       <c r="V74">
-        <v>1.000020423168042</v>
+        <v>2.042316804207189E-05</v>
       </c>
       <c r="W74">
-        <v>1.000306560392397</v>
+        <v>0.0003065603923972926</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6629,7 +6629,7 @@
         <v>1.374474140571327</v>
       </c>
       <c r="K75">
-        <v>57.88541206183076</v>
+        <v>0.07885412061830754</v>
       </c>
       <c r="L75">
         <v>0.01662078669199741</v>
@@ -6659,13 +6659,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U75">
-        <v>1.000132974642758</v>
+        <v>0.000132974642758299</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.9996935335580753</v>
+        <v>-0.0003064664419246688</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6700,7 +6700,7 @@
         <v>1.278068124798126</v>
       </c>
       <c r="K76">
-        <v>56.10315648094958</v>
+        <v>0.06103156480949579</v>
       </c>
       <c r="L76">
         <v>0.01469065551263926</v>
@@ -6730,13 +6730,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U76">
-        <v>1.000122729504173</v>
+        <v>0.0001227295041728027</v>
       </c>
       <c r="V76">
-        <v>0.9999591544981109</v>
+        <v>-4.084550188909741E-05</v>
       </c>
       <c r="W76">
-        <v>0.9996934396076028</v>
+        <v>-0.0003065603923971816</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6771,7 +6771,7 @@
         <v>1.278068124798126</v>
       </c>
       <c r="K77">
-        <v>56.10315648094958</v>
+        <v>0.06103156480949579</v>
       </c>
       <c r="L77">
         <v>0.01275884961144558</v>
@@ -6801,13 +6801,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U77">
-        <v>1.000143166850739</v>
+        <v>0.0001431668507385631</v>
       </c>
       <c r="V77">
-        <v>0.9999795764148437</v>
+        <v>-2.042358515630394E-05</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6842,7 +6842,7 @@
         <v>1.278068124798127</v>
       </c>
       <c r="K78">
-        <v>56.10315648094958</v>
+        <v>0.06103156480949579</v>
       </c>
       <c r="L78">
         <v>0.01090276334506558</v>
@@ -6872,13 +6872,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U78">
-        <v>1.000112472137584</v>
+        <v>0.0001124721375840299</v>
       </c>
       <c r="V78">
-        <v>0.9999795759977127</v>
+        <v>-2.042400228730035E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6913,7 +6913,7 @@
         <v>1.278068124798126</v>
       </c>
       <c r="K79">
-        <v>56.10315648094958</v>
+        <v>0.06103156480949579</v>
       </c>
       <c r="L79">
         <v>0.009171179472990934</v>
@@ -6943,13 +6943,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U79">
-        <v>1.000112459489025</v>
+        <v>0.0001124594890249409</v>
       </c>
       <c r="V79">
-        <v>0.9999795755805639</v>
+        <v>-2.042441943606033E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6984,7 +6984,7 @@
         <v>1.278068124798126</v>
       </c>
       <c r="K80">
-        <v>56.10315648094958</v>
+        <v>0.06103156480949579</v>
       </c>
       <c r="L80">
         <v>0.007591997592589197</v>
@@ -7014,13 +7014,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U80">
-        <v>1.00010222440301</v>
+        <v>0.0001022244030095543</v>
       </c>
       <c r="V80">
-        <v>0.9999183006535949</v>
+        <v>-8.169934640511745E-05</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7055,7 +7055,7 @@
         <v>1.278068124798126</v>
       </c>
       <c r="K81">
-        <v>56.10315648094956</v>
+        <v>0.06103156480949568</v>
       </c>
       <c r="L81">
         <v>0.006178142311001957</v>
@@ -7085,13 +7085,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U81">
-        <v>1.000071549767974</v>
+        <v>7.154976797418833E-05</v>
       </c>
       <c r="V81">
-        <v>0.9998365879565324</v>
+        <v>-0.0001634120434675923</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7126,7 +7126,7 @@
         <v>1.278068124798126</v>
       </c>
       <c r="K82">
-        <v>56.10315648094958</v>
+        <v>0.06103156480949579</v>
       </c>
       <c r="L82">
         <v>0.004932047046516629</v>
@@ -7156,13 +7156,13 @@
         <v>-0.09687499999995453</v>
       </c>
       <c r="U82">
-        <v>1.00008176531311</v>
+        <v>8.17653131099938E-05</v>
       </c>
       <c r="V82">
-        <v>0.999836561248672</v>
+        <v>-0.00016343875132796</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7197,7 +7197,7 @@
         <v>0.9821343782605237</v>
       </c>
       <c r="K83">
-        <v>49.54933374004757</v>
+        <v>-0.004506662599524369</v>
       </c>
       <c r="L83">
         <v>0.003514050681205802</v>
@@ -7227,13 +7227,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U83">
-        <v>1.000051099142557</v>
+        <v>5.109914255663206E-05</v>
       </c>
       <c r="V83">
-        <v>0.9997956681651001</v>
+        <v>-0.0002043318348998735</v>
       </c>
       <c r="W83">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7268,7 +7268,7 @@
         <v>0.8448543203572026</v>
       </c>
       <c r="K84">
-        <v>45.79517802758654</v>
+        <v>-0.04204821972413453</v>
       </c>
       <c r="L84">
         <v>0.001846199868052971</v>
@@ -7298,13 +7298,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U84">
-        <v>0.9999795613873727</v>
+        <v>-2.043861262734925E-05</v>
       </c>
       <c r="V84">
-        <v>0.9997547516860822</v>
+        <v>-0.0002452483139178119</v>
       </c>
       <c r="W84">
-        <v>0.9993861264579497</v>
+        <v>-0.0006138735420503361</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7339,7 +7339,7 @@
         <v>0.918421302283166</v>
       </c>
       <c r="K85">
-        <v>47.87380650903571</v>
+        <v>-0.0212619349096429</v>
       </c>
       <c r="L85">
         <v>0.0002382030540944674</v>
@@ -7369,13 +7369,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U85">
-        <v>1.000030658545559</v>
+        <v>3.065854555872605E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998364610163948</v>
+        <v>-0.0001635389836052159</v>
       </c>
       <c r="W85">
-        <v>1.000307125307125</v>
+        <v>0.0003071253071251778</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7410,7 +7410,7 @@
         <v>0.7952540582243158</v>
       </c>
       <c r="K86">
-        <v>44.29757752565121</v>
+        <v>-0.05702422474348784</v>
       </c>
       <c r="L86">
         <v>-0.001455276346446441</v>
@@ -7440,13 +7440,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U86">
-        <v>0.9999897807981196</v>
+        <v>-1.021920188037928E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998159885503989</v>
+        <v>-0.000184011449601118</v>
       </c>
       <c r="W86">
-        <v>0.999385937979736</v>
+        <v>-0.000614062020264039</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7481,7 +7481,7 @@
         <v>1.007002844319494</v>
       </c>
       <c r="K87">
-        <v>50.17446024900549</v>
+        <v>0.001744602490054925</v>
       </c>
       <c r="L87">
         <v>-0.002752434050237329</v>
@@ -7511,13 +7511,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U87">
-        <v>1.000020438612627</v>
+        <v>2.043861262679414E-05</v>
       </c>
       <c r="V87">
-        <v>0.9999386515613177</v>
+        <v>-6.134843868232931E-05</v>
       </c>
       <c r="W87">
-        <v>1.000921658986175</v>
+        <v>0.0009216589861751334</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7552,7 +7552,7 @@
         <v>1.081300664001985</v>
       </c>
       <c r="K88">
-        <v>51.95312156018962</v>
+        <v>0.01953121560189619</v>
       </c>
       <c r="L88">
         <v>-0.003605205878666256</v>
@@ -7582,13 +7582,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U88">
-        <v>1.000030657292348</v>
+        <v>3.065729234830172E-05</v>
       </c>
       <c r="V88">
-        <v>0.9999386477974558</v>
+        <v>-6.135220254421814E-05</v>
       </c>
       <c r="W88">
-        <v>1.000306936771025</v>
+        <v>0.0003069367710251125</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7623,7 +7623,7 @@
         <v>1.237717126491527</v>
       </c>
       <c r="K89">
-        <v>55.31159912209814</v>
+        <v>0.05311599122098143</v>
       </c>
       <c r="L89">
         <v>-0.003897988415762134</v>
@@ -7653,13 +7653,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U89">
-        <v>0.9999897812158308</v>
+        <v>-1.021878416918032E-05</v>
       </c>
       <c r="V89">
-        <v>0.9999590960220882</v>
+        <v>-4.090397791178813E-05</v>
       </c>
       <c r="W89">
-        <v>1.000613685179503</v>
+        <v>0.0006136851795031095</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7694,7 +7694,7 @@
         <v>1.143573095834356</v>
       </c>
       <c r="K90">
-        <v>53.34891999049075</v>
+        <v>0.03348919990490751</v>
       </c>
       <c r="L90">
         <v>-0.003930305418149878</v>
@@ -7724,13 +7724,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U90">
-        <v>0.9999795622228125</v>
+        <v>-2.043777718752082E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999590943488843</v>
+        <v>-4.090565111569688E-05</v>
       </c>
       <c r="W90">
-        <v>0.9996933455995093</v>
+        <v>-0.0003066544004907135</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7765,7 +7765,7 @@
         <v>1.303704966870202</v>
       </c>
       <c r="K91">
-        <v>56.59166367303565</v>
+        <v>0.06591663673035653</v>
       </c>
       <c r="L91">
         <v>-0.003565101151484092</v>
@@ -7795,13 +7795,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U91">
-        <v>0.9999897809025509</v>
+        <v>-1.021909744913785E-05</v>
       </c>
       <c r="V91">
-        <v>1.000020453662228</v>
+        <v>2.045366222813705E-05</v>
       </c>
       <c r="W91">
-        <v>1.000613496932515</v>
+        <v>0.0006134969325153339</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7836,7 +7836,7 @@
         <v>1.202369358912917</v>
       </c>
       <c r="K92">
-        <v>54.59435557650525</v>
+        <v>0.04594355576505249</v>
       </c>
       <c r="L92">
         <v>-0.003080991457155778</v>
@@ -7866,13 +7866,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U92">
-        <v>0.9999897807981196</v>
+        <v>-1.021920188037928E-05</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W92">
-        <v>0.9996934396076028</v>
+        <v>-0.0003065603923971816</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7907,7 +7907,7 @@
         <v>1.284189298023641</v>
       </c>
       <c r="K93">
-        <v>56.22079129495815</v>
+        <v>0.0622079129495815</v>
       </c>
       <c r="L93">
         <v>-0.002432782386147379</v>
@@ -7937,13 +7937,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93">
-        <v>1.000020453243884</v>
+        <v>2.045324388433301E-05</v>
       </c>
       <c r="W93">
-        <v>1.000306654400491</v>
+        <v>0.0003066544004906024</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7978,7 +7978,7 @@
         <v>1.182357295957956</v>
       </c>
       <c r="K94">
-        <v>54.1779890097673</v>
+        <v>0.04177989009767302</v>
       </c>
       <c r="L94">
         <v>-0.001829266676893948</v>
@@ -8008,13 +8008,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U94">
-        <v>0.9999897806936864</v>
+        <v>-1.021930631361911E-05</v>
       </c>
       <c r="V94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>0.9996934396076028</v>
+        <v>-0.0003065603923971816</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8049,7 +8049,7 @@
         <v>1.013211323554244</v>
       </c>
       <c r="K95">
-        <v>50.32811566773129</v>
+        <v>0.00328115667731288</v>
       </c>
       <c r="L95">
         <v>-0.001507988016881513</v>
@@ -8079,13 +8079,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U95">
-        <v>0.9999386835355074</v>
+        <v>-6.131646449258898E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999590943488843</v>
+        <v>-4.090565111569688E-05</v>
       </c>
       <c r="W95">
-        <v>0.9993866911990186</v>
+        <v>-0.0006133088009814269</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8120,7 +8120,7 @@
         <v>0.82651655937678</v>
       </c>
       <c r="K96">
-        <v>45.25097542279021</v>
+        <v>-0.04749024577209793</v>
       </c>
       <c r="L96">
         <v>-0.001707740882840731</v>
@@ -8150,13 +8150,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U96">
-        <v>0.9998671395137307</v>
+        <v>-0.0001328604862692595</v>
       </c>
       <c r="V96">
-        <v>0.9998977316888588</v>
+        <v>-0.0001022683111412404</v>
       </c>
       <c r="W96">
-        <v>0.9990794722307458</v>
+        <v>-0.0009205277692542202</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8191,7 +8191,7 @@
         <v>1.085127703079061</v>
       </c>
       <c r="K97">
-        <v>52.04130670158369</v>
+        <v>0.02041306701583689</v>
       </c>
       <c r="L97">
         <v>-0.0017574836801303</v>
@@ -8221,13 +8221,13 @@
         <v>0.05000000000003979</v>
       </c>
       <c r="U97">
-        <v>0.9999080074411758</v>
+        <v>-9.199255882419433E-05</v>
       </c>
       <c r="V97">
-        <v>0.9999795442457964</v>
+        <v>-2.045575420361878E-05</v>
       </c>
       <c r="W97">
-        <v>1.001228501228501</v>
+        <v>0.001228501228501155</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8262,7 +8262,7 @@
         <v>1.085127703079061</v>
       </c>
       <c r="K98">
-        <v>52.04130670158369</v>
+        <v>0.02041306701583689</v>
       </c>
       <c r="L98">
         <v>-0.001706773854426776</v>
@@ -8292,13 +8292,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U98">
-        <v>0.9999182213135702</v>
+        <v>-8.17786864297787E-05</v>
       </c>
       <c r="V98">
-        <v>1.0000409123453</v>
+        <v>4.091234530023691E-05</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8333,7 +8333,7 @@
         <v>1.228402574936281</v>
       </c>
       <c r="K99">
-        <v>55.12480503983468</v>
+        <v>0.05124805039834679</v>
       </c>
       <c r="L99">
         <v>-0.001368841180486027</v>
@@ -8363,13 +8363,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U99">
-        <v>0.9999386609689522</v>
+        <v>-6.133903104776905E-05</v>
       </c>
       <c r="V99">
-        <v>1.000122732014646</v>
+        <v>0.0001227320146461874</v>
       </c>
       <c r="W99">
-        <v>1.000613496932515</v>
+        <v>0.0006134969325153339</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8404,7 +8404,7 @@
         <v>1.228402574936281</v>
       </c>
       <c r="K100">
-        <v>55.12480503983468</v>
+        <v>0.05124805039834679</v>
       </c>
       <c r="L100">
         <v>-0.0008734374679199145</v>
@@ -8434,13 +8434,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U100">
-        <v>0.9999693286031222</v>
+        <v>-3.067139687784604E-05</v>
       </c>
       <c r="V100">
-        <v>1.000102264127789</v>
+        <v>0.0001022641277892422</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8475,7 +8475,7 @@
         <v>1.138066645414563</v>
       </c>
       <c r="K101">
-        <v>53.22877319354543</v>
+        <v>0.03228773193545431</v>
       </c>
       <c r="L101">
         <v>-0.0004227083306420214</v>
@@ -8505,13 +8505,13 @@
         <v>0.009375000000034106</v>
       </c>
       <c r="U101">
-        <v>0.9999693276623589</v>
+        <v>-3.067233764109112E-05</v>
       </c>
       <c r="V101">
-        <v>1.000122704405088</v>
+        <v>0.0001227044050879922</v>
       </c>
       <c r="W101">
-        <v>0.9996934396076028</v>
+        <v>-0.0003065603923971816</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8546,7 +8546,7 @@
         <v>1.138066645414563</v>
       </c>
       <c r="K102">
-        <v>53.22877319354543</v>
+        <v>0.03228773193545431</v>
       </c>
       <c r="L102">
         <v>-2.622924936814741E-05</v>
@@ -8576,13 +8576,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V102">
-        <v>1.000061344675282</v>
+        <v>6.134467528240428E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8617,7 +8617,7 @@
         <v>1.219550692101488</v>
       </c>
       <c r="K103">
-        <v>54.94583640019539</v>
+        <v>0.04945836400195391</v>
       </c>
       <c r="L103">
         <v>0.0004239039466783653</v>
@@ -8647,13 +8647,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U103">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V103">
-        <v>1.000061340912344</v>
+        <v>6.134091234377692E-05</v>
       </c>
       <c r="W103">
-        <v>1.000306654400491</v>
+        <v>0.0003066544004906024</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8688,7 +8688,7 @@
         <v>1.123209962594858</v>
       </c>
       <c r="K104">
-        <v>52.90150208329558</v>
+        <v>0.02901502083295571</v>
       </c>
       <c r="L104">
         <v>0.0007646177131657041</v>
@@ -8718,13 +8718,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U104">
-        <v>0.9999795511476917</v>
+        <v>-2.044885230834126E-05</v>
       </c>
       <c r="V104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104">
-        <v>0.9996934396076028</v>
+        <v>-0.0003065603923971816</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8759,7 +8759,7 @@
         <v>0.9630464140475569</v>
       </c>
       <c r="K105">
-        <v>49.05876942878163</v>
+        <v>-0.009412305712183711</v>
       </c>
       <c r="L105">
         <v>0.0007911603714891309</v>
@@ -8789,13 +8789,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U105">
-        <v>0.9999693260942918</v>
+        <v>-3.067390570821171E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999795542833777</v>
+        <v>-2.044571662229711E-05</v>
       </c>
       <c r="W105">
-        <v>0.9993866911990186</v>
+        <v>-0.0006133088009814269</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8830,7 +8830,7 @@
         <v>0.8373592436426815</v>
       </c>
       <c r="K106">
-        <v>45.57406215142574</v>
+        <v>-0.04425937848574263</v>
       </c>
       <c r="L106">
         <v>0.0003994215519198501</v>
@@ -8860,13 +8860,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U106">
-        <v>0.9999591002044989</v>
+        <v>-4.089979550114808E-05</v>
       </c>
       <c r="V106">
-        <v>0.9998977693267087</v>
+        <v>-0.0001022306732912925</v>
       </c>
       <c r="W106">
-        <v>0.9993863148204971</v>
+        <v>-0.0006136851795028875</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8901,7 +8901,7 @@
         <v>0.6942883575115572</v>
       </c>
       <c r="K107">
-        <v>40.97816965060631</v>
+        <v>-0.09021830349393689</v>
       </c>
       <c r="L107">
         <v>-0.0005572772952398181</v>
@@ -8931,13 +8931,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U107">
-        <v>0.9999284224303652</v>
+        <v>-7.157756963482864E-05</v>
       </c>
       <c r="V107">
-        <v>0.9998568624243416</v>
+        <v>-0.0001431375756584252</v>
       </c>
       <c r="W107">
-        <v>0.9990789069696039</v>
+        <v>-0.000921093030396114</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8972,7 +8972,7 @@
         <v>0.6550194529764986</v>
       </c>
       <c r="K108">
-        <v>39.5777494819452</v>
+        <v>-0.1042225051805479</v>
       </c>
       <c r="L108">
         <v>-0.001904953289859605</v>
@@ -9002,13 +9002,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U108">
-        <v>0.9999181912076001</v>
+        <v>-8.180879239993999E-05</v>
       </c>
       <c r="V108">
-        <v>0.9998159396281983</v>
+        <v>-0.000184060371801742</v>
       </c>
       <c r="W108">
-        <v>0.9996926859250155</v>
+        <v>-0.0003073140749845216</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9043,7 +9043,7 @@
         <v>0.5557557412016856</v>
       </c>
       <c r="K109">
-        <v>35.72255762799968</v>
+        <v>-0.1427744237200032</v>
       </c>
       <c r="L109">
         <v>-0.003731814239649374</v>
@@ -9073,13 +9073,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U109">
-        <v>0.9998875037072641</v>
+        <v>-0.0001124962927359086</v>
       </c>
       <c r="V109">
-        <v>0.9997749959090165</v>
+        <v>-0.0002250040909834716</v>
       </c>
       <c r="W109">
-        <v>0.9990777743621272</v>
+        <v>-0.0009222256378728089</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9114,7 +9114,7 @@
         <v>0.5557557412016856</v>
       </c>
       <c r="K110">
-        <v>35.72255762799968</v>
+        <v>-0.1427744237200032</v>
       </c>
       <c r="L110">
         <v>-0.005719119437544141</v>
@@ -9144,13 +9144,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U110">
-        <v>0.9998874910504245</v>
+        <v>-0.000112508949575485</v>
       </c>
       <c r="V110">
-        <v>0.9998158643124578</v>
+        <v>-0.000184135687542164</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9185,7 +9185,7 @@
         <v>0.5557557412016856</v>
       </c>
       <c r="K111">
-        <v>35.72255762799968</v>
+        <v>-0.1427744237200032</v>
       </c>
       <c r="L111">
         <v>-0.007656366975789905</v>
@@ -9215,13 +9215,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U111">
-        <v>0.9998874783907366</v>
+        <v>-0.0001125216092634496</v>
       </c>
       <c r="V111">
-        <v>0.9998772202668414</v>
+        <v>-0.0001227797331585512</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9256,7 +9256,7 @@
         <v>0.614673231935677</v>
       </c>
       <c r="K112">
-        <v>38.06796445116045</v>
+        <v>-0.1193203554883955</v>
       </c>
       <c r="L112">
         <v>-0.009300481139894182</v>
@@ -9286,13 +9286,13 @@
         <v>-0.2031250000000284</v>
       </c>
       <c r="U112">
-        <v>0.9998976961165446</v>
+        <v>-0.0001023038834554457</v>
       </c>
       <c r="V112">
-        <v>0.9998158077851907</v>
+        <v>-0.0001841922148092534</v>
       </c>
       <c r="W112">
-        <v>1.000307692307692</v>
+        <v>0.0003076923076923421</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9327,7 +9327,7 @@
         <v>0.67669164323458</v>
       </c>
       <c r="K113">
-        <v>40.35874133237428</v>
+        <v>-0.09641258667625718</v>
       </c>
       <c r="L113">
         <v>-0.01051684362825929</v>
@@ -9357,13 +9357,13 @@
         <v>-0.2218749999999829</v>
       </c>
       <c r="U113">
-        <v>0.9999386113896334</v>
+        <v>-6.138861036664167E-05</v>
       </c>
       <c r="V113">
-        <v>0.99983624342415</v>
+        <v>-0.0001637565758499937</v>
       </c>
       <c r="W113">
-        <v>1.000307597662258</v>
+        <v>0.0003075976622577414</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9398,7 +9398,7 @@
         <v>0.7419741814439886</v>
       </c>
       <c r="K114">
-        <v>42.5938678855124</v>
+        <v>-0.07406132114487596</v>
       </c>
       <c r="L114">
         <v>-0.01124664625239275</v>
@@ -9428,13 +9428,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U114">
-        <v>0.9999693038104205</v>
+        <v>-3.069618957951548E-05</v>
       </c>
       <c r="V114">
-        <v>0.9998157436789845</v>
+        <v>-0.0001842563210154857</v>
       </c>
       <c r="W114">
-        <v>1.000307503075031</v>
+        <v>0.0003075030750308017</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9469,7 +9469,7 @@
         <v>0.7419741814439884</v>
       </c>
       <c r="K115">
-        <v>42.5938678855124</v>
+        <v>-0.07406132114487607</v>
       </c>
       <c r="L115">
         <v>-0.0115942648472268</v>
@@ -9499,13 +9499,13 @@
         <v>-0.203125</v>
       </c>
       <c r="U115">
-        <v>0.999959070490847</v>
+        <v>-4.09295091530204E-05</v>
       </c>
       <c r="V115">
-        <v>0.999815709722336</v>
+        <v>-0.0001842902776639788</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9540,7 +9540,7 @@
         <v>0.7419741814439884</v>
       </c>
       <c r="K116">
-        <v>42.5938678855124</v>
+        <v>-0.07406132114487607</v>
       </c>
       <c r="L116">
         <v>-0.01164599642012518</v>
@@ -9570,13 +9570,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U116">
-        <v>0.9999795344077768</v>
+        <v>-2.046559222323996E-05</v>
       </c>
       <c r="V116">
-        <v>0.9998361562250395</v>
+        <v>-0.0001638437749604815</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9611,7 +9611,7 @@
         <v>0.6894758753611976</v>
       </c>
       <c r="K117">
-        <v>40.81004561333512</v>
+        <v>-0.09189954386664878</v>
       </c>
       <c r="L117">
         <v>-0.01158454587884002</v>
@@ -9641,13 +9641,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U117">
-        <v>0.9999386019667839</v>
+        <v>-6.139803321614234E-05</v>
       </c>
       <c r="V117">
-        <v>0.9998156455478397</v>
+        <v>-0.0001843544521602514</v>
       </c>
       <c r="W117">
-        <v>0.9996925914540423</v>
+        <v>-0.000307408545957677</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9682,7 +9682,7 @@
         <v>0.6894758753611976</v>
       </c>
       <c r="K118">
-        <v>40.81004561333512</v>
+        <v>-0.09189954386664878</v>
       </c>
       <c r="L118">
         <v>-0.01141630101397032</v>
@@ -9712,13 +9712,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U118">
-        <v>0.9999283645629725</v>
+        <v>-7.163543702748409E-05</v>
       </c>
       <c r="V118">
-        <v>0.9997951239500102</v>
+        <v>-0.0002048760499897551</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9753,7 +9753,7 @@
         <v>0.8462734289433342</v>
       </c>
       <c r="K119">
-        <v>45.83684169834348</v>
+        <v>-0.04163158301656517</v>
       </c>
       <c r="L119">
         <v>-0.01092894123402781</v>
@@ -9783,13 +9783,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U119">
-        <v>0.9999283594309692</v>
+        <v>-7.164056903075089E-05</v>
       </c>
       <c r="V119">
-        <v>0.9998565573770493</v>
+        <v>-0.0001434426229507402</v>
       </c>
       <c r="W119">
-        <v>1.000615006150061</v>
+        <v>0.0006150061500613813</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9824,7 +9824,7 @@
         <v>0.9287984571444824</v>
       </c>
       <c r="K120">
-        <v>48.15425135291405</v>
+        <v>-0.01845748647085949</v>
       </c>
       <c r="L120">
         <v>-0.01012763702595752</v>
@@ -9854,13 +9854,13 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>0.999948824498736</v>
+        <v>-5.117550126398918E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999180210276065</v>
+        <v>-8.197897239348162E-05</v>
       </c>
       <c r="W120">
-        <v>1.000307314074985</v>
+        <v>0.0003073140749847436</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9895,7 +9895,7 @@
         <v>1.102535358620534</v>
       </c>
       <c r="K121">
-        <v>52.43837418001395</v>
+        <v>0.02438374180013947</v>
       </c>
       <c r="L121">
         <v>-0.008926583921935287</v>
@@ -9925,13 +9925,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U121">
-        <v>0.9999488218796698</v>
+        <v>-5.117812033017533E-05</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W121">
-        <v>1.000614439324117</v>
+        <v>0.0006144393241167556</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9966,7 +9966,7 @@
         <v>1.102535358620534</v>
       </c>
       <c r="K122">
-        <v>52.43837418001395</v>
+        <v>0.02438374180013947</v>
       </c>
       <c r="L122">
         <v>-0.007527245859256115</v>
@@ -9996,13 +9996,13 @@
         <v>0.0625</v>
       </c>
       <c r="U122">
-        <v>0.9999590554082688</v>
+        <v>-4.094459173120679E-05</v>
       </c>
       <c r="V122">
-        <v>1.000061489270122</v>
+        <v>6.148927012206151E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10037,7 +10037,7 @@
         <v>1.198788489632224</v>
       </c>
       <c r="K123">
-        <v>54.52040954756576</v>
+        <v>0.04520409547565762</v>
       </c>
       <c r="L123">
         <v>-0.005957617084855526</v>
@@ -10067,13 +10067,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U123">
-        <v>0.9999590537317405</v>
+        <v>-4.094626825945635E-05</v>
       </c>
       <c r="V123">
-        <v>1.000102475815708</v>
+        <v>0.0001024758157075478</v>
       </c>
       <c r="W123">
-        <v>1.000307031010132</v>
+        <v>0.000307031010132075</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10108,7 +10108,7 @@
         <v>1.198788489632224</v>
       </c>
       <c r="K124">
-        <v>54.52040954756576</v>
+        <v>0.04520409547565762</v>
       </c>
       <c r="L124">
         <v>-0.004363082731365699</v>
@@ -10138,13 +10138,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U124">
-        <v>0.9999692890413062</v>
+        <v>-3.071095869378038E-05</v>
       </c>
       <c r="V124">
-        <v>1.000163944504785</v>
+        <v>0.0001639445047851851</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10179,7 +10179,7 @@
         <v>1.305440158343178</v>
       </c>
       <c r="K125">
-        <v>56.62433499385828</v>
+        <v>0.06624334993858272</v>
       </c>
       <c r="L125">
         <v>-0.002727306231291293</v>
@@ -10209,13 +10209,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>1.000184407335314</v>
+        <v>0.0001844073353138853</v>
       </c>
       <c r="W125">
-        <v>1.000306936771025</v>
+        <v>0.0003069367710251125</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10250,7 +10250,7 @@
         <v>1.529969987208471</v>
       </c>
       <c r="K126">
-        <v>60.47383941090209</v>
+        <v>0.104738394109021</v>
       </c>
       <c r="L126">
         <v>-0.0009371360101067257</v>
@@ -10280,13 +10280,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U126">
-        <v>1.000051186503143</v>
+        <v>5.118650314273054E-05</v>
       </c>
       <c r="V126">
-        <v>1.000225345187856</v>
+        <v>0.0002253451878559964</v>
       </c>
       <c r="W126">
-        <v>1.000613685179503</v>
+        <v>0.0006136851795031095</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10321,7 +10321,7 @@
         <v>1.368275905661765</v>
       </c>
       <c r="K127">
-        <v>57.77519006086536</v>
+        <v>0.07775190060865356</v>
       </c>
       <c r="L127">
         <v>0.0007240313165665194</v>
@@ -10351,13 +10351,13 @@
         <v>0.140625</v>
       </c>
       <c r="U127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V127">
-        <v>1.000184331797235</v>
+        <v>0.0001843317972352043</v>
       </c>
       <c r="W127">
-        <v>0.9996933455995093</v>
+        <v>-0.0003066544004907135</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10392,7 +10392,7 @@
         <v>1.231297926400251</v>
       </c>
       <c r="K128">
-        <v>55.18303548046145</v>
+        <v>0.05183035480461451</v>
       </c>
       <c r="L128">
         <v>0.00208664133373154</v>
@@ -10422,13 +10422,13 @@
         <v>0.140625</v>
       </c>
       <c r="U128">
-        <v>0.9999897632233562</v>
+        <v>-1.023677664380163E-05</v>
       </c>
       <c r="V128">
-        <v>1.000143342753</v>
+        <v>0.0001433427529997644</v>
       </c>
       <c r="W128">
-        <v>0.9996932515337422</v>
+        <v>-0.000306748466257778</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10463,7 +10463,7 @@
         <v>1.113914855700054</v>
       </c>
       <c r="K129">
-        <v>52.69440501335447</v>
+        <v>0.02694405013354473</v>
       </c>
       <c r="L129">
         <v>0.003062040638951664</v>
@@ -10493,13 +10493,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U129">
-        <v>0.9999590524742541</v>
+        <v>-4.094752574590466E-05</v>
       </c>
       <c r="V129">
-        <v>1.000102373006286</v>
+        <v>0.0001023730062856831</v>
       </c>
       <c r="W129">
-        <v>0.9996931574102487</v>
+        <v>-0.0003068425897513327</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10534,7 +10534,7 @@
         <v>1.012327480496354</v>
       </c>
       <c r="K130">
-        <v>50.30629906453678</v>
+        <v>0.003062990645367858</v>
       </c>
       <c r="L130">
         <v>0.003617669858852786</v>
@@ -10564,13 +10564,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U130">
-        <v>0.9999488134968574</v>
+        <v>-5.118650314261952E-05</v>
       </c>
       <c r="V130">
-        <v>1.000081890021701</v>
+        <v>8.189002170078119E-05</v>
       </c>
       <c r="W130">
-        <v>0.9996930632289748</v>
+        <v>-0.0003069367710252235</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10605,7 +10605,7 @@
         <v>1.108325912166956</v>
       </c>
       <c r="K131">
-        <v>52.56900300712089</v>
+        <v>0.02569003007120896</v>
       </c>
       <c r="L131">
         <v>0.003982253191750783</v>
@@ -10635,13 +10635,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U131">
-        <v>0.9999692865259988</v>
+        <v>-3.071347400118718E-05</v>
       </c>
       <c r="V131">
-        <v>1.000102354145343</v>
+        <v>0.0001023541453428756</v>
       </c>
       <c r="W131">
-        <v>1.000307031010132</v>
+        <v>0.000307031010132075</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10676,7 +10676,7 @@
         <v>1.51252983499043</v>
       </c>
       <c r="K132">
-        <v>60.19947759132545</v>
+        <v>0.1019947759132545</v>
       </c>
       <c r="L132">
         <v>0.004640715774744166</v>
@@ -10706,13 +10706,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U132">
-        <v>1.000010238139116</v>
+        <v>1.023813911582572E-05</v>
       </c>
       <c r="V132">
-        <v>1.000204687340088</v>
+        <v>0.00020468734008805</v>
       </c>
       <c r="W132">
-        <v>1.001227747084101</v>
+        <v>0.001227747084100672</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10747,7 +10747,7 @@
         <v>1.367110986639246</v>
       </c>
       <c r="K133">
-        <v>57.75441009549914</v>
+        <v>0.07754410095499142</v>
       </c>
       <c r="L133">
         <v>0.005306447437097318</v>
@@ -10777,13 +10777,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U133">
-        <v>0.9999897619657026</v>
+        <v>-1.023803429744952E-05</v>
       </c>
       <c r="V133">
-        <v>1.000184180906579</v>
+        <v>0.0001841809065794564</v>
       </c>
       <c r="W133">
-        <v>0.9996934396076028</v>
+        <v>-0.0003065603923971816</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10818,7 +10818,7 @@
         <v>1.569516874321622</v>
       </c>
       <c r="K134">
-        <v>61.08217813264955</v>
+        <v>0.1108217813264954</v>
       </c>
       <c r="L134">
         <v>0.006138437597674113</v>
@@ -10848,13 +10848,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U134">
-        <v>1.000020476278232</v>
+        <v>2.047627823187348E-05</v>
       </c>
       <c r="V134">
-        <v>1.00018414699022</v>
+        <v>0.0001841469902195136</v>
       </c>
       <c r="W134">
-        <v>1.000613308800981</v>
+        <v>0.0006133088009812049</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10889,7 +10889,7 @@
         <v>1.569516874321622</v>
       </c>
       <c r="K135">
-        <v>61.08217813264955</v>
+        <v>0.1108217813264954</v>
       </c>
       <c r="L135">
         <v>0.006995678028714488</v>
@@ -10919,13 +10919,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U135">
-        <v>1.000040951717925</v>
+        <v>4.095171792450891E-05</v>
       </c>
       <c r="V135">
-        <v>1.000163656076755</v>
+        <v>0.0001636560767546147</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10960,7 +10960,7 @@
         <v>1.569516874321622</v>
       </c>
       <c r="K136">
-        <v>61.08217813264955</v>
+        <v>0.1108217813264954</v>
       </c>
       <c r="L136">
         <v>0.007788012591196454</v>
@@ -10990,13 +10990,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U136">
-        <v>1.000061425061425</v>
+        <v>6.142506142503557E-05</v>
       </c>
       <c r="V136">
-        <v>1.000122721973369</v>
+        <v>0.0001227219733694884</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11031,7 +11031,7 @@
         <v>1.569516874321622</v>
       </c>
       <c r="K137">
-        <v>61.08217813264954</v>
+        <v>0.1108217813264953</v>
       </c>
       <c r="L137">
         <v>0.008462080323257459</v>
@@ -11061,13 +11061,13 @@
         <v>0.0625</v>
       </c>
       <c r="U137">
-        <v>1.000092131932928</v>
+        <v>9.21319329278969E-05</v>
       </c>
       <c r="V137">
-        <v>1.000122706914535</v>
+        <v>0.0001227069145348647</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11102,7 +11102,7 @@
         <v>1.569516874321622</v>
       </c>
       <c r="K138">
-        <v>61.08217813264955</v>
+        <v>0.1108217813264954</v>
       </c>
       <c r="L138">
         <v>0.008990647309191658</v>
@@ -11132,13 +11132,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U138">
-        <v>1.000102359383797</v>
+        <v>0.0001023593837965464</v>
       </c>
       <c r="V138">
-        <v>1.000102243216163</v>
+        <v>0.0001022432161625897</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11173,7 +11173,7 @@
         <v>1.569516874321622</v>
       </c>
       <c r="K139">
-        <v>61.08217813264955</v>
+        <v>0.1108217813264954</v>
       </c>
       <c r="L139">
         <v>0.009364575606978844</v>
@@ -11203,13 +11203,13 @@
         <v>0.09687500000003979</v>
       </c>
       <c r="U139">
-        <v>1.000133053579653</v>
+        <v>0.0001330535796528753</v>
       </c>
       <c r="V139">
-        <v>1.000102232763556</v>
+        <v>0.0001022327635560316</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11244,7 +11244,7 @@
         <v>1.110752213714041</v>
       </c>
       <c r="K140">
-        <v>52.62352475564063</v>
+        <v>0.02623524755640627</v>
       </c>
       <c r="L140">
         <v>0.009251507408489023</v>
@@ -11274,13 +11274,13 @@
         <v>0.07812500000002842</v>
       </c>
       <c r="U140">
-        <v>1.000102335291349</v>
+        <v>0.0001023352913487319</v>
       </c>
       <c r="V140">
-        <v>1.000020444462617</v>
+        <v>2.044446261728616E-05</v>
       </c>
       <c r="W140">
-        <v>0.9990806006742261</v>
+        <v>-0.0009193993257738953</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11315,7 +11315,7 @@
         <v>0.9216938870774661</v>
       </c>
       <c r="K141">
-        <v>47.9625757918806</v>
+        <v>-0.02037424208119398</v>
       </c>
       <c r="L141">
         <v>0.008593457710761736</v>
@@ -11345,13 +11345,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U141">
-        <v>1.000081859855927</v>
+        <v>8.185985592668032E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999386678660507</v>
+        <v>-6.133213394932113E-05</v>
       </c>
       <c r="W141">
-        <v>0.9993865030674847</v>
+        <v>-0.0006134969325153339</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11386,7 +11386,7 @@
         <v>1.100859647382526</v>
       </c>
       <c r="K142">
-        <v>52.40043754251236</v>
+        <v>0.02400437542512368</v>
       </c>
       <c r="L142">
         <v>0.007839525722764964</v>
@@ -11416,13 +11416,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U142">
-        <v>1.000092084799869</v>
+        <v>9.208479986888563E-05</v>
       </c>
       <c r="V142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>1.00061387354205</v>
+        <v>0.000613873542050225</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11457,7 +11457,7 @@
         <v>1.195157415964164</v>
       </c>
       <c r="K143">
-        <v>54.44518043546426</v>
+        <v>0.04445180435464258</v>
       </c>
       <c r="L143">
         <v>0.007158783500367185</v>
@@ -11487,13 +11487,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U143">
-        <v>1.000092076321039</v>
+        <v>9.207632103924723E-05</v>
       </c>
       <c r="V143">
-        <v>1.000040890597207</v>
+        <v>4.089059720735477E-05</v>
       </c>
       <c r="W143">
-        <v>1.000306748466258</v>
+        <v>0.000306748466257778</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11528,7 +11528,7 @@
         <v>1.195157415964164</v>
       </c>
       <c r="K144">
-        <v>54.44518043546426</v>
+        <v>0.04445180435464258</v>
       </c>
       <c r="L144">
         <v>0.006539689569740314</v>
@@ -11558,13 +11558,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U144">
-        <v>1.000081838083352</v>
+        <v>8.183808335204823E-05</v>
       </c>
       <c r="V144">
-        <v>1.000061333387852</v>
+        <v>6.133338785185849E-05</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11599,7 +11599,7 @@
         <v>0.9099339119600355</v>
       </c>
       <c r="K145">
-        <v>47.6421674206639</v>
+        <v>-0.02357832579336105</v>
       </c>
       <c r="L145">
         <v>0.005638382543525759</v>
@@ -11629,13 +11629,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U145">
-        <v>1.000051144616518</v>
+        <v>5.114461651789526E-05</v>
       </c>
       <c r="V145">
-        <v>1.000020443208766</v>
+        <v>2.044320876604111E-05</v>
       </c>
       <c r="W145">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11670,7 +11670,7 @@
         <v>0.9099339119600354</v>
       </c>
       <c r="K146">
-        <v>47.6421674206639</v>
+        <v>-0.02357832579336105</v>
       </c>
       <c r="L146">
         <v>0.004603071444336249</v>
@@ -11700,13 +11700,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U146">
-        <v>1.00005114200088</v>
+        <v>5.11420008795227E-05</v>
       </c>
       <c r="V146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11741,7 +11741,7 @@
         <v>0.9980777049390286</v>
       </c>
       <c r="K147">
-        <v>49.95189638880861</v>
+        <v>-0.0004810361119138573</v>
       </c>
       <c r="L147">
         <v>0.003647547639434306</v>
@@ -11771,13 +11771,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U147">
-        <v>1.000071595139713</v>
+        <v>7.159513971277676E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999386716274504</v>
+        <v>-6.132837254957391E-05</v>
       </c>
       <c r="W147">
-        <v>1.000306936771025</v>
+        <v>0.0003069367710251125</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11812,7 +11812,7 @@
         <v>0.9133357306614109</v>
       </c>
       <c r="K148">
-        <v>47.73525712320674</v>
+        <v>-0.02264742876793258</v>
       </c>
       <c r="L148">
         <v>0.002676255149671226</v>
@@ -11842,13 +11842,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U148">
-        <v>1.000061362869328</v>
+        <v>6.136286932778567E-05</v>
       </c>
       <c r="V148">
-        <v>0.9999386678660507</v>
+        <v>-6.133213394932113E-05</v>
       </c>
       <c r="W148">
-        <v>0.9996931574102487</v>
+        <v>-0.0003068425897513327</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11883,7 +11883,7 @@
         <v>0.913335730661411</v>
       </c>
       <c r="K149">
-        <v>47.73525712320674</v>
+        <v>-0.02264742876793258</v>
       </c>
       <c r="L149">
         <v>0.001747567301945491</v>
@@ -11913,13 +11913,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U149">
-        <v>1.000040906069438</v>
+        <v>4.09060694379626E-05</v>
       </c>
       <c r="V149">
-        <v>0.9998977735069822</v>
+        <v>-0.0001022264930178318</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11954,7 +11954,7 @@
         <v>0.9133357306614109</v>
       </c>
       <c r="K150">
-        <v>47.73525712320674</v>
+        <v>-0.02264742876793258</v>
       </c>
       <c r="L150">
         <v>0.0008975044261029009</v>
@@ -11984,13 +11984,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U150">
-        <v>1.00003067829715</v>
+        <v>3.06782971499775E-05</v>
       </c>
       <c r="V150">
-        <v>0.9998977630556579</v>
+        <v>-0.0001022369443420823</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12025,7 +12025,7 @@
         <v>1.012364961860629</v>
       </c>
       <c r="K151">
-        <v>50.30722463606195</v>
+        <v>0.003072246360619535</v>
       </c>
       <c r="L151">
         <v>0.0002576785674495763</v>
@@ -12055,13 +12055,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U151">
-        <v>1.000020451570681</v>
+        <v>2.045157068097936E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999182020817567</v>
+        <v>-8.179791824325378E-05</v>
       </c>
       <c r="W151">
-        <v>1.000306936771025</v>
+        <v>0.0003069367710251125</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12096,7 +12096,7 @@
         <v>1.012364961860629</v>
       </c>
       <c r="K152">
-        <v>50.30722463606195</v>
+        <v>0.003072246360619535</v>
       </c>
       <c r="L152">
         <v>-0.0002149568646909157</v>
@@ -12126,13 +12126,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U152">
-        <v>1.000020451152422</v>
+        <v>2.04511524222184E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999181953903103</v>
+        <v>-8.180460968965075E-05</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12167,7 +12167,7 @@
         <v>1.012364961860629</v>
       </c>
       <c r="K153">
-        <v>50.30722463606195</v>
+        <v>0.003072246360619535</v>
       </c>
       <c r="L153">
         <v>-0.0005554094183952615</v>
@@ -12197,13 +12197,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U153">
-        <v>1.000010225367091</v>
+        <v>1.02253670906105E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999181886977685</v>
+        <v>-8.181130223150479E-05</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12238,7 +12238,7 @@
         <v>0.9075413730519749</v>
       </c>
       <c r="K154">
-        <v>47.57649746804454</v>
+        <v>-0.02423502531955463</v>
       </c>
       <c r="L154">
         <v>-0.0009037797262140271</v>
@@ -12268,13 +12268,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U154">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V154">
-        <v>0.999897727505165</v>
+        <v>-0.0001022724948349651</v>
       </c>
       <c r="W154">
-        <v>0.9996931574102487</v>
+        <v>-0.0003068425897513327</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12309,7 +12309,7 @@
         <v>0.9075413730519749</v>
       </c>
       <c r="K155">
-        <v>47.57649746804454</v>
+        <v>-0.02423502531955463</v>
       </c>
       <c r="L155">
         <v>-0.001231462072564264</v>
@@ -12339,13 +12339,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U155">
-        <v>0.9999897747374665</v>
+        <v>-1.022526253346978E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999590868177727</v>
+        <v>-4.09131822273201E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12380,7 +12380,7 @@
         <v>0.8141360370684191</v>
       </c>
       <c r="K156">
-        <v>44.87734218565189</v>
+        <v>-0.05122657814348108</v>
       </c>
       <c r="L156">
         <v>-0.001632965746447281</v>
@@ -12410,13 +12410,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U156">
-        <v>0.9999590985316371</v>
+        <v>-4.090146836288611E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999795425719077</v>
+        <v>-2.04574280923131E-05</v>
       </c>
       <c r="W156">
-        <v>0.9996930632289748</v>
+        <v>-0.0003069367710252235</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12451,7 +12451,7 @@
         <v>0.7345555995315134</v>
       </c>
       <c r="K157">
-        <v>42.34834557796301</v>
+        <v>-0.07651654422036991</v>
       </c>
       <c r="L157">
         <v>-0.00215938908269524</v>
@@ -12481,13 +12481,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U157">
-        <v>0.9999590968586388</v>
+        <v>-4.090314136118156E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999181686135719</v>
+        <v>-8.183138642814392E-05</v>
       </c>
       <c r="W157">
-        <v>0.999692968989868</v>
+        <v>-0.000307031010131964</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12522,7 +12522,7 @@
         <v>0.7345555995315134</v>
       </c>
       <c r="K158">
-        <v>42.34834557796301</v>
+        <v>-0.07651654422036991</v>
       </c>
       <c r="L158">
         <v>-0.002720106388390753</v>
@@ -12552,13 +12552,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U158">
-        <v>0.9999693213891275</v>
+        <v>-3.067861087246992E-05</v>
       </c>
       <c r="V158">
-        <v>0.9998977023958098</v>
+        <v>-0.0001022976041902268</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12593,7 +12593,7 @@
         <v>0.6627718428356523</v>
       </c>
       <c r="K159">
-        <v>39.85945791007482</v>
+        <v>-0.1014054208992519</v>
       </c>
       <c r="L159">
         <v>-0.003367711223539325</v>
@@ -12623,13 +12623,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U159">
-        <v>0.9999693204479215</v>
+        <v>-3.067955207847195E-05</v>
       </c>
       <c r="V159">
-        <v>0.9998772303159275</v>
+        <v>-0.0001227696840725434</v>
       </c>
       <c r="W159">
-        <v>0.9996928746928746</v>
+        <v>-0.0003071253071253999</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12664,7 +12664,7 @@
         <v>0.6627718428356524</v>
       </c>
       <c r="K160">
-        <v>39.85945791007482</v>
+        <v>-0.1014054208992518</v>
       </c>
       <c r="L160">
         <v>-0.004014464461683971</v>
@@ -12694,13 +12694,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U160">
-        <v>0.9999795463377718</v>
+        <v>-2.045366222824807E-05</v>
       </c>
       <c r="V160">
-        <v>0.9999386076208405</v>
+        <v>-6.139237915947504E-05</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12735,7 +12735,7 @@
         <v>0.6627718428356524</v>
       </c>
       <c r="K161">
-        <v>39.85945791007482</v>
+        <v>-0.1014054208992518</v>
       </c>
       <c r="L161">
         <v>-0.004604912143656261</v>
@@ -12765,13 +12765,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U161">
-        <v>0.9999693188791164</v>
+        <v>-3.068112088355779E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999386038515851</v>
+        <v>-6.139614841493835E-05</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12806,7 +12806,7 @@
         <v>0.6627718428356524</v>
       </c>
       <c r="K162">
-        <v>39.85945791007482</v>
+        <v>-0.1014054208992518</v>
       </c>
       <c r="L162">
         <v>-0.005106894816115943</v>
@@ -12836,13 +12836,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U162">
-        <v>0.9999284085214313</v>
+        <v>-7.159147856872217E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999181334424888</v>
+        <v>-8.186655751118987E-05</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12877,7 +12877,7 @@
         <v>0.591771399632304</v>
       </c>
       <c r="K163">
-        <v>37.17690867978919</v>
+        <v>-0.1282309132021081</v>
       </c>
       <c r="L163">
         <v>-0.005616474544923894</v>
@@ -12907,13 +12907,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U163">
-        <v>0.9999284033957248</v>
+        <v>-7.159660427524805E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999181267398068</v>
+        <v>-8.187326019315488E-05</v>
       </c>
       <c r="W163">
-        <v>0.9996927803379415</v>
+        <v>-0.0003072196620584888</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12948,7 +12948,7 @@
         <v>0.7045361609042102</v>
       </c>
       <c r="K164">
-        <v>41.33301346511023</v>
+        <v>-0.08666986534889765</v>
       </c>
       <c r="L164">
         <v>-0.005966039020515421</v>
@@ -12978,13 +12978,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U164">
-        <v>0.9999181694506102</v>
+        <v>-8.183054938981638E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999385900270201</v>
+        <v>-6.14099729798756E-05</v>
       </c>
       <c r="W164">
-        <v>1.000307314074985</v>
+        <v>0.0003073140749847436</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13019,7 +13019,7 @@
         <v>0.6297812810974057</v>
       </c>
       <c r="K165">
-        <v>38.64207353475955</v>
+        <v>-0.1135792646524045</v>
       </c>
       <c r="L165">
         <v>-0.006286437959176709</v>
@@ -13049,13 +13049,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U165">
-        <v>0.999907933098051</v>
+        <v>-9.206690194896172E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999181150074721</v>
+        <v>-8.188499252792525E-05</v>
       </c>
       <c r="W165">
-        <v>0.9996927803379415</v>
+        <v>-0.0003072196620584888</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13090,7 +13090,7 @@
         <v>0.5147883033911705</v>
       </c>
       <c r="K166">
-        <v>33.98417470208274</v>
+        <v>-0.1601582529791726</v>
       </c>
       <c r="L166">
         <v>-0.006769420926773866</v>
@@ -13120,13 +13120,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U166">
-        <v>0.9998874634256136</v>
+        <v>-0.0001125365743863682</v>
       </c>
       <c r="V166">
-        <v>0.9998566895280993</v>
+        <v>-0.0001433104719007483</v>
       </c>
       <c r="W166">
-        <v>0.9993853718500307</v>
+        <v>-0.0006146281499692652</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13161,7 +13161,7 @@
         <v>0.4696540708532475</v>
       </c>
       <c r="K167">
-        <v>31.95677677948915</v>
+        <v>-0.1804322322051085</v>
       </c>
       <c r="L167">
         <v>-0.007407330060676444</v>
@@ -13191,13 +13191,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U167">
-        <v>0.99987721901059</v>
+        <v>-0.0001227809894099874</v>
       </c>
       <c r="V167">
-        <v>0.9998361931283017</v>
+        <v>-0.0001638068716982577</v>
       </c>
       <c r="W167">
-        <v>0.9996924969249693</v>
+        <v>-0.0003075030750306906</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13232,7 +13232,7 @@
         <v>0.4696540708532474</v>
       </c>
       <c r="K168">
-        <v>31.95677677948915</v>
+        <v>-0.1804322322051085</v>
       </c>
       <c r="L168">
         <v>-0.008071586150753511</v>
@@ -13262,13 +13262,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U168">
-        <v>0.999877203933567</v>
+        <v>-0.0001227960664329508</v>
       </c>
       <c r="V168">
-        <v>0.9998361662912142</v>
+        <v>-0.0001638337087858099</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13303,7 +13303,7 @@
         <v>0.8582427752157136</v>
       </c>
       <c r="K169">
-        <v>46.18571839280175</v>
+        <v>-0.03814281607198244</v>
       </c>
       <c r="L169">
         <v>-0.008233047939297179</v>
@@ -13333,13 +13333,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U169">
-        <v>0.9999181259018944</v>
+        <v>-8.187409810556101E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999385522919996</v>
+        <v>-6.144770800042831E-05</v>
       </c>
       <c r="W169">
-        <v>1.001230390649031</v>
+        <v>0.001230390649030966</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13374,7 +13374,7 @@
         <v>1.062763145932801</v>
       </c>
       <c r="K170">
-        <v>51.52133670936852</v>
+        <v>0.01521336709368515</v>
       </c>
       <c r="L170">
         <v>-0.007826005430408485</v>
@@ -13404,13 +13404,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U170">
-        <v>0.9999692946992416</v>
+        <v>-3.070530075843791E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999795161719821</v>
+        <v>-2.048382801789206E-05</v>
       </c>
       <c r="W170">
-        <v>1.000614439324117</v>
+        <v>0.0006144393241167556</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13445,7 +13445,7 @@
         <v>0.9594822674889791</v>
       </c>
       <c r="K171">
-        <v>48.96611127379726</v>
+        <v>-0.01033888726202742</v>
       </c>
       <c r="L171">
         <v>-0.007183686811995643</v>
@@ -13475,13 +13475,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U171">
-        <v>0.9999795291709312</v>
+        <v>-2.047082906875275E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999795157523866</v>
+        <v>-2.048424761336154E-05</v>
       </c>
       <c r="W171">
-        <v>0.999692968989868</v>
+        <v>-0.000307031010131964</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13516,7 +13516,7 @@
         <v>0.9594822674889791</v>
       </c>
       <c r="K172">
-        <v>48.96611127379726</v>
+        <v>-0.01033888726202742</v>
       </c>
       <c r="L172">
         <v>-0.006413550434759413</v>
@@ -13546,13 +13546,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U172">
-        <v>0.999959057503736</v>
+        <v>-4.094249626396262E-05</v>
       </c>
       <c r="V172">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13587,7 +13587,7 @@
         <v>0.959482267488979</v>
       </c>
       <c r="K173">
-        <v>48.96611127379725</v>
+        <v>-0.01033888726202747</v>
       </c>
       <c r="L173">
         <v>-0.005591662289375773</v>
@@ -13617,13 +13617,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U173">
-        <v>0.9999488197842245</v>
+        <v>-5.11802157755481E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13658,7 +13658,7 @@
         <v>0.959482267488979</v>
       </c>
       <c r="K174">
-        <v>48.96611127379725</v>
+        <v>-0.01033888726202747</v>
       </c>
       <c r="L174">
         <v>-0.004770408867725749</v>
@@ -13688,13 +13688,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U174">
-        <v>0.9999488171646757</v>
+        <v>-5.11828353243482E-05</v>
       </c>
       <c r="V174">
-        <v>1.000020484667226</v>
+        <v>2.048466722648357E-05</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13729,7 +13729,7 @@
         <v>0.959482267488979</v>
       </c>
       <c r="K175">
-        <v>48.96611127379725</v>
+        <v>-0.01033888726202747</v>
       </c>
       <c r="L175">
         <v>-0.003984487251007891</v>
@@ -13759,13 +13759,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U175">
-        <v>0.9999795258179432</v>
+        <v>-2.047418205675111E-05</v>
       </c>
       <c r="V175">
-        <v>1.000020484247614</v>
+        <v>2.048424761369461E-05</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13800,7 +13800,7 @@
         <v>0.7668582272280244</v>
       </c>
       <c r="K176">
-        <v>43.40236332550164</v>
+        <v>-0.06597636674498358</v>
       </c>
       <c r="L176">
         <v>-0.003479203357266659</v>
@@ -13830,13 +13830,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U176">
-        <v>0.9999590507974857</v>
+        <v>-4.094920251429546E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999795161719821</v>
+        <v>-2.048382801789206E-05</v>
       </c>
       <c r="W176">
-        <v>0.9993857493857492</v>
+        <v>-0.0006142506142507997</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13871,7 +13871,7 @@
         <v>0.7668582272280245</v>
       </c>
       <c r="K177">
-        <v>43.40236332550164</v>
+        <v>-0.06597636674498358</v>
       </c>
       <c r="L177">
         <v>-0.003163488619203591</v>
@@ -13901,13 +13901,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U177">
-        <v>0.999948811400725</v>
+        <v>-5.11885992749983E-05</v>
       </c>
       <c r="V177">
-        <v>0.9999795157523864</v>
+        <v>-2.048424761358358E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13942,7 +13942,7 @@
         <v>0.6901026369808575</v>
       </c>
       <c r="K178">
-        <v>40.83199575462669</v>
+        <v>-0.09168004245373312</v>
       </c>
       <c r="L178">
         <v>-0.003083074580815309</v>
@@ -13972,13 +13972,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U178">
-        <v>0.9999488087803179</v>
+        <v>-5.119121968211182E-05</v>
       </c>
       <c r="V178">
-        <v>0.9999795153327733</v>
+        <v>-2.048466722670561E-05</v>
       </c>
       <c r="W178">
-        <v>0.9996926859250155</v>
+        <v>-0.0003073140749845216</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14013,7 +14013,7 @@
         <v>0.6901026369808575</v>
       </c>
       <c r="K179">
-        <v>40.83199575462669</v>
+        <v>-0.09168004245373312</v>
       </c>
       <c r="L179">
         <v>-0.003139131447982413</v>
@@ -14043,13 +14043,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U179">
-        <v>0.9999488061596428</v>
+        <v>-5.119384035723318E-05</v>
       </c>
       <c r="V179">
-        <v>0.9999590298262867</v>
+        <v>-4.097017371329503E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14084,7 +14084,7 @@
         <v>0.8010067681572904</v>
       </c>
       <c r="K180">
-        <v>44.4755001657681</v>
+        <v>-0.05524499834231905</v>
       </c>
       <c r="L180">
         <v>-0.003151032708204199</v>
@@ -14114,13 +14114,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U180">
-        <v>0.9999590428309597</v>
+        <v>-4.09571690402899E-05</v>
       </c>
       <c r="V180">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W180">
-        <v>1.000307408545958</v>
+        <v>0.0003074085459575659</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14155,7 +14155,7 @@
         <v>0.8010067681572903</v>
       </c>
       <c r="K181">
-        <v>44.4755001657681</v>
+        <v>-0.05524499834231905</v>
       </c>
       <c r="L181">
         <v>-0.003123954008263537</v>
@@ -14185,13 +14185,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U181">
-        <v>0.9999488014417512</v>
+        <v>-5.119855824875508E-05</v>
       </c>
       <c r="V181">
-        <v>1.000040971852338</v>
+        <v>4.097185233753464E-05</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14226,7 +14226,7 @@
         <v>0.5370327122460059</v>
       </c>
       <c r="K182">
-        <v>34.93957597436302</v>
+        <v>-0.1506042402563698</v>
       </c>
       <c r="L182">
         <v>-0.003511034502145203</v>
@@ -14256,13 +14256,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U182">
-        <v>0.9999078378765848</v>
+        <v>-9.216212341522922E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999795149131433</v>
+        <v>-2.048508685670303E-05</v>
       </c>
       <c r="W182">
-        <v>0.9987707437000616</v>
+        <v>-0.001229256299938419</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14297,7 +14297,7 @@
         <v>0.5370327122460059</v>
       </c>
       <c r="K183">
-        <v>34.93957597436302</v>
+        <v>-0.1506042402563698</v>
       </c>
       <c r="L183">
         <v>-0.004111627123110035</v>
@@ -14327,13 +14327,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U183">
-        <v>0.9999078293819447</v>
+        <v>-9.217061805533167E-05</v>
       </c>
       <c r="V183">
-        <v>0.9999795144934959</v>
+        <v>-2.048550650413095E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14368,7 +14368,7 @@
         <v>0.537032712246006</v>
       </c>
       <c r="K184">
-        <v>34.93957597436304</v>
+        <v>-0.1506042402563696</v>
       </c>
       <c r="L184">
         <v>-0.004788385128931028</v>
@@ -14398,13 +14398,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U184">
-        <v>0.9999180630095458</v>
+        <v>-8.193699045422331E-05</v>
       </c>
       <c r="V184">
-        <v>0.9998975703691565</v>
+        <v>-0.0001024296308435035</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14439,7 +14439,7 @@
         <v>0.4899515289274479</v>
       </c>
       <c r="K185">
-        <v>32.88372268594154</v>
+        <v>-0.1711627731405846</v>
       </c>
       <c r="L185">
         <v>-0.00556265421093771</v>
@@ -14469,13 +14469,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U185">
-        <v>0.9999078133322407</v>
+        <v>-9.218666775934192E-05</v>
       </c>
       <c r="V185">
-        <v>0.9998360958020037</v>
+        <v>-0.0001639041979962785</v>
       </c>
       <c r="W185">
-        <v>0.9996923076923077</v>
+        <v>-0.0003076923076923421</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14510,7 +14510,7 @@
         <v>0.4899515289274479</v>
       </c>
       <c r="K186">
-        <v>32.88372268594154</v>
+        <v>-0.1711627731405846</v>
       </c>
       <c r="L186">
         <v>-0.006326484760868865</v>
@@ -14540,13 +14540,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U186">
-        <v>0.9999180487405116</v>
+        <v>-8.195125948839976E-05</v>
       </c>
       <c r="V186">
-        <v>0.9998565603163867</v>
+        <v>-0.0001434396836133001</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14581,7 +14581,7 @@
         <v>0.4102482556890114</v>
       </c>
       <c r="K187">
-        <v>29.09049906880222</v>
+        <v>-0.2090950093119778</v>
       </c>
       <c r="L187">
         <v>-0.007236125429176293</v>
@@ -14611,13 +14611,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U187">
-        <v>0.9999077972769463</v>
+        <v>-9.220272305365818E-05</v>
       </c>
       <c r="V187">
-        <v>0.9998155510923475</v>
+        <v>-0.0001844489076524569</v>
       </c>
       <c r="W187">
-        <v>0.9993844259772238</v>
+        <v>-0.000615574022776233</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14652,7 +14652,7 @@
         <v>0.4102482556890115</v>
       </c>
       <c r="K188">
-        <v>29.09049906880222</v>
+        <v>-0.2090950093119778</v>
       </c>
       <c r="L188">
         <v>-0.008149917982727904</v>
@@ -14682,13 +14682,13 @@
         <v>-0.125</v>
       </c>
       <c r="U188">
-        <v>0.9999077887748201</v>
+        <v>-9.221122517988345E-05</v>
       </c>
       <c r="V188">
-        <v>0.9998155170646715</v>
+        <v>-0.0001844829353284672</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14723,7 +14723,7 @@
         <v>0.4102482556890115</v>
       </c>
       <c r="K189">
-        <v>29.09049906880222</v>
+        <v>-0.2090950093119778</v>
       </c>
       <c r="L189">
         <v>-0.008978446324281967</v>
@@ -14753,13 +14753,13 @@
         <v>-0.1406250000000284</v>
       </c>
       <c r="U189">
-        <v>0.9999180269076676</v>
+        <v>-8.197309233237693E-05</v>
       </c>
       <c r="V189">
-        <v>0.9998154830244382</v>
+        <v>-0.0001845169755617659</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14794,7 +14794,7 @@
         <v>0.4102482556890115</v>
       </c>
       <c r="K190">
-        <v>29.09049906880222</v>
+        <v>-0.2090950093119778</v>
       </c>
       <c r="L190">
         <v>-0.009669945366402527</v>
@@ -14824,13 +14824,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U190">
-        <v>0.9999180201875288</v>
+        <v>-8.197981247115571E-05</v>
       </c>
       <c r="V190">
-        <v>0.9998154489716404</v>
+        <v>-0.0001845510283595697</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14865,7 +14865,7 @@
         <v>0.4102482556890115</v>
       </c>
       <c r="K191">
-        <v>29.09049906880222</v>
+        <v>-0.2090950093119778</v>
       </c>
       <c r="L191">
         <v>-0.0101992528707364</v>
@@ -14895,13 +14895,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U191">
-        <v>0.9999180134662878</v>
+        <v>-8.198653371216391E-05</v>
       </c>
       <c r="V191">
-        <v>0.9998564338159891</v>
+        <v>-0.0001435661840109015</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14936,7 +14936,7 @@
         <v>0.3712259159725526</v>
       </c>
       <c r="K192">
-        <v>27.07255687398948</v>
+        <v>-0.2292744312601052</v>
       </c>
       <c r="L192">
         <v>-0.0106714474735957</v>
@@ -14966,13 +14966,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U192">
-        <v>0.9999077575869385</v>
+        <v>-9.224241306149406E-05</v>
       </c>
       <c r="V192">
-        <v>0.999835900802035</v>
+        <v>-0.0001640991979650064</v>
       </c>
       <c r="W192">
-        <v>0.9996920234062212</v>
+        <v>-0.0003079765937787915</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15007,7 +15007,7 @@
         <v>0.4713510146179313</v>
       </c>
       <c r="K193">
-        <v>32.0352526307482</v>
+        <v>-0.179647473692518</v>
       </c>
       <c r="L193">
         <v>-0.01092825713547811</v>
@@ -15037,13 +15037,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U193">
-        <v>0.9999282492824929</v>
+        <v>-7.175071750709083E-05</v>
       </c>
       <c r="V193">
-        <v>0.9998769054018012</v>
+        <v>-0.0001230945981988141</v>
       </c>
       <c r="W193">
-        <v>1.000308071472582</v>
+        <v>0.0003080714725816058</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15078,7 +15078,7 @@
         <v>0.5767458552973372</v>
       </c>
       <c r="K194">
-        <v>36.57823823412407</v>
+        <v>-0.1342176176587593</v>
       </c>
       <c r="L194">
         <v>-0.0108865118913894</v>
@@ -15108,13 +15108,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U194">
-        <v>0.999928244133958</v>
+        <v>-7.175586604202255E-05</v>
       </c>
       <c r="V194">
-        <v>0.9998974085397132</v>
+        <v>-0.0001025914602867939</v>
       </c>
       <c r="W194">
-        <v>1.000307976593779</v>
+        <v>0.0003079765937790135</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15149,7 +15149,7 @@
         <v>0.5767458552973372</v>
       </c>
       <c r="K195">
-        <v>36.57823823412407</v>
+        <v>-0.1342176176587593</v>
       </c>
       <c r="L195">
         <v>-0.01062690112735792</v>
@@ -15179,13 +15179,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U195">
-        <v>0.9999384905583005</v>
+        <v>-6.150944169946992E-05</v>
       </c>
       <c r="V195">
-        <v>0.9998768776163508</v>
+        <v>-0.000123122383649199</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15220,7 +15220,7 @@
         <v>0.8103078291020486</v>
       </c>
       <c r="K196">
-        <v>44.76077582363319</v>
+        <v>-0.05239224176366813</v>
       </c>
       <c r="L196">
         <v>-0.009989171945609618</v>
@@ -15250,13 +15250,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U196">
-        <v>0.9999794955915522</v>
+        <v>-2.050440844780788E-05</v>
       </c>
       <c r="V196">
-        <v>0.999917908303575</v>
+        <v>-8.209169642503511E-05</v>
       </c>
       <c r="W196">
-        <v>1.000615763546798</v>
+        <v>0.0006157635467980427</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15291,7 +15291,7 @@
         <v>1.056162538370166</v>
       </c>
       <c r="K197">
-        <v>51.36571251839564</v>
+        <v>0.01365712518395634</v>
       </c>
       <c r="L197">
         <v>-0.008902554609210519</v>
@@ -15321,13 +15321,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U197">
-        <v>1.000010252414444</v>
+        <v>1.025241444363445E-05</v>
       </c>
       <c r="V197">
-        <v>1.000041049218012</v>
+        <v>4.104921801229011E-05</v>
       </c>
       <c r="W197">
-        <v>1.000615384615385</v>
+        <v>0.0006153846153846843</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15362,7 +15362,7 @@
         <v>0.9351559610425838</v>
       </c>
       <c r="K198">
-        <v>48.3245784768045</v>
+        <v>-0.01675421523195497</v>
       </c>
       <c r="L198">
         <v>-0.007692675246364113</v>
@@ -15392,13 +15392,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V198">
-        <v>1.000020523766522</v>
+        <v>2.052376652161847E-05</v>
       </c>
       <c r="W198">
-        <v>0.9996924969249693</v>
+        <v>-0.0003075030750306906</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15433,7 +15433,7 @@
         <v>0.8345121080072982</v>
       </c>
       <c r="K199">
-        <v>45.48959390155076</v>
+        <v>-0.04510406098449238</v>
       </c>
       <c r="L199">
         <v>-0.006569154314923527</v>
@@ -15463,13 +15463,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U199">
-        <v>0.9999487384533366</v>
+        <v>-5.126154666335037E-05</v>
       </c>
       <c r="V199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W199">
-        <v>0.9996924023377421</v>
+        <v>-0.0003075976622578525</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15504,7 +15504,7 @@
         <v>0.6803603174058369</v>
       </c>
       <c r="K200">
-        <v>40.48895408671555</v>
+        <v>-0.09511045913284449</v>
       </c>
       <c r="L200">
         <v>-0.005769649005497017</v>
@@ -15534,13 +15534,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U200">
-        <v>0.9999077244858202</v>
+        <v>-9.227551417978486E-05</v>
       </c>
       <c r="V200">
-        <v>0.9999794766546948</v>
+        <v>-2.052334530522337E-05</v>
       </c>
       <c r="W200">
-        <v>0.9993846153846154</v>
+        <v>-0.0006153846153845732</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15575,7 +15575,7 @@
         <v>0.4898604432821673</v>
       </c>
       <c r="K201">
-        <v>32.8796193959619</v>
+        <v>-0.171203806040381</v>
       </c>
       <c r="L201">
         <v>-0.005644512526016867</v>
@@ -15605,13 +15605,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U201">
-        <v>0.9998769546270186</v>
+        <v>-0.0001230453729813563</v>
       </c>
       <c r="V201">
-        <v>0.9998973811673919</v>
+        <v>-0.0001026188326080923</v>
       </c>
       <c r="W201">
-        <v>0.9987684729064038</v>
+        <v>-0.001231527093596196</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15646,7 +15646,7 @@
         <v>0.7109118973697472</v>
       </c>
       <c r="K202">
-        <v>41.55163678870083</v>
+        <v>-0.08448363211299176</v>
       </c>
       <c r="L202">
         <v>-0.005579365671154053</v>
@@ -15676,13 +15676,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U202">
-        <v>0.9999077046137439</v>
+        <v>-9.229538625610267E-05</v>
       </c>
       <c r="V202">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W202">
-        <v>1.000924784217016</v>
+        <v>0.0009247842170161391</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15717,7 +15717,7 @@
         <v>0.7884738110847023</v>
       </c>
       <c r="K203">
-        <v>44.08640519071935</v>
+        <v>-0.05913594809280653</v>
       </c>
       <c r="L203">
         <v>-0.005422383939568183</v>
@@ -15747,13 +15747,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U203">
-        <v>0.999917952084017</v>
+        <v>-8.204791598298566E-05</v>
       </c>
       <c r="V203">
-        <v>1.000020525872863</v>
+        <v>2.052587286294205E-05</v>
       </c>
       <c r="W203">
-        <v>1.000307976593779</v>
+        <v>0.0003079765937790135</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15788,7 +15788,7 @@
         <v>0.8701179307846084</v>
       </c>
       <c r="K204">
-        <v>46.52743639646032</v>
+        <v>-0.03472563603539686</v>
       </c>
       <c r="L204">
         <v>-0.005087979370693289</v>
@@ -15818,13 +15818,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U204">
-        <v>0.9999282021826539</v>
+        <v>-7.179781734611979E-05</v>
       </c>
       <c r="V204">
-        <v>1.00004105090312</v>
+        <v>4.105090311989912E-05</v>
       </c>
       <c r="W204">
-        <v>1.000307881773399</v>
+        <v>0.0003078817733987993</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15859,7 +15859,7 @@
         <v>0.8012569629978895</v>
       </c>
       <c r="K205">
-        <v>44.4832125264533</v>
+        <v>-0.05516787473546697</v>
       </c>
       <c r="L205">
         <v>-0.004760895024826826</v>
@@ -15889,13 +15889,13 @@
         <v>0</v>
       </c>
       <c r="U205">
-        <v>0.9999179394598364</v>
+        <v>-8.206054016357545E-05</v>
       </c>
       <c r="V205">
-        <v>1.000020524609006</v>
+        <v>2.052460900614506E-05</v>
       </c>
       <c r="W205">
-        <v>0.999692212988612</v>
+        <v>-0.0003077870113880055</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15930,7 +15930,7 @@
         <v>0.7396411132819275</v>
       </c>
       <c r="K206">
-        <v>42.51687935142866</v>
+        <v>-0.07483120648571334</v>
       </c>
       <c r="L206">
         <v>-0.004553806788239914</v>
@@ -15960,13 +15960,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U206">
-        <v>0.9999281911346827</v>
+        <v>-7.180886531732433E-05</v>
       </c>
       <c r="V206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W206">
-        <v>0.9996921182266009</v>
+        <v>-0.0003078817733991324</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16001,7 +16001,7 @@
         <v>0.9015337199483586</v>
       </c>
       <c r="K207">
-        <v>47.41087210238071</v>
+        <v>-0.02589127897619287</v>
       </c>
       <c r="L207">
         <v>-0.004191929894181206</v>
@@ -16031,13 +16031,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U207">
-        <v>0.9999487042698565</v>
+        <v>-5.129573014350797E-05</v>
       </c>
       <c r="V207">
-        <v>1.000061572563266</v>
+        <v>6.157256326599914E-05</v>
       </c>
       <c r="W207">
-        <v>1.000615953187558</v>
+        <v>0.000615953187557805</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16072,7 +16072,7 @@
         <v>0.9015337199483587</v>
       </c>
       <c r="K208">
-        <v>47.41087210238072</v>
+        <v>-0.02589127897619276</v>
       </c>
       <c r="L208">
         <v>-0.003744053954955178</v>
@@ -16102,13 +16102,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U208">
-        <v>0.9999589613107758</v>
+        <v>-4.103868922422649E-05</v>
       </c>
       <c r="V208">
-        <v>1.000041045848213</v>
+        <v>4.104584821251755E-05</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16143,7 +16143,7 @@
         <v>0.9015337199483587</v>
       </c>
       <c r="K209">
-        <v>47.41087210238072</v>
+        <v>-0.02589127897619276</v>
       </c>
       <c r="L209">
         <v>-0.003258970185504022</v>
@@ -16173,13 +16173,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U209">
-        <v>0.9999589596265326</v>
+        <v>-4.104037346741585E-05</v>
       </c>
       <c r="V209">
-        <v>1.00002052208176</v>
+        <v>2.052208175973291E-05</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16214,7 +16214,7 @@
         <v>0.9015337199483586</v>
       </c>
       <c r="K210">
-        <v>47.41087210238071</v>
+        <v>-0.02589127897619287</v>
       </c>
       <c r="L210">
         <v>-0.002770379808069372</v>
@@ -16244,13 +16244,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U210">
-        <v>0.9999486974276889</v>
+        <v>-5.130257231111823E-05</v>
       </c>
       <c r="V210">
-        <v>1.000020521660613</v>
+        <v>2.052166061283778E-05</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16285,7 +16285,7 @@
         <v>0.9015337199483586</v>
       </c>
       <c r="K211">
-        <v>47.41087210238071</v>
+        <v>-0.02589127897619287</v>
       </c>
       <c r="L211">
         <v>-0.002300706198337099</v>
@@ -16315,13 +16315,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U211">
-        <v>0.9999486947956003</v>
+        <v>-5.130520439966535E-05</v>
       </c>
       <c r="V211">
-        <v>0.999979478760517</v>
+        <v>-2.052123948304008E-05</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16356,7 +16356,7 @@
         <v>0.9015337199483585</v>
       </c>
       <c r="K212">
-        <v>47.41087210238071</v>
+        <v>-0.02589127897619292</v>
       </c>
       <c r="L212">
         <v>-0.001864041440396728</v>
@@ -16386,13 +16386,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U212">
-        <v>0.999989738432648</v>
+        <v>-1.02615673519546E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999384350181619</v>
+        <v>-6.156498183806924E-05</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16427,7 +16427,7 @@
         <v>1.011650977893369</v>
       </c>
       <c r="K213">
-        <v>50.28958745879393</v>
+        <v>0.002895874587939273</v>
       </c>
       <c r="L213">
         <v>-0.001356332043637052</v>
@@ -16457,13 +16457,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V213">
-        <v>0.9999794770758936</v>
+        <v>-2.05229241063698E-05</v>
       </c>
       <c r="W213">
-        <v>1.000307787011388</v>
+        <v>0.0003077870113881165</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16498,7 +16498,7 @@
         <v>1.011650977893369</v>
       </c>
       <c r="K214">
-        <v>50.28958745879393</v>
+        <v>0.002895874587939273</v>
       </c>
       <c r="L214">
         <v>-0.0008329907095239148</v>
@@ -16528,13 +16528,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16569,7 +16569,7 @@
         <v>0.901638798257916</v>
       </c>
       <c r="K215">
-        <v>47.41377800473485</v>
+        <v>-0.02586221995265148</v>
       </c>
       <c r="L215">
         <v>-0.0004425761871560281</v>
@@ -16599,13 +16599,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V215">
-        <v>1.000020523345305</v>
+        <v>2.052334530544542E-05</v>
       </c>
       <c r="W215">
-        <v>0.9996923076923077</v>
+        <v>-0.0003076923076923421</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16640,7 +16640,7 @@
         <v>0.9016387982579159</v>
       </c>
       <c r="K216">
-        <v>47.41377800473485</v>
+        <v>-0.02586221995265148</v>
       </c>
       <c r="L216">
         <v>-0.0001559628966531069</v>
@@ -16670,13 +16670,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V216">
-        <v>1.000102614620531</v>
+        <v>0.0001026146205309608</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16711,7 +16711,7 @@
         <v>0.9016387982579159</v>
       </c>
       <c r="K217">
-        <v>47.41377800473485</v>
+        <v>-0.02586221995265148</v>
       </c>
       <c r="L217">
         <v>5.006672302625788E-05</v>
@@ -16741,13 +16741,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U217">
-        <v>1.000020523345305</v>
+        <v>2.052334530522337E-05</v>
       </c>
       <c r="V217">
-        <v>1.000041041636741</v>
+        <v>4.104163674067962E-05</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16782,7 +16782,7 @@
         <v>0.8001515455426113</v>
       </c>
       <c r="K218">
-        <v>44.44912138224592</v>
+        <v>-0.05550878617754079</v>
       </c>
       <c r="L218">
         <v>8.188204790034962E-05</v>
@@ -16812,13 +16812,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U218">
-        <v>1.000010261462053</v>
+        <v>1.02614620531849E-05</v>
       </c>
       <c r="V218">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W218">
-        <v>0.999692212988612</v>
+        <v>-0.0003077870113880055</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16853,7 +16853,7 @@
         <v>0.8001515455426113</v>
       </c>
       <c r="K219">
-        <v>44.44912138224592</v>
+        <v>-0.05550878617754079</v>
       </c>
       <c r="L219">
         <v>5.828214666321664E-06</v>
@@ -16883,13 +16883,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U219">
-        <v>1.000010261356756</v>
+        <v>1.026135675630258E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999794800238033</v>
+        <v>-2.051997619667567E-05</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16924,7 +16924,7 @@
         <v>0.7114236842275727</v>
       </c>
       <c r="K220">
-        <v>41.56911528010458</v>
+        <v>-0.08430884719895415</v>
       </c>
       <c r="L220">
         <v>-0.0002428324212322466</v>
@@ -16954,13 +16954,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V220">
-        <v>0.9999794796027249</v>
+        <v>-2.052039727507005E-05</v>
       </c>
       <c r="W220">
-        <v>0.9996921182266009</v>
+        <v>-0.0003078817733991324</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16995,7 +16995,7 @@
         <v>0.6370625147427299</v>
       </c>
       <c r="K221">
-        <v>38.91497783411445</v>
+        <v>-0.1108502216588555</v>
       </c>
       <c r="L221">
         <v>-0.0006914169263883517</v>
@@ -17025,13 +17025,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U221">
-        <v>0.9999897387485379</v>
+        <v>-1.026125146208479E-05</v>
       </c>
       <c r="V221">
-        <v>0.99997947918163</v>
+        <v>-2.052081837000674E-05</v>
       </c>
       <c r="W221">
-        <v>0.9996920234062212</v>
+        <v>-0.0003079765937787915</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17066,7 +17066,7 @@
         <v>0.5739168862942959</v>
       </c>
       <c r="K222">
-        <v>36.46424352467257</v>
+        <v>-0.1353575647532743</v>
       </c>
       <c r="L222">
         <v>-0.001342108004177866</v>
@@ -17096,13 +17096,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U222">
-        <v>0.9999897386432434</v>
+        <v>-1.026135675663564E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999179150420684</v>
+        <v>-8.20849579316052E-05</v>
       </c>
       <c r="W222">
-        <v>0.9996919285274183</v>
+        <v>-0.0003080714725817169</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17137,7 +17137,7 @@
         <v>0.5739168862942959</v>
       </c>
       <c r="K223">
-        <v>36.46424352467257</v>
+        <v>-0.1353575647532743</v>
       </c>
       <c r="L223">
         <v>-0.002068908184029849</v>
@@ -17167,13 +17167,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U223">
-        <v>0.9999794770758936</v>
+        <v>-2.05229241063698E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999179083035752</v>
+        <v>-8.209169642481307E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17208,7 +17208,7 @@
         <v>0.7935733681162115</v>
       </c>
       <c r="K224">
-        <v>44.24538088172557</v>
+        <v>-0.05754619118274434</v>
       </c>
       <c r="L224">
         <v>-0.002563823091609242</v>
@@ -17238,13 +17238,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U224">
-        <v>0.9999897383273474</v>
+        <v>-1.026167265261169E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999589507819876</v>
+        <v>-4.104921801240113E-05</v>
       </c>
       <c r="W224">
-        <v>1.000616332819723</v>
+        <v>0.0006163328197226203</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17279,7 +17279,7 @@
         <v>1.024790717402438</v>
       </c>
       <c r="K225">
-        <v>50.61217974750106</v>
+        <v>0.006121797475010626</v>
       </c>
       <c r="L225">
         <v>-0.00265321233357942</v>
@@ -17309,13 +17309,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U225">
-        <v>1.000010261777956</v>
+        <v>1.026177795560024E-05</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W225">
-        <v>1.000615953187558</v>
+        <v>0.000615953187557805</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17350,7 +17350,7 @@
         <v>1.146484059132066</v>
       </c>
       <c r="K226">
-        <v>53.41218604696504</v>
+        <v>0.03412186046965038</v>
       </c>
       <c r="L226">
         <v>-0.002369456003652264</v>
@@ -17380,13 +17380,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V226">
-        <v>1.00002052545156</v>
+        <v>2.052545155994956E-05</v>
       </c>
       <c r="W226">
-        <v>1.000307787011388</v>
+        <v>0.0003077870113881165</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17421,7 +17421,7 @@
         <v>1.274582313584306</v>
       </c>
       <c r="K227">
-        <v>56.03588430158011</v>
+        <v>0.06035884301580108</v>
       </c>
       <c r="L227">
         <v>-0.00175697085055793</v>
@@ -17451,13 +17451,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U227">
-        <v>0.9999897383273474</v>
+        <v>-1.026167265261169E-05</v>
       </c>
       <c r="V227">
-        <v>1.000041050060549</v>
+        <v>4.105006054877514E-05</v>
       </c>
       <c r="W227">
-        <v>1.000307692307692</v>
+        <v>0.0003076923076923421</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17492,7 +17492,7 @@
         <v>1.003860638765105</v>
       </c>
       <c r="K228">
-        <v>50.09633002142017</v>
+        <v>0.0009633002142016567</v>
       </c>
       <c r="L228">
         <v>-0.001202137312218026</v>
@@ -17522,13 +17522,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U228">
-        <v>0.9999794764440887</v>
+        <v>-2.05235559113115E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999794758122448</v>
+        <v>-2.052418775522202E-05</v>
       </c>
       <c r="W228">
-        <v>0.9993848046754843</v>
+        <v>-0.0006151953245157049</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17563,7 +17563,7 @@
         <v>1.339229544699608</v>
       </c>
       <c r="K229">
-        <v>57.25088192965624</v>
+        <v>0.07250881929656239</v>
       </c>
       <c r="L229">
         <v>-0.0003769140736832698</v>
@@ -17593,13 +17593,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U229">
-        <v>1.000020523977136</v>
+        <v>2.052397713625531E-05</v>
       </c>
       <c r="V229">
-        <v>1.000041049218013</v>
+        <v>4.104921801251216E-05</v>
       </c>
       <c r="W229">
-        <v>1.000923361034164</v>
+        <v>0.0009233610341643494</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17634,7 +17634,7 @@
         <v>1.339229544699608</v>
       </c>
       <c r="K230">
-        <v>57.25088192965624</v>
+        <v>0.07250881929656239</v>
       </c>
       <c r="L230">
         <v>0.0005609065205543727</v>
@@ -17664,13 +17664,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U230">
-        <v>1.000041047111823</v>
+        <v>4.104711182262299E-05</v>
       </c>
       <c r="V230">
-        <v>1.000061571299565</v>
+        <v>6.157129956463336E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17705,7 +17705,7 @@
         <v>1.339229544699608</v>
       </c>
       <c r="K231">
-        <v>57.25088192965624</v>
+        <v>0.07250881929656239</v>
       </c>
       <c r="L231">
         <v>0.001505121213765719</v>
@@ -17735,13 +17735,13 @@
         <v>0.078125</v>
       </c>
       <c r="U231">
-        <v>1.000082090854053</v>
+        <v>8.209085405286309E-05</v>
       </c>
       <c r="V231">
-        <v>1.000061567508773</v>
+        <v>6.15675087733969E-05</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17776,7 +17776,7 @@
         <v>1.339229544699608</v>
       </c>
       <c r="K232">
-        <v>57.25088192965624</v>
+        <v>0.07250881929656239</v>
       </c>
       <c r="L232">
         <v>0.002387531782693953</v>
@@ -17806,13 +17806,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U232">
-        <v>1.000051302572311</v>
+        <v>5.130257231100721E-05</v>
       </c>
       <c r="V232">
-        <v>1.000061563718448</v>
+        <v>6.15637184484541E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17847,7 +17847,7 @@
         <v>1.050790915268583</v>
       </c>
       <c r="K233">
-        <v>51.23832505036066</v>
+        <v>0.01238325050360656</v>
       </c>
       <c r="L233">
         <v>0.002943353429165769</v>
@@ -17877,13 +17877,13 @@
         <v>0.1031250000000341</v>
       </c>
       <c r="U233">
-        <v>1.000020519976197</v>
+        <v>2.051997619689772E-05</v>
       </c>
       <c r="V233">
-        <v>1.000041039952394</v>
+        <v>4.103995239379543E-05</v>
       </c>
       <c r="W233">
-        <v>0.9993849938499385</v>
+        <v>-0.0006150061500614923</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17918,7 +17918,7 @@
         <v>0.9438048964618952</v>
       </c>
       <c r="K234">
-        <v>48.55450761441154</v>
+        <v>-0.01445492385588459</v>
       </c>
       <c r="L234">
         <v>0.003143082661017566</v>
@@ -17948,13 +17948,13 @@
         <v>0.09374999999997158</v>
       </c>
       <c r="U234">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V234">
-        <v>1.000020519134093</v>
+        <v>2.051913409273354E-05</v>
       </c>
       <c r="W234">
-        <v>0.9996923076923077</v>
+        <v>-0.0003076923076923421</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17989,7 +17989,7 @@
         <v>0.7772119601933096</v>
       </c>
       <c r="K235">
-        <v>43.73209147820338</v>
+        <v>-0.06267908521796622</v>
       </c>
       <c r="L235">
         <v>0.002878745983425102</v>
@@ -18019,13 +18019,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U235">
-        <v>0.999989740222432</v>
+        <v>-1.025977756796692E-05</v>
       </c>
       <c r="V235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W235">
-        <v>0.9993844259772238</v>
+        <v>-0.000615574022776233</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18060,7 +18060,7 @@
         <v>0.8701130386912688</v>
       </c>
       <c r="K236">
-        <v>46.52729651573287</v>
+        <v>-0.03472703484267131</v>
       </c>
       <c r="L236">
         <v>0.002451748502682274</v>
@@ -18090,13 +18090,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U236">
-        <v>1.000010259882832</v>
+        <v>1.025988283220869E-05</v>
       </c>
       <c r="V236">
-        <v>1.000041037426133</v>
+        <v>4.10374261325952E-05</v>
       </c>
       <c r="W236">
-        <v>1.000307976593779</v>
+        <v>0.0003079765937790135</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18131,7 +18131,7 @@
         <v>0.8701130386912689</v>
       </c>
       <c r="K237">
-        <v>46.52729651573287</v>
+        <v>-0.03472703484267131</v>
       </c>
       <c r="L237">
         <v>0.001944504568597083</v>
@@ -18161,13 +18161,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U237">
-        <v>0.999989740222432</v>
+        <v>-1.025977756796692E-05</v>
       </c>
       <c r="V237">
-        <v>1.000061553613197</v>
+        <v>6.155361319692965E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18202,7 +18202,7 @@
         <v>0.9730505217914421</v>
       </c>
       <c r="K238">
-        <v>49.31706061474572</v>
+        <v>-0.006829393852542776</v>
       </c>
       <c r="L238">
         <v>0.001525975829188169</v>
@@ -18232,13 +18232,13 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V238">
-        <v>1.000082066432777</v>
+        <v>8.206643277719472E-05</v>
       </c>
       <c r="W238">
-        <v>1.000307881773399</v>
+        <v>0.0003078817733987993</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18273,7 +18273,7 @@
         <v>0.973050521791442</v>
       </c>
       <c r="K239">
-        <v>49.31706061474571</v>
+        <v>-0.006829393852542887</v>
       </c>
       <c r="L239">
         <v>0.001182304382793982</v>
@@ -18303,13 +18303,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U239">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V239">
-        <v>1.000041029849215</v>
+        <v>4.102984921527941E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18344,7 +18344,7 @@
         <v>0.7923113771932606</v>
       </c>
       <c r="K240">
-        <v>44.2061232928182</v>
+        <v>-0.057938767071818</v>
       </c>
       <c r="L240">
         <v>0.0006774241281808953</v>
@@ -18374,13 +18374,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U240">
-        <v>0.9999794802343356</v>
+        <v>-2.051976566441738E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999589718341642</v>
+        <v>-4.102816583584357E-05</v>
       </c>
       <c r="W240">
-        <v>0.9993844259772238</v>
+        <v>-0.000615574022776233</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18415,7 +18415,7 @@
         <v>0.8900718361290261</v>
       </c>
       <c r="K241">
-        <v>47.09195804705198</v>
+        <v>-0.02908041952948021</v>
       </c>
       <c r="L241">
         <v>0.0002166650222819444</v>
@@ -18445,13 +18445,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U241">
-        <v>0.9999897399066332</v>
+        <v>-1.026009336679845E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999589701507846</v>
+        <v>-4.102984921539043E-05</v>
       </c>
       <c r="W241">
-        <v>1.000307976593779</v>
+        <v>0.0003079765937790135</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18486,7 +18486,7 @@
         <v>0.8900718361290261</v>
       </c>
       <c r="K242">
-        <v>47.09195804705198</v>
+        <v>-0.02908041952948021</v>
       </c>
       <c r="L242">
         <v>-0.0001887952704223037</v>
@@ -18516,13 +18516,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U242">
-        <v>0.9999897398013625</v>
+        <v>-1.026019863747951E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999384527009009</v>
+        <v>-6.154729909912948E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18557,7 +18557,7 @@
         <v>0.8900718361290262</v>
       </c>
       <c r="K243">
-        <v>47.09195804705199</v>
+        <v>-0.02908041952948009</v>
       </c>
       <c r="L243">
         <v>-0.0005342330499560326</v>
@@ -18587,13 +18587,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U243">
-        <v>0.9999794793921795</v>
+        <v>-2.052060782053999E-05</v>
       </c>
       <c r="V243">
-        <v>0.9999794829708657</v>
+        <v>-2.051702913430375E-05</v>
       </c>
       <c r="W243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18628,7 +18628,7 @@
         <v>0.8900718361290261</v>
       </c>
       <c r="K244">
-        <v>47.09195804705198</v>
+        <v>-0.02908041952948021</v>
       </c>
       <c r="L244">
         <v>-0.0008193535316169844</v>
@@ -18658,13 +18658,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U244">
-        <v>0.9999794789710758</v>
+        <v>-2.052102892424745E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999179301996348</v>
+        <v>-8.206980036518097E-05</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18699,7 +18699,7 @@
         <v>0.794689827410017</v>
       </c>
       <c r="K245">
-        <v>44.28006529445052</v>
+        <v>-0.05719934705549479</v>
       </c>
       <c r="L245">
         <v>-0.001158860122208519</v>
@@ -18729,13 +18729,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U245">
-        <v>0.9999794785499542</v>
+        <v>-2.05214500458295E-05</v>
       </c>
       <c r="V245">
-        <v>0.9998974043295373</v>
+        <v>-0.0001025956704626685</v>
       </c>
       <c r="W245">
-        <v>0.9996921182266009</v>
+        <v>-0.0003078817733991324</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18770,7 +18770,7 @@
         <v>0.5476053456726332</v>
       </c>
       <c r="K246">
-        <v>35.38404330301846</v>
+        <v>-0.1461595669698154</v>
       </c>
       <c r="L246">
         <v>-0.001953781473180643</v>
@@ -18800,13 +18800,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U246">
-        <v>0.9999384343864476</v>
+        <v>-6.156561355241674E-05</v>
       </c>
       <c r="V246">
-        <v>0.9998153088446542</v>
+        <v>-0.0001846911553458064</v>
       </c>
       <c r="W246">
-        <v>0.9987680936248846</v>
+        <v>-0.001231906375115388</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18841,7 +18841,7 @@
         <v>0.629426239552765</v>
       </c>
       <c r="K247">
-        <v>38.62870403544785</v>
+        <v>-0.1137129596455215</v>
       </c>
       <c r="L247">
         <v>-0.002854794122834827</v>
@@ -18871,13 +18871,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U247">
-        <v>0.9999486921632409</v>
+        <v>-5.130783675910688E-05</v>
       </c>
       <c r="V247">
-        <v>0.9998357997578046</v>
+        <v>-0.0001642002421954336</v>
       </c>
       <c r="W247">
-        <v>1.000308356460068</v>
+        <v>0.0003083564600676603</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18912,7 +18912,7 @@
         <v>0.5369365034134523</v>
       </c>
       <c r="K248">
-        <v>34.9355033354303</v>
+        <v>-0.150644966645697</v>
       </c>
       <c r="L248">
         <v>-0.003976483247923034</v>
@@ -18942,13 +18942,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U248">
-        <v>0.9999384274367342</v>
+        <v>-6.157256326577709E-05</v>
       </c>
       <c r="V248">
-        <v>0.9998357727916573</v>
+        <v>-0.0001642272083427487</v>
       </c>
       <c r="W248">
-        <v>0.9993834771886561</v>
+        <v>-0.0006165228113439447</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18983,7 +18983,7 @@
         <v>0.4650102244020257</v>
       </c>
       <c r="K249">
-        <v>31.7410907211811</v>
+        <v>-0.182589092788189</v>
       </c>
       <c r="L249">
         <v>-0.005370169303033964</v>
@@ -19013,13 +19013,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U249">
-        <v>0.9999178981937603</v>
+        <v>-8.210180623968721E-05</v>
       </c>
       <c r="V249">
-        <v>0.9998152140437326</v>
+        <v>-0.0001847859562673637</v>
       </c>
       <c r="W249">
-        <v>0.999383096853794</v>
+        <v>-0.0006169031462059937</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19054,7 +19054,7 @@
         <v>0.4075436640326201</v>
       </c>
       <c r="K250">
-        <v>28.9542466387867</v>
+        <v>-0.210457533612133</v>
       </c>
       <c r="L250">
         <v>-0.007044606477438576</v>
@@ -19084,13 +19084,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U250">
-        <v>0.9999076278840625</v>
+        <v>-9.237211593748906E-05</v>
       </c>
       <c r="V250">
-        <v>0.9998151798915722</v>
+        <v>-0.0001848201084277967</v>
       </c>
       <c r="W250">
-        <v>0.9993827160493828</v>
+        <v>-0.0006172839506172201</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19125,7 +19125,7 @@
         <v>0.3826547359268879</v>
       </c>
       <c r="K251">
-        <v>27.67536435409295</v>
+        <v>-0.2232463564590705</v>
       </c>
       <c r="L251">
         <v>-0.008869102335460375</v>
@@ -19155,13 +19155,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U251">
-        <v>0.9999076193506667</v>
+        <v>-9.238064933325685E-05</v>
       </c>
       <c r="V251">
-        <v>0.9997740669994042</v>
+        <v>-0.0002259330005958127</v>
       </c>
       <c r="W251">
-        <v>0.999691167387276</v>
+        <v>-0.0003088326127239638</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19196,7 +19196,7 @@
         <v>0.3390616948715254</v>
       </c>
       <c r="K252">
-        <v>25.32084191266902</v>
+        <v>-0.2467915808733098</v>
       </c>
       <c r="L252">
         <v>-0.01086045473862855</v>
@@ -19226,13 +19226,13 @@
         <v>-0.1843749999999602</v>
       </c>
       <c r="U252">
-        <v>0.999897345350771</v>
+        <v>-0.0001026546492289837</v>
       </c>
       <c r="V252">
-        <v>0.9997329279316296</v>
+        <v>-0.0002670720683703998</v>
       </c>
       <c r="W252">
-        <v>0.9993821439604572</v>
+        <v>-0.0006178560395427857</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19267,7 +19267,7 @@
         <v>0.3198818091007226</v>
       </c>
       <c r="K253">
-        <v>24.23564041076285</v>
+        <v>-0.2576435958923715</v>
       </c>
       <c r="L253">
         <v>-0.01289895362071288</v>
@@ -19297,13 +19297,13 @@
         <v>-0.2218750000000114</v>
       </c>
       <c r="U253">
-        <v>0.9998870682928832</v>
+        <v>-0.0001129317071167923</v>
       </c>
       <c r="V253">
-        <v>0.9996917575981753</v>
+        <v>-0.0003082424018246988</v>
       </c>
       <c r="W253">
-        <v>0.9996908809891808</v>
+        <v>-0.0003091190108192032</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19338,7 +19338,7 @@
         <v>0.3198818091007227</v>
       </c>
       <c r="K254">
-        <v>24.23564041076287</v>
+        <v>-0.2576435958923713</v>
       </c>
       <c r="L254">
         <v>-0.01478958015205569</v>
@@ -19368,13 +19368,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U254">
-        <v>0.999866520181122</v>
+        <v>-0.0001334798188780129</v>
       </c>
       <c r="V254">
-        <v>0.9996916625555008</v>
+        <v>-0.0003083374444992071</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19409,7 +19409,7 @@
         <v>0.5705966649988958</v>
       </c>
       <c r="K255">
-        <v>36.3299297467499</v>
+        <v>-0.1367007025325009</v>
       </c>
       <c r="L255">
         <v>-0.01596808756160042</v>
@@ -19439,13 +19439,13 @@
         <v>-0.234375</v>
       </c>
       <c r="U255">
-        <v>0.9998870404600533</v>
+        <v>-0.000112959539946722</v>
       </c>
       <c r="V255">
-        <v>0.9998149404725186</v>
+        <v>-0.0001850595274813793</v>
       </c>
       <c r="W255">
-        <v>1.001236858379716</v>
+        <v>0.001236858379715544</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19480,7 +19480,7 @@
         <v>0.6365742586562817</v>
       </c>
       <c r="K256">
-        <v>38.89675370911336</v>
+        <v>-0.1110324629088664</v>
       </c>
       <c r="L256">
         <v>-0.01646987120433755</v>
@@ -19510,13 +19510,13 @@
         <v>-0.2281249999999773</v>
       </c>
       <c r="U256">
-        <v>0.9998870276987544</v>
+        <v>-0.0001129723012456285</v>
       </c>
       <c r="V256">
-        <v>0.999814906219151</v>
+        <v>-0.0001850937808489661</v>
       </c>
       <c r="W256">
-        <v>1.000308832612724</v>
+        <v>0.0003088326127238528</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19551,7 +19551,7 @@
         <v>0.4493357752982153</v>
       </c>
       <c r="K257">
-        <v>31.00287614205618</v>
+        <v>-0.1899712385794382</v>
       </c>
       <c r="L257">
         <v>-0.01714287135923187</v>
@@ -19581,13 +19581,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U257">
-        <v>0.9998151153474802</v>
+        <v>-0.0001848846525197567</v>
       </c>
       <c r="V257">
-        <v>0.9996914532551681</v>
+        <v>-0.000308546744831939</v>
       </c>
       <c r="W257">
-        <v>0.9981475764124731</v>
+        <v>-0.001852423587526908</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19622,7 +19622,7 @@
         <v>0.4272866912929498</v>
       </c>
       <c r="K258">
-        <v>29.93699120853425</v>
+        <v>-0.2006300879146575</v>
       </c>
       <c r="L258">
         <v>-0.01792686654208052</v>
@@ -19652,13 +19652,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U258">
-        <v>0.9998253544277791</v>
+        <v>-0.0001746455722209106</v>
       </c>
       <c r="V258">
-        <v>0.9996707818930041</v>
+        <v>-0.0003292181069959321</v>
       </c>
       <c r="W258">
-        <v>0.9996906897618311</v>
+        <v>-0.0003093102381689361</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19693,7 +19693,7 @@
         <v>0.3872784654124299</v>
       </c>
       <c r="K259">
-        <v>27.91641873409274</v>
+        <v>-0.2208358126590725</v>
       </c>
       <c r="L259">
         <v>-0.01888771801693576</v>
@@ -19723,13 +19723,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U259">
-        <v>0.9997739486041327</v>
+        <v>-0.0002260513958672883</v>
       </c>
       <c r="V259">
-        <v>0.9996295076568418</v>
+        <v>-0.0003704923431582241</v>
       </c>
       <c r="W259">
-        <v>0.9993811881188119</v>
+        <v>-0.0006188118811880639</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19764,7 +19764,7 @@
         <v>0.3107168432085791</v>
       </c>
       <c r="K260">
-        <v>23.70587093761286</v>
+        <v>-0.2629412906238714</v>
       </c>
       <c r="L260">
         <v>-0.02038745322677761</v>
@@ -19794,13 +19794,13 @@
         <v>-0.1906249999999829</v>
       </c>
       <c r="U260">
-        <v>0.9997225105600149</v>
+        <v>-0.000277489439985068</v>
       </c>
       <c r="V260">
-        <v>0.9995470081950336</v>
+        <v>-0.000452991804966385</v>
       </c>
       <c r="W260">
-        <v>0.9984520123839009</v>
+        <v>-0.001547987616099089</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19835,7 +19835,7 @@
         <v>0.2983017504076741</v>
       </c>
       <c r="K261">
-        <v>22.97630349138832</v>
+        <v>-0.2702369650861168</v>
       </c>
       <c r="L261">
         <v>-0.02215695751478558</v>
@@ -19865,13 +19865,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U261">
-        <v>0.9997121532989287</v>
+        <v>-0.0002878467010712926</v>
       </c>
       <c r="V261">
-        <v>0.999608602504944</v>
+        <v>-0.0003913974950560117</v>
       </c>
       <c r="W261">
-        <v>0.9996899224806201</v>
+        <v>-0.0003100775193799477</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19906,7 +19906,7 @@
         <v>0.3824202590977354</v>
       </c>
       <c r="K262">
-        <v>27.66309713569517</v>
+        <v>-0.2233690286430483</v>
       </c>
       <c r="L262">
         <v>-0.02367271647367478</v>
@@ -19936,13 +19936,13 @@
         <v>-0.1781249999999943</v>
       </c>
       <c r="U262">
-        <v>0.9997326368179666</v>
+        <v>-0.0002673631820333533</v>
       </c>
       <c r="V262">
-        <v>0.999629057187017</v>
+        <v>-0.0003709428129829995</v>
       </c>
       <c r="W262">
-        <v>1.000620347394541</v>
+        <v>0.0006203473945409765</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19977,7 +19977,7 @@
         <v>0.3513129714727252</v>
       </c>
       <c r="K263">
-        <v>25.99789825815463</v>
+        <v>-0.2400210174184537</v>
       </c>
       <c r="L263">
         <v>-0.02507720620474553</v>
@@ -20007,13 +20007,13 @@
         <v>-0.2031250000000284</v>
       </c>
       <c r="U263">
-        <v>0.9997325653157786</v>
+        <v>-0.0002674346842214126</v>
       </c>
       <c r="V263">
-        <v>0.9996289195373865</v>
+        <v>-0.0003710804626134712</v>
       </c>
       <c r="W263">
-        <v>0.999380037197768</v>
+        <v>-0.000619962802231977</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20048,7 +20048,7 @@
         <v>0.4369373925395911</v>
       </c>
       <c r="K264">
-        <v>30.40754557631519</v>
+        <v>-0.1959245442368481</v>
       </c>
       <c r="L264">
         <v>-0.02600945668066232</v>
@@ -20078,13 +20078,13 @@
         <v>-0.234375</v>
       </c>
       <c r="U264">
-        <v>0.999763359878182</v>
+        <v>-0.0002366401218180103</v>
       </c>
       <c r="V264">
-        <v>0.9997112747221019</v>
+        <v>-0.0002887252778981386</v>
       </c>
       <c r="W264">
-        <v>1.000620347394541</v>
+        <v>0.0006203473945409765</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20119,7 +20119,7 @@
         <v>0.4008118333912975</v>
       </c>
       <c r="K265">
-        <v>28.61282463762115</v>
+        <v>-0.2138717536237886</v>
       </c>
       <c r="L265">
         <v>-0.02672664115149272</v>
@@ -20149,13 +20149,13 @@
         <v>-0.2406250000000227</v>
       </c>
       <c r="U265">
-        <v>0.9997633038663799</v>
+        <v>-0.0002366961336200957</v>
       </c>
       <c r="V265">
-        <v>0.9997111913357402</v>
+        <v>-0.0002888086642598431</v>
       </c>
       <c r="W265">
-        <v>0.999380037197768</v>
+        <v>-0.000619962802231977</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20190,7 +20190,7 @@
         <v>0.3687217723979593</v>
       </c>
       <c r="K266">
-        <v>26.93913254203372</v>
+        <v>-0.2306086745796628</v>
       </c>
       <c r="L266">
         <v>-0.02739583095645763</v>
@@ -20220,13 +20220,13 @@
         <v>-0.2531250000000114</v>
       </c>
       <c r="U266">
-        <v>0.9997323671099763</v>
+        <v>-0.000267632890023739</v>
       </c>
       <c r="V266">
-        <v>0.9996904727512844</v>
+        <v>-0.0003095272487155798</v>
       </c>
       <c r="W266">
-        <v>0.9993796526054591</v>
+        <v>-0.0006203473945408655</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20261,7 +20261,7 @@
         <v>0.3273410445457247</v>
       </c>
       <c r="K267">
-        <v>24.66141206819648</v>
+        <v>-0.2533858793180351</v>
       </c>
       <c r="L267">
         <v>-0.0282314862810979</v>
@@ -20291,13 +20291,13 @@
         <v>-0.265625</v>
       </c>
       <c r="U267">
-        <v>0.9997014064784501</v>
+        <v>-0.000298593521549928</v>
       </c>
       <c r="V267">
-        <v>0.9996697353754695</v>
+        <v>-0.0003302646245304519</v>
       </c>
       <c r="W267">
-        <v>0.9990689013035381</v>
+        <v>-0.0009310986964619072</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20332,7 +20332,7 @@
         <v>0.2827970333186264</v>
       </c>
       <c r="K268">
-        <v>22.04534513047818</v>
+        <v>-0.2795465486952182</v>
       </c>
       <c r="L268">
         <v>-0.02946267840129411</v>
@@ -20362,13 +20362,13 @@
         <v>-0.265625</v>
       </c>
       <c r="U268">
-        <v>0.9996498202754061</v>
+        <v>-0.0003501797245939464</v>
       </c>
       <c r="V268">
-        <v>0.9996076811893453</v>
+        <v>-0.0003923188106547126</v>
       </c>
       <c r="W268">
-        <v>0.9987573780677229</v>
+        <v>-0.001242621932277088</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20403,7 +20403,7 @@
         <v>0.3902272662177074</v>
       </c>
       <c r="K269">
-        <v>28.06931468689798</v>
+        <v>-0.2193068531310202</v>
       </c>
       <c r="L269">
         <v>-0.03041140078771592</v>
@@ -20433,13 +20433,13 @@
         <v>-0.2531249999999829</v>
       </c>
       <c r="U269">
-        <v>0.999680606641321</v>
+        <v>-0.0003193933586790321</v>
       </c>
       <c r="V269">
-        <v>0.9996694966020121</v>
+        <v>-0.0003305033979879024</v>
       </c>
       <c r="W269">
-        <v>1.000933125972006</v>
+        <v>0.0009331259720062324</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20474,7 +20474,7 @@
         <v>0.4656169033398625</v>
       </c>
       <c r="K270">
-        <v>31.76934588287089</v>
+        <v>-0.1823065411712911</v>
       </c>
       <c r="L270">
         <v>-0.03079336871284176</v>
@@ -20504,13 +20504,13 @@
         <v>-0.2468749999999886</v>
       </c>
       <c r="U270">
-        <v>0.999721729809952</v>
+        <v>-0.0002782701900480022</v>
       </c>
       <c r="V270">
-        <v>0.9996280607500775</v>
+        <v>-0.0003719392499225149</v>
       </c>
       <c r="W270">
-        <v>1.000621504039776</v>
+        <v>0.0006215040397761218</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20545,7 +20545,7 @@
         <v>0.5052956597199554</v>
       </c>
       <c r="K271">
-        <v>33.56786797710959</v>
+        <v>-0.1643213202289042</v>
       </c>
       <c r="L271">
         <v>-0.03058320729267062</v>
@@ -20575,13 +20575,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U271">
-        <v>0.9997216523540994</v>
+        <v>-0.0002783476459006229</v>
       </c>
       <c r="V271">
-        <v>0.9996279223597992</v>
+        <v>-0.000372077640200752</v>
       </c>
       <c r="W271">
-        <v>1.000310559006211</v>
+        <v>0.0003105590062113528</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20616,7 +20616,7 @@
         <v>0.6305969956570434</v>
       </c>
       <c r="K272">
-        <v>38.672768154031</v>
+        <v>-0.1132723184596899</v>
       </c>
       <c r="L272">
         <v>-0.02957856540667303</v>
@@ -20646,13 +20646,13 @@
         <v>-0.1781250000000227</v>
       </c>
       <c r="U272">
-        <v>0.9997525109823252</v>
+        <v>-0.0002474890176747957</v>
       </c>
       <c r="V272">
-        <v>0.9998138919332491</v>
+        <v>-0.0001861080667509007</v>
       </c>
       <c r="W272">
-        <v>1.000931387767774</v>
+        <v>0.0009313877677739058</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20687,7 +20687,7 @@
         <v>0.7185277577181911</v>
       </c>
       <c r="K273">
-        <v>41.81065766852846</v>
+        <v>-0.08189342331471539</v>
       </c>
       <c r="L273">
         <v>-0.02782328288221619</v>
@@ -20717,13 +20717,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U273">
-        <v>0.9997730789066529</v>
+        <v>-0.0002269210933470989</v>
       </c>
       <c r="V273">
-        <v>0.9998759048603931</v>
+        <v>-0.0001240951396068724</v>
       </c>
       <c r="W273">
-        <v>1.000620347394541</v>
+        <v>0.0006203473945409765</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20758,7 +20758,7 @@
         <v>0.8110864546246361</v>
       </c>
       <c r="K274">
-        <v>44.7845243695305</v>
+        <v>-0.05215475630469496</v>
       </c>
       <c r="L274">
         <v>-0.02539790937748415</v>
@@ -20788,13 +20788,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U274">
-        <v>0.9997936612743478</v>
+        <v>-0.0002063387256522331</v>
       </c>
       <c r="V274">
-        <v>0.9999586298196259</v>
+        <v>-4.137018037408957E-05</v>
       </c>
       <c r="W274">
-        <v>1.000619962802232</v>
+        <v>0.000619962802231866</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20829,7 +20829,7 @@
         <v>0.773409719964272</v>
       </c>
       <c r="K275">
-        <v>43.61145150258077</v>
+        <v>-0.06388548497419227</v>
       </c>
       <c r="L275">
         <v>-0.02274075920137844</v>
@@ -20859,13 +20859,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U275">
-        <v>0.9997936186898916</v>
+        <v>-0.0002063813101084166</v>
       </c>
       <c r="V275">
-        <v>1.000041371891937</v>
+        <v>4.137189193675894E-05</v>
       </c>
       <c r="W275">
-        <v>0.9996902106567533</v>
+        <v>-0.0003097893432466581</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20900,7 +20900,7 @@
         <v>0.704512571789607</v>
       </c>
       <c r="K276">
-        <v>41.33220156011657</v>
+        <v>-0.08667798439883428</v>
       </c>
       <c r="L276">
         <v>-0.02025484282488498</v>
@@ -20930,13 +20930,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U276">
-        <v>0.9998142184790685</v>
+        <v>-0.0001857815209315161</v>
       </c>
       <c r="V276">
-        <v>1.000020685090187</v>
+        <v>2.068509018693376E-05</v>
       </c>
       <c r="W276">
-        <v>0.9993802293151535</v>
+        <v>-0.0006197706848465323</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20971,7 +20971,7 @@
         <v>0.6729605200401421</v>
       </c>
       <c r="K277">
-        <v>40.22572630847228</v>
+        <v>-0.09774273691527724</v>
       </c>
       <c r="L277">
         <v>-0.0180700117612272</v>
@@ -21001,13 +21001,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U277">
-        <v>0.9997935377309797</v>
+        <v>-0.0002064622690203244</v>
       </c>
       <c r="V277">
-        <v>0.9999586306753543</v>
+        <v>-4.136932464571252E-05</v>
       </c>
       <c r="W277">
-        <v>0.9996899224806201</v>
+        <v>-0.0003100775193799477</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21042,7 +21042,7 @@
         <v>0.7672460938736969</v>
       </c>
       <c r="K278">
-        <v>43.4147851017138</v>
+        <v>-0.06585214898286196</v>
       </c>
       <c r="L278">
         <v>-0.01591548966126735</v>
@@ -21072,13 +21072,13 @@
         <v>0.1031249999999773</v>
       </c>
       <c r="U278">
-        <v>0.9998347960764068</v>
+        <v>-0.0001652039235932046</v>
       </c>
       <c r="V278">
-        <v>1.000041371036138</v>
+        <v>4.137103613754967E-05</v>
       </c>
       <c r="W278">
-        <v>1.000620347394541</v>
+        <v>0.0006203473945409765</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21113,7 +21113,7 @@
         <v>0.8664940663300422</v>
       </c>
       <c r="K279">
-        <v>46.42361751697231</v>
+        <v>-0.03576382483027696</v>
       </c>
       <c r="L279">
         <v>-0.01363297796334799</v>
@@ -21143,13 +21143,13 @@
         <v>0.1343750000000341</v>
       </c>
       <c r="U279">
-        <v>0.9998760765846706</v>
+        <v>-0.0001239234153294078</v>
       </c>
       <c r="V279">
-        <v>1.000041369324646</v>
+        <v>4.136932464571252E-05</v>
       </c>
       <c r="W279">
-        <v>1.000619962802232</v>
+        <v>0.000619962802231866</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21184,7 +21184,7 @@
         <v>0.9187298413070512</v>
       </c>
       <c r="K280">
-        <v>47.88218859832848</v>
+        <v>-0.02117811401671515</v>
       </c>
       <c r="L280">
         <v>-0.01125575494342858</v>
@@ -21214,13 +21214,13 @@
         <v>0.15625</v>
       </c>
       <c r="U280">
-        <v>0.9999070459193159</v>
+        <v>-9.295408068410449E-05</v>
       </c>
       <c r="V280">
-        <v>1.000103419033239</v>
+        <v>0.0001034190332387386</v>
       </c>
       <c r="W280">
-        <v>1.000309789343246</v>
+        <v>0.000309789343246436</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21255,7 +21255,7 @@
         <v>1.02869989389029</v>
       </c>
       <c r="K281">
-        <v>50.70734695596732</v>
+        <v>0.00707346955967314</v>
       </c>
       <c r="L281">
         <v>-0.00870587181529733</v>
@@ -21285,13 +21285,13 @@
         <v>0.1656250000000341</v>
       </c>
       <c r="U281">
-        <v>0.9999380248520342</v>
+        <v>-6.197514796579817E-05</v>
       </c>
       <c r="V281">
-        <v>1.000186135009927</v>
+        <v>0.0001861350099272574</v>
       </c>
       <c r="W281">
-        <v>1.000619386807061</v>
+        <v>0.0006193868070611952</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21326,7 +21326,7 @@
         <v>0.9724173730248196</v>
       </c>
       <c r="K282">
-        <v>49.30079131951467</v>
+        <v>-0.006992086804853248</v>
       </c>
       <c r="L282">
         <v>-0.006294876249036143</v>
@@ -21356,13 +21356,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U282">
-        <v>0.9999483508423979</v>
+        <v>-5.164915760214051E-05</v>
       </c>
       <c r="V282">
-        <v>1.00022745600794</v>
+        <v>0.0002274560079402743</v>
       </c>
       <c r="W282">
-        <v>0.9996904982977406</v>
+        <v>-0.0003095017022594071</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21397,7 +21397,7 @@
         <v>0.9724173730248195</v>
       </c>
       <c r="K283">
-        <v>49.30079131951467</v>
+        <v>-0.006992086804853248</v>
       </c>
       <c r="L283">
         <v>-0.004098728475099026</v>
@@ -21427,13 +21427,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U283">
-        <v>0.9999586785396997</v>
+        <v>-4.132146030033645E-05</v>
       </c>
       <c r="V283">
-        <v>1.000310096750186</v>
+        <v>0.0003100967501861174</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21468,7 +21468,7 @@
         <v>0.9724173730248195</v>
       </c>
       <c r="K284">
-        <v>49.30079131951467</v>
+        <v>-0.006992086804853248</v>
       </c>
       <c r="L284">
         <v>-0.002157790508554495</v>
@@ -21498,13 +21498,13 @@
         <v>0.1218750000000171</v>
       </c>
       <c r="U284">
-        <v>0.999958676832166</v>
+        <v>-4.132316783400647E-05</v>
       </c>
       <c r="V284">
-        <v>1.000248000496001</v>
+        <v>0.000248000496001044</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21539,7 +21539,7 @@
         <v>1.036231088279898</v>
       </c>
       <c r="K285">
-        <v>50.88966052253195</v>
+        <v>0.008896605225319543</v>
       </c>
       <c r="L285">
         <v>-0.0003744918662365499</v>
@@ -21569,13 +21569,13 @@
         <v>0.125</v>
       </c>
       <c r="U285">
-        <v>0.9999276814678596</v>
+        <v>-7.231853214040296E-05</v>
       </c>
       <c r="V285">
-        <v>1.000227277423087</v>
+        <v>0.0002272774230873686</v>
       </c>
       <c r="W285">
-        <v>1.00030959752322</v>
+        <v>0.0003095975232199066</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21610,7 +21610,7 @@
         <v>1.103403420127311</v>
       </c>
       <c r="K286">
-        <v>52.45800256712172</v>
+        <v>0.0245800256712172</v>
       </c>
       <c r="L286">
         <v>0.001313825540964584</v>
@@ -21640,13 +21640,13 @@
         <v>0.1250000000000284</v>
       </c>
       <c r="U286">
-        <v>0.9999276762375113</v>
+        <v>-7.232376248866856E-05</v>
       </c>
       <c r="V286">
-        <v>1.000227225779797</v>
+        <v>0.0002272257797972799</v>
       </c>
       <c r="W286">
-        <v>1.000309501702259</v>
+        <v>0.0003095017022591851</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21681,7 +21681,7 @@
         <v>1.174111137861469</v>
       </c>
       <c r="K287">
-        <v>54.00419129522356</v>
+        <v>0.04004191295223558</v>
       </c>
       <c r="L287">
         <v>0.002945008486750273</v>
@@ -21711,13 +21711,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V287">
-        <v>1.00018586976725</v>
+        <v>0.0001858697672498799</v>
       </c>
       <c r="W287">
-        <v>1.000309405940594</v>
+        <v>0.0003094059405941429</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21752,7 +21752,7 @@
         <v>1.021980764354707</v>
       </c>
       <c r="K288">
-        <v>50.54354533787374</v>
+        <v>0.005435453378737409</v>
       </c>
       <c r="L288">
         <v>0.004201137103353492</v>
@@ -21782,13 +21782,13 @@
         <v>0.1093749999999716</v>
       </c>
       <c r="U288">
-        <v>0.9999896672866293</v>
+        <v>-1.033271337069763E-05</v>
       </c>
       <c r="V288">
-        <v>1.000103241792277</v>
+        <v>0.0001032417922774975</v>
       </c>
       <c r="W288">
-        <v>0.9993813795236622</v>
+        <v>-0.0006186204763377612</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21823,7 +21823,7 @@
         <v>1.090175856840545</v>
       </c>
       <c r="K289">
-        <v>52.15713564352553</v>
+        <v>0.02157135643525532</v>
       </c>
       <c r="L289">
         <v>0.005247478400765748</v>
@@ -21853,13 +21853,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U289">
-        <v>1.000020665640273</v>
+        <v>2.066564027325413E-05</v>
       </c>
       <c r="V289">
-        <v>1.000082584907608</v>
+        <v>8.258490760826298E-05</v>
       </c>
       <c r="W289">
-        <v>1.000309501702259</v>
+        <v>0.0003095017022591851</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21894,7 +21894,7 @@
         <v>1.161960164720415</v>
       </c>
       <c r="K290">
-        <v>53.74567874476446</v>
+        <v>0.03745678744764458</v>
       </c>
       <c r="L290">
         <v>0.006193703613329834</v>
@@ -21924,13 +21924,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U290">
-        <v>1.000082660852853</v>
+        <v>8.266085285346669E-05</v>
       </c>
       <c r="V290">
-        <v>1.000123867131856</v>
+        <v>0.0001238671318564144</v>
       </c>
       <c r="W290">
-        <v>1.000309405940594</v>
+        <v>0.0003094059405941429</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21965,7 +21965,7 @@
         <v>1.161960164720415</v>
       </c>
       <c r="K291">
-        <v>53.74567874476446</v>
+        <v>0.03745678744764458</v>
       </c>
       <c r="L291">
         <v>0.006996343643956651</v>
@@ -21995,13 +21995,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U291">
-        <v>1.000092985773177</v>
+        <v>9.298577317662371E-05</v>
       </c>
       <c r="V291">
-        <v>1.00016513572092</v>
+        <v>0.0001651357209204729</v>
       </c>
       <c r="W291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22036,7 +22036,7 @@
         <v>0.938110037987697</v>
       </c>
       <c r="K292">
-        <v>48.40334241092518</v>
+        <v>-0.01596657589074824</v>
       </c>
       <c r="L292">
         <v>0.007296853505137224</v>
@@ -22066,13 +22066,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U292">
-        <v>1.000041323167834</v>
+        <v>4.132316783400647E-05</v>
       </c>
       <c r="V292">
-        <v>1.000123831341713</v>
+        <v>0.0001238313417128989</v>
       </c>
       <c r="W292">
-        <v>0.9990720692854933</v>
+        <v>-0.0009279307145066973</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22107,7 +22107,7 @@
         <v>1.005706076562442</v>
       </c>
       <c r="K293">
-        <v>50.14224608054788</v>
+        <v>0.001422460805478809</v>
       </c>
       <c r="L293">
         <v>0.007360274686974197</v>
@@ -22137,13 +22137,13 @@
         <v>0.0625</v>
       </c>
       <c r="U293">
-        <v>1.000072312555526</v>
+        <v>7.231255552575533E-05</v>
       </c>
       <c r="V293">
-        <v>1.000103180007841</v>
+        <v>0.0001031800078414857</v>
       </c>
       <c r="W293">
-        <v>1.00030959752322</v>
+        <v>0.0003095975232199066</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22178,7 +22178,7 @@
         <v>0.9388998546736597</v>
       </c>
       <c r="K294">
-        <v>48.42436046454229</v>
+        <v>-0.01575639535457712</v>
       </c>
       <c r="L294">
         <v>0.00713642428930344</v>
@@ -22208,13 +22208,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U294">
-        <v>1.000041318472456</v>
+        <v>4.131847245614217E-05</v>
       </c>
       <c r="V294">
-        <v>1.00004126774513</v>
+        <v>4.126774513046882E-05</v>
       </c>
       <c r="W294">
-        <v>0.9996904982977406</v>
+        <v>-0.0003095017022594071</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22249,7 +22249,7 @@
         <v>0.6614112918348879</v>
       </c>
       <c r="K295">
-        <v>39.81020804935154</v>
+        <v>-0.1018979195064846</v>
       </c>
       <c r="L295">
         <v>0.006050107289926178</v>
@@ -22279,13 +22279,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V295">
-        <v>0.9998968348945654</v>
+        <v>-0.0001031651054346217</v>
       </c>
       <c r="W295">
-        <v>0.998142414860681</v>
+        <v>-0.001857585139318996</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22320,7 +22320,7 @@
         <v>0.661411291834888</v>
       </c>
       <c r="K296">
-        <v>39.81020804935154</v>
+        <v>-0.1018979195064846</v>
       </c>
       <c r="L296">
         <v>0.004488654636161204</v>
@@ -22350,13 +22350,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U296">
-        <v>1.000020658382655</v>
+        <v>2.065838265519204E-05</v>
       </c>
       <c r="V296">
-        <v>0.9998555539505994</v>
+        <v>-0.0001444460494005595</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22391,7 +22391,7 @@
         <v>0.7705697393844173</v>
       </c>
       <c r="K297">
-        <v>43.52100469379563</v>
+        <v>-0.06478995306204366</v>
       </c>
       <c r="L297">
         <v>0.002948160042710568</v>
@@ -22421,13 +22421,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U297">
-        <v>1.000072302845633</v>
+        <v>7.230284563330969E-05</v>
       </c>
       <c r="V297">
-        <v>0.9999174474759565</v>
+        <v>-8.25525240435443E-05</v>
       </c>
       <c r="W297">
-        <v>1.000620347394541</v>
+        <v>0.0006203473945409765</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22462,7 +22462,7 @@
         <v>0.8280215538841369</v>
       </c>
       <c r="K298">
-        <v>45.29604982636973</v>
+        <v>-0.04703950173630267</v>
       </c>
       <c r="L298">
         <v>0.001620570003976626</v>
@@ -22492,13 +22492,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U298">
-        <v>1.000123938774246</v>
+        <v>0.0001239387742455467</v>
       </c>
       <c r="V298">
-        <v>0.9999380804953563</v>
+        <v>-6.191950464373708E-05</v>
       </c>
       <c r="W298">
-        <v>1.000309981401116</v>
+        <v>0.000309981401115822</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22533,7 +22533,7 @@
         <v>0.7808020838997148</v>
       </c>
       <c r="K299">
-        <v>43.84552842558811</v>
+        <v>-0.06154471574411891</v>
       </c>
       <c r="L299">
         <v>0.0003878631667999878</v>
@@ -22563,13 +22563,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U299">
-        <v>1.00008261561022</v>
+        <v>8.261561021960517E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999174355481245</v>
+        <v>-8.256445187548866E-05</v>
       </c>
       <c r="W299">
-        <v>0.9996901146575768</v>
+        <v>-0.0003098853424231551</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22604,7 +22604,7 @@
         <v>0.7365860916896375</v>
       </c>
       <c r="K300">
-        <v>42.41575440541304</v>
+        <v>-0.07584245594586958</v>
       </c>
       <c r="L300">
         <v>-0.0008230168109977481</v>
@@ -22634,13 +22634,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U300">
-        <v>1.000051630490903</v>
+        <v>5.163049090284311E-05</v>
       </c>
       <c r="V300">
-        <v>0.9998761430960097</v>
+        <v>-0.0001238569039903048</v>
       </c>
       <c r="W300">
-        <v>0.999690018598884</v>
+        <v>-0.000309981401116044</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/DNB 15.12.2020.xlsx
+++ b/data_clean/DNB 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1337,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W300"/>
+  <dimension ref="A1:X300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,10 +1416,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>160.9</v>
@@ -1473,7 +1479,7 @@
         <v>160.9</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>160.9</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1484,10 +1490,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>160.9</v>
@@ -1544,7 +1553,7 @@
         <v>160.9</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>160.9</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1555,10 +1564,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>161.2</v>
@@ -1615,21 +1627,24 @@
         <v>161</v>
       </c>
       <c r="T4">
+        <v>161</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.0006215040397761218</v>
       </c>
       <c r="V4">
         <v>0.0006215040397761218</v>
       </c>
       <c r="W4">
+        <v>0.0006215040397761218</v>
+      </c>
+      <c r="X4">
         <v>0.001864512119328587</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>161.35</v>
@@ -1686,21 +1701,24 @@
         <v>161.0875</v>
       </c>
       <c r="T5">
+        <v>161.15</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0005434782608695343</v>
       </c>
       <c r="V5">
         <v>0.0005434782608695343</v>
       </c>
       <c r="W5">
+        <v>0.0005434782608695343</v>
+      </c>
+      <c r="X5">
         <v>0.0009305210918113538</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>161.35</v>
@@ -1757,21 +1775,24 @@
         <v>161.14</v>
       </c>
       <c r="T6">
+        <v>161.3</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0003259098316132913</v>
       </c>
       <c r="V6">
         <v>0.0003259098316132913</v>
       </c>
       <c r="W6">
+        <v>0.0003259098316132913</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>161.5</v>
@@ -1828,21 +1849,24 @@
         <v>161.2</v>
       </c>
       <c r="T7">
+        <v>161.4</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0003723470274294982</v>
       </c>
       <c r="V7">
         <v>0.0003723470274294982</v>
       </c>
       <c r="W7">
+        <v>0.0003723470274294982</v>
+      </c>
+      <c r="X7">
         <v>0.0009296560272700205</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>161.95</v>
@@ -1899,21 +1923,24 @@
         <v>161.3071428571429</v>
       </c>
       <c r="T8">
+        <v>161.6</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0006646579227225224</v>
       </c>
       <c r="V8">
         <v>0.0006646579227225224</v>
       </c>
       <c r="W8">
+        <v>0.0006646579227225224</v>
+      </c>
+      <c r="X8">
         <v>0.002786377708978272</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>162.05</v>
@@ -1970,21 +1997,24 @@
         <v>161.4</v>
       </c>
       <c r="T9">
+        <v>161.8333333333333</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0005756542531991649</v>
       </c>
       <c r="V9">
         <v>0.0005756542531991649</v>
       </c>
       <c r="W9">
+        <v>0.0005756542531991649</v>
+      </c>
+      <c r="X9">
         <v>0.000617474529175821</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>162.05</v>
@@ -2041,21 +2071,24 @@
         <v>161.4722222222222</v>
       </c>
       <c r="T10">
+        <v>162.0166666666667</v>
+      </c>
+      <c r="U10">
         <v>0.07152777777776009</v>
-      </c>
-      <c r="U10">
-        <v>0.0004474734958006543</v>
       </c>
       <c r="V10">
         <v>0.0004474734958006543</v>
       </c>
       <c r="W10">
+        <v>0.0004474734958006543</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>162.1</v>
@@ -2112,21 +2145,24 @@
         <v>161.535</v>
       </c>
       <c r="T11">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="U11">
         <v>0.1587499999999977</v>
-      </c>
-      <c r="U11">
-        <v>0.0003887837605367483</v>
       </c>
       <c r="V11">
         <v>0.0003887837605367483</v>
       </c>
       <c r="W11">
+        <v>0.0003887837605367483</v>
+      </c>
+      <c r="X11">
         <v>0.000308546744831828</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>162.05</v>
@@ -2183,21 +2219,24 @@
         <v>161.5818181818182</v>
       </c>
       <c r="T12">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="U12">
         <v>0.2181818181818187</v>
-      </c>
-      <c r="U12">
-        <v>0.0002898330505352043</v>
       </c>
       <c r="V12">
         <v>0.0002898330505352043</v>
       </c>
       <c r="W12">
+        <v>0.0002898330505352043</v>
+      </c>
+      <c r="X12">
         <v>-0.0003084515731028858</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>162</v>
@@ -2254,21 +2293,24 @@
         <v>161.6166666666667</v>
       </c>
       <c r="T13">
+        <v>162.05</v>
+      </c>
+      <c r="U13">
         <v>0.2645833333333485</v>
-      </c>
-      <c r="U13">
-        <v>0.0002156708300513621</v>
       </c>
       <c r="V13">
         <v>0.0002156708300513621</v>
       </c>
       <c r="W13">
+        <v>0.0002156708300513621</v>
+      </c>
+      <c r="X13">
         <v>-0.000308546744831939</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>162.15</v>
@@ -2325,21 +2367,24 @@
         <v>161.6576923076923</v>
       </c>
       <c r="T14">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="U14">
         <v>0.3235576923076735</v>
-      </c>
-      <c r="U14">
-        <v>0.0002538453605793745</v>
       </c>
       <c r="V14">
         <v>0.0002538453605793745</v>
       </c>
       <c r="W14">
+        <v>0.0002538453605793745</v>
+      </c>
+      <c r="X14">
         <v>0.0009259259259259967</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>161.95</v>
@@ -2396,21 +2441,24 @@
         <v>161.6785714285714</v>
       </c>
       <c r="T15">
+        <v>162.0333333333333</v>
+      </c>
+      <c r="U15">
         <v>0.3589285714285779</v>
-      </c>
-      <c r="U15">
-        <v>0.0001291563709777677</v>
       </c>
       <c r="V15">
         <v>0.0001291563709777677</v>
       </c>
       <c r="W15">
+        <v>0.0001291563709777677</v>
+      </c>
+      <c r="X15">
         <v>-0.001233425840271418</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>161.55</v>
@@ -2467,21 +2515,24 @@
         <v>161.67</v>
       </c>
       <c r="T16">
+        <v>161.8833333333334</v>
+      </c>
+      <c r="U16">
         <v>0.317499999999967</v>
-      </c>
-      <c r="U16">
-        <v>-5.301524188183748E-05</v>
       </c>
       <c r="V16">
         <v>-5.301524188183748E-05</v>
       </c>
       <c r="W16">
+        <v>-5.301524188183748E-05</v>
+      </c>
+      <c r="X16">
         <v>-0.002469898116702507</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>161.55</v>
@@ -2538,21 +2589,24 @@
         <v>161.7133333333333</v>
       </c>
       <c r="T17">
+        <v>161.6833333333333</v>
+      </c>
+      <c r="U17">
         <v>0.2625000000000171</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-4.63907960661647E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0002680357106037423</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>161.85</v>
@@ -2609,21 +2663,24 @@
         <v>161.7766666666666</v>
       </c>
       <c r="T18">
+        <v>161.65</v>
+      </c>
+      <c r="U18">
         <v>0.1781250000000227</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>6.822492392921653E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0003916395267344885</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.001857010213555998</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>161.95</v>
@@ -2680,21 +2737,24 @@
         <v>161.8266666666667</v>
       </c>
       <c r="T19">
+        <v>161.7833333333333</v>
+      </c>
+      <c r="U19">
         <v>0.09375000000002842</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9.500304211873534E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0003090680567863213</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0006178560395426747</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>162.2</v>
@@ -2751,21 +2811,24 @@
         <v>161.8833333333333</v>
       </c>
       <c r="T20">
+        <v>162</v>
+      </c>
+      <c r="U20">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001663725007956529</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0003501689050011692</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.001543686322939219</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>162.35</v>
@@ -2822,21 +2885,24 @@
         <v>161.95</v>
       </c>
       <c r="T21">
+        <v>162.1666666666667</v>
+      </c>
+      <c r="U21">
         <v>0.03125</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001960880036451229</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0004118192113662378</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0009247842170161391</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>162.35</v>
@@ -2893,21 +2959,24 @@
         <v>162.0066666666667</v>
       </c>
       <c r="T22">
+        <v>162.3</v>
+      </c>
+      <c r="U22">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001773781739469182</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0003499022331998614</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>162.55</v>
@@ -2964,21 +3033,24 @@
         <v>162.0466666666667</v>
       </c>
       <c r="T23">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U23">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0002174186452876814</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0002469034196121989</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.00123190637511561</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>162.45</v>
@@ -3035,21 +3107,24 @@
         <v>162.0733333333334</v>
       </c>
       <c r="T24">
+        <v>162.45</v>
+      </c>
+      <c r="U24">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001715998048281708</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001645616489078794</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.0006151953245157049</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>162.5</v>
@@ -3106,21 +3181,24 @@
         <v>162.1033333333334</v>
       </c>
       <c r="T25">
+        <v>162.5</v>
+      </c>
+      <c r="U25">
         <v>0.1749999999999545</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001701456984479766</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001851013944305091</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0003077870113881165</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>162.4</v>
@@ -3177,21 +3255,24 @@
         <v>162.1233333333333</v>
       </c>
       <c r="T26">
+        <v>162.45</v>
+      </c>
+      <c r="U26">
         <v>0.2218750000000114</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.000131795716639127</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001233780921632288</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0006153846153845732</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>162.45</v>
@@ -3248,21 +3329,24 @@
         <v>162.15</v>
       </c>
       <c r="T27">
+        <v>162.45</v>
+      </c>
+      <c r="U27">
         <v>0.2624999999999886</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001335206106405362</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0001644838291836592</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0003078817733987993</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>162.35</v>
@@ -3319,21 +3403,24 @@
         <v>162.1733333333333</v>
       </c>
       <c r="T28">
+        <v>162.4</v>
+      </c>
+      <c r="U28">
         <v>0.2625000000000171</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001007385588052134</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001438996813649673</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.000615574022776233</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>162.4</v>
@@ -3390,21 +3477,24 @@
         <v>162.19</v>
       </c>
       <c r="T29">
+        <v>162.4</v>
+      </c>
+      <c r="U29">
         <v>0.2437499999999773</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.000104561495229305</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001027706980185616</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0003079765937790135</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>162.3</v>
@@ -3461,21 +3551,24 @@
         <v>162.2133333333333</v>
       </c>
       <c r="T30">
+        <v>162.35</v>
+      </c>
+      <c r="U30">
         <v>0.2281250000000341</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>7.604701530672386E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0001438641922024697</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0006157635467980427</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>162.2</v>
@@ -3532,21 +3625,24 @@
         <v>162.2566666666667</v>
       </c>
       <c r="T31">
+        <v>162.3</v>
+      </c>
+      <c r="U31">
         <v>0.1687500000000171</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>5.0389990134736E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0002671379253658124</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.0006161429451634337</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>162.4</v>
@@ -3603,21 +3699,24 @@
         <v>162.3133333333334</v>
       </c>
       <c r="T32">
+        <v>162.3</v>
+      </c>
+      <c r="U32">
         <v>0.109375</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0003087118483608986</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0003492409146004238</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.001233045622688111</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>162.6</v>
@@ -3674,21 +3773,24 @@
         <v>162.3633333333333</v>
       </c>
       <c r="T33">
+        <v>162.4</v>
+      </c>
+      <c r="U33">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0003497654514030835</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0003080461658520051</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.001231527093596085</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>162.5</v>
@@ -3745,21 +3847,24 @@
         <v>162.4</v>
       </c>
       <c r="T34">
+        <v>162.5</v>
+      </c>
+      <c r="U34">
         <v>0.02812499999996021</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002673741798810969</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0002258309552649607</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0006150061500614923</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>162.35</v>
@@ -3816,21 +3921,24 @@
         <v>162.41</v>
       </c>
       <c r="T35">
+        <v>162.4833333333333</v>
+      </c>
+      <c r="U35">
         <v>-0.009374999999977263</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0002056174692601775</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>6.157635467984868E-05</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0009230769230769154</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>162.35</v>
@@ -3887,21 +3995,24 @@
         <v>162.41</v>
       </c>
       <c r="T36">
+        <v>162.4</v>
+      </c>
+      <c r="U36">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0002055751994081145</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>162.35</v>
@@ -3958,21 +4069,24 @@
         <v>162.41</v>
       </c>
       <c r="T37">
+        <v>162.35</v>
+      </c>
+      <c r="U37">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0001747030048917519</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>162.2</v>
@@ -4029,21 +4143,24 @@
         <v>162.3866666666667</v>
       </c>
       <c r="T38">
+        <v>162.3</v>
+      </c>
+      <c r="U38">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>5.137426149492974E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001436693142865542</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0009239297813367076</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>162.1</v>
@@ -4100,21 +4217,24 @@
         <v>162.3633333333333</v>
       </c>
       <c r="T39">
+        <v>162.2166666666667</v>
+      </c>
+      <c r="U39">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1.027432446321086E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0001436899581248596</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0006165228113439447</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>162.2</v>
@@ -4171,21 +4291,24 @@
         <v>162.3433333333333</v>
       </c>
       <c r="T40">
+        <v>162.1666666666667</v>
+      </c>
+      <c r="U40">
         <v>-0.02187499999996589</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3.082265670739659E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0001231805210536452</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0006169031462059937</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>161.95</v>
@@ -4242,21 +4365,24 @@
         <v>162.3133333333334</v>
       </c>
       <c r="T41">
+        <v>162.0833333333333</v>
+      </c>
+      <c r="U41">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-3.082170670076767E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0001847935445451476</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.001541307028360084</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>162.1</v>
@@ -4313,21 +4439,24 @@
         <v>162.29</v>
       </c>
       <c r="T42">
+        <v>162.0833333333333</v>
+      </c>
+      <c r="U42">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>1.027421890276159E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.000143754877397817</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0009262117937636205</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>162.25</v>
@@ -4384,21 +4513,24 @@
         <v>162.2833333333333</v>
       </c>
       <c r="T43">
+        <v>162.1</v>
+      </c>
+      <c r="U43">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>5.137056672022133E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-4.107872738101648E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0009253547193091016</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>162.35</v>
@@ -4455,21 +4587,24 @@
         <v>162.28</v>
       </c>
       <c r="T44">
+        <v>162.2333333333333</v>
+      </c>
+      <c r="U44">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>4.109434233612319E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-2.054020745612117E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0006163328197226203</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>162.45</v>
@@ -4526,21 +4661,24 @@
         <v>162.29</v>
       </c>
       <c r="T45">
+        <v>162.35</v>
+      </c>
+      <c r="U45">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0001027316341521978</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>6.162188809466507E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.000615953187557805</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>162.45</v>
@@ -4597,21 +4735,24 @@
         <v>162.3066666666667</v>
       </c>
       <c r="T46">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U46">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0001848979466054779</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.0001026968184525412</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>162.35</v>
@@ -4668,21 +4809,24 @@
         <v>162.3033333333333</v>
       </c>
       <c r="T47">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U47">
         <v>-0.046875</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0001643233472663486</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-2.053725457995537E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.000615574022776233</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>162.5</v>
@@ -4739,21 +4883,24 @@
         <v>162.2966666666667</v>
       </c>
       <c r="T48">
+        <v>162.4333333333333</v>
+      </c>
+      <c r="U48">
         <v>-0.01562499999997158</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0001334907840015997</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-4.107535273456531E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.0009239297813365965</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>162.5</v>
@@ -4810,21 +4957,24 @@
         <v>162.2966666666667</v>
       </c>
       <c r="T49">
+        <v>162.45</v>
+      </c>
+      <c r="U49">
         <v>0.05937500000001705</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0001129386640383867</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>162.55</v>
@@ -4881,21 +5031,24 @@
         <v>162.31</v>
       </c>
       <c r="T50">
+        <v>162.5166666666667</v>
+      </c>
+      <c r="U50">
         <v>0.1124999999999829</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>7.186194294162007E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>8.215407997713697E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0003076923076923421</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>162.7</v>
@@ -4952,21 +5105,24 @@
         <v>162.3333333333333</v>
       </c>
       <c r="T51">
+        <v>162.5833333333333</v>
+      </c>
+      <c r="U51">
         <v>0.1468749999999943</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>7.185677917376232E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.000143757829667468</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0009227929867732243</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>162.65</v>
@@ -5023,21 +5179,24 @@
         <v>162.3533333333334</v>
       </c>
       <c r="T52">
+        <v>162.6333333333333</v>
+      </c>
+      <c r="U52">
         <v>0.1656250000000057</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>6.158709955572661E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0001232032854210363</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>-0.0003073140749845216</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>162.65</v>
@@ -5094,21 +5253,24 @@
         <v>162.3833333333333</v>
       </c>
       <c r="T53">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="U53">
         <v>0.1718749999999716</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>2.052776893934904E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0001847821623617296</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>162.9</v>
@@ -5165,21 +5327,24 @@
         <v>162.4366666666666</v>
       </c>
       <c r="T54">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="U54">
         <v>0.1843750000000455</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>9.237306401477241E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0003284409319510573</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.00153704272978783</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>162.7</v>
@@ -5236,21 +5401,24 @@
         <v>162.47</v>
       </c>
       <c r="T55">
+        <v>162.75</v>
+      </c>
+      <c r="U55">
         <v>0.1906250000000114</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>4.105090311989912E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0002052081837025099</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>-0.001227747084100783</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>162.8</v>
@@ -5307,21 +5475,24 @@
         <v>162.5266666666666</v>
       </c>
       <c r="T56">
+        <v>162.8</v>
+      </c>
+      <c r="U56">
         <v>0.1906250000000114</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>8.209843602480227E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0003487823393035772</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0006146281499694872</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>162.8</v>
@@ -5378,21 +5549,24 @@
         <v>162.5733333333333</v>
       </c>
       <c r="T57">
+        <v>162.7666666666667</v>
+      </c>
+      <c r="U57">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>7.183023437185021E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.000287132368021803</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>162.8</v>
@@ -5449,21 +5623,24 @@
         <v>162.61</v>
       </c>
       <c r="T58">
+        <v>162.8</v>
+      </c>
+      <c r="U58">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>9.234652520517805E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0002255392438286208</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>163.1</v>
@@ -5520,21 +5697,24 @@
         <v>162.66</v>
       </c>
       <c r="T59">
+        <v>162.9</v>
+      </c>
+      <c r="U59">
         <v>0.1593750000000114</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.0001436368859524251</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0003074841645653859</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.001842751842751733</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>163.1</v>
@@ -5591,21 +5771,24 @@
         <v>162.7033333333333</v>
       </c>
       <c r="T60">
+        <v>163</v>
+      </c>
+      <c r="U60">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.0001641328655546115</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0002664043608344713</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>163.15</v>
@@ -5662,21 +5845,24 @@
         <v>162.75</v>
       </c>
       <c r="T61">
+        <v>163.1166666666667</v>
+      </c>
+      <c r="U61">
         <v>0.1875</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.000194875792324023</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.0002868205937185397</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0003065603923972926</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>163.1</v>
@@ -5733,21 +5919,24 @@
         <v>162.8</v>
       </c>
       <c r="T62">
+        <v>163.1166666666666</v>
+      </c>
+      <c r="U62">
         <v>0.171875</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>0.0001435647117937755</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.0003072196620583778</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.0003064664419246688</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>163.1</v>
@@ -5804,21 +5993,24 @@
         <v>162.84</v>
       </c>
       <c r="T63">
+        <v>163.1166666666667</v>
+      </c>
+      <c r="U63">
         <v>0.1749999999999829</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.0001025315028042595</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0002457002457001423</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>163.1</v>
@@ -5875,21 +6067,24 @@
         <v>162.88</v>
       </c>
       <c r="T64">
+        <v>163.1</v>
+      </c>
+      <c r="U64">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.000123025189407544</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0002456398919183922</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>163.25</v>
@@ -5946,21 +6141,24 @@
         <v>162.9266666666666</v>
       </c>
       <c r="T65">
+        <v>163.15</v>
+      </c>
+      <c r="U65">
         <v>0.1843750000000171</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0001845150841082166</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0002865094957431591</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.0009196811771918778</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>163.45</v>
@@ -6017,21 +6215,24 @@
         <v>162.9766666666667</v>
       </c>
       <c r="T66">
+        <v>163.2666666666667</v>
+      </c>
+      <c r="U66">
         <v>0.2093749999999943</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.000225476832255378</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.0003068865338189397</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.001225114854517484</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>163.45</v>
@@ -6088,21 +6289,24 @@
         <v>163.03</v>
       </c>
       <c r="T67">
+        <v>163.3833333333333</v>
+      </c>
+      <c r="U67">
         <v>0.2062499999999829</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0002254260039142864</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.0003272452089255751</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>163.4</v>
@@ -6159,21 +6363,24 @@
         <v>163.08</v>
       </c>
       <c r="T68">
+        <v>163.4333333333333</v>
+      </c>
+      <c r="U68">
         <v>0.1968750000000057</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0002458638528914925</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.0003066920198735446</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0003059039461608126</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>163.4</v>
@@ -6230,21 +6437,24 @@
         <v>163.1133333333333</v>
       </c>
       <c r="T69">
+        <v>163.4166666666667</v>
+      </c>
+      <c r="U69">
         <v>0.1812500000000057</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0002662870369423143</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.0002043986591448999</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>163.25</v>
@@ -6301,21 +6511,24 @@
         <v>163.15</v>
       </c>
       <c r="T70">
+        <v>163.35</v>
+      </c>
+      <c r="U70">
         <v>0.1781249999999943</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.0002150207341422572</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.0002247925777578708</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.0009179926560587415</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>163.2</v>
@@ -6372,21 +6585,24 @@
         <v>163.1766666666667</v>
       </c>
       <c r="T71">
+        <v>163.2833333333333</v>
+      </c>
+      <c r="U71">
         <v>0.1593750000000114</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>0.0002559220359108494</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0001634487690265196</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0003062787136294265</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>163.05</v>
@@ -6443,21 +6659,24 @@
         <v>163.1933333333333</v>
       </c>
       <c r="T72">
+        <v>163.1666666666667</v>
+      </c>
+      <c r="U72">
         <v>0.1374999999999602</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.0001944509830009711</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.0001021387861825929</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0009191176470586537</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>163.1</v>
@@ -6514,21 +6733,24 @@
         <v>163.2133333333333</v>
       </c>
       <c r="T73">
+        <v>163.1166666666667</v>
+      </c>
+      <c r="U73">
         <v>0.09999999999999432</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001739486339915608</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0001225540258995572</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0003066544004906024</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>163.15</v>
@@ -6585,21 +6807,24 @@
         <v>163.2166666666667</v>
       </c>
       <c r="T74">
+        <v>163.1</v>
+      </c>
+      <c r="U74">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001636878881194903</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>2.042316804207189E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.0003065603923972926</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>163.1</v>
@@ -6656,21 +6881,24 @@
         <v>163.2166666666667</v>
       </c>
       <c r="T75">
+        <v>163.1166666666667</v>
+      </c>
+      <c r="U75">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.000132974642758299</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0003064664419246688</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>163.05</v>
@@ -6727,21 +6955,24 @@
         <v>163.21</v>
       </c>
       <c r="T76">
+        <v>163.1</v>
+      </c>
+      <c r="U76">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0001227295041728027</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-4.084550188909741E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.0003065603923971816</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>163.05</v>
@@ -6798,21 +7029,24 @@
         <v>163.2066666666666</v>
       </c>
       <c r="T77">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="U77">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>0.0001431668507385631</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-2.042358515630394E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>163.05</v>
@@ -6869,21 +7103,24 @@
         <v>163.2033333333333</v>
       </c>
       <c r="T78">
+        <v>163.05</v>
+      </c>
+      <c r="U78">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.0001124721375840299</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-2.042400228730035E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>163.05</v>
@@ -6940,21 +7177,24 @@
         <v>163.2</v>
       </c>
       <c r="T79">
+        <v>163.05</v>
+      </c>
+      <c r="U79">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>0.0001124594890249409</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-2.042441943606033E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>163.05</v>
@@ -7011,21 +7251,24 @@
         <v>163.1866666666667</v>
       </c>
       <c r="T80">
+        <v>163.05</v>
+      </c>
+      <c r="U80">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>0.0001022244030095543</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-8.169934640511745E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>163.05</v>
@@ -7082,21 +7325,24 @@
         <v>163.16</v>
       </c>
       <c r="T81">
+        <v>163.05</v>
+      </c>
+      <c r="U81">
         <v>-0.1093750000000284</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>7.154976797418833E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-0.0001634120434675923</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>163.05</v>
@@ -7153,21 +7399,24 @@
         <v>163.1333333333333</v>
       </c>
       <c r="T82">
+        <v>163.05</v>
+      </c>
+      <c r="U82">
         <v>-0.09687499999995453</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>8.17653131099938E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.00016343875132796</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>162.9</v>
@@ -7224,21 +7473,24 @@
         <v>163.1</v>
       </c>
       <c r="T83">
+        <v>163</v>
+      </c>
+      <c r="U83">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>5.109914255663206E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.0002043318348998735</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.0009199632014720294</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>162.8</v>
@@ -7295,21 +7547,24 @@
         <v>163.06</v>
       </c>
       <c r="T84">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U84">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-2.043861262734925E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0002452483139178119</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0006138735420503361</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>162.85</v>
@@ -7366,21 +7621,24 @@
         <v>163.0333333333333</v>
       </c>
       <c r="T85">
+        <v>162.85</v>
+      </c>
+      <c r="U85">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>3.065854555872605E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0001635389836052159</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0003071253071251778</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>162.75</v>
@@ -7437,21 +7695,24 @@
         <v>163.0033333333334</v>
       </c>
       <c r="T86">
+        <v>162.8</v>
+      </c>
+      <c r="U86">
         <v>-0.078125</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-1.021920188037928E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.000184011449601118</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.000614062020264039</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>162.9</v>
@@ -7508,21 +7769,24 @@
         <v>162.9933333333333</v>
       </c>
       <c r="T87">
+        <v>162.8333333333333</v>
+      </c>
+      <c r="U87">
         <v>-0.07812500000002842</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>2.043861262679414E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-6.134843868232931E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0009216589861751334</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>162.95</v>
@@ -7579,21 +7843,24 @@
         <v>162.9833333333333</v>
       </c>
       <c r="T88">
+        <v>162.8666666666666</v>
+      </c>
+      <c r="U88">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>3.065729234830172E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-6.135220254421814E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0003069367710251125</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>163.05</v>
@@ -7650,21 +7917,24 @@
         <v>162.9766666666667</v>
       </c>
       <c r="T89">
+        <v>162.9666666666667</v>
+      </c>
+      <c r="U89">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-1.021878416918032E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-4.090397791178813E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0006136851795031095</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>163</v>
@@ -7721,21 +7991,24 @@
         <v>162.97</v>
       </c>
       <c r="T90">
+        <v>163</v>
+      </c>
+      <c r="U90">
         <v>-0.07812500000002842</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-2.043777718752082E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-4.090565111569688E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0003066544004907135</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>163.1</v>
@@ -7792,21 +8065,24 @@
         <v>162.9733333333333</v>
       </c>
       <c r="T91">
+        <v>163.05</v>
+      </c>
+      <c r="U91">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-1.021909744913785E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>2.045366222813705E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0006134969325153339</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>163.05</v>
@@ -7863,21 +8139,24 @@
         <v>162.9733333333334</v>
       </c>
       <c r="T92">
+        <v>163.05</v>
+      </c>
+      <c r="U92">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-1.021920188037928E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0003065603923971816</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>163.1</v>
@@ -7934,21 +8213,24 @@
         <v>162.9766666666667</v>
       </c>
       <c r="T93">
+        <v>163.0833333333333</v>
+      </c>
+      <c r="U93">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>2.045324388433301E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0003066544004906024</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>163.05</v>
@@ -8005,21 +8287,24 @@
         <v>162.9766666666667</v>
       </c>
       <c r="T94">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="U94">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-1.021930631361911E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0003065603923971816</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>162.95</v>
@@ -8076,21 +8361,24 @@
         <v>162.97</v>
       </c>
       <c r="T95">
+        <v>163.0333333333333</v>
+      </c>
+      <c r="U95">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-6.131646449258898E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-4.090565111569688E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.0006133088009814269</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>162.8</v>
@@ -8147,21 +8435,24 @@
         <v>162.9533333333333</v>
       </c>
       <c r="T96">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="U96">
         <v>0.05312500000002274</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-0.0001328604862692595</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-0.0001022683111412404</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0009205277692542202</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>163</v>
@@ -8218,21 +8509,24 @@
         <v>162.95</v>
       </c>
       <c r="T97">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U97">
         <v>0.05000000000003979</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-9.199255882419433E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-2.045575420361878E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.001228501228501155</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>163</v>
@@ -8289,21 +8583,24 @@
         <v>162.9566666666666</v>
       </c>
       <c r="T98">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="U98">
         <v>0.05312500000002274</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-8.17786864297787E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>4.091234530023691E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>163.1</v>
@@ -8360,21 +8657,24 @@
         <v>162.9766666666667</v>
       </c>
       <c r="T99">
+        <v>163.0333333333333</v>
+      </c>
+      <c r="U99">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-6.133903104776905E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0001227320146461874</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.0006134969325153339</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>163.1</v>
@@ -8431,21 +8731,24 @@
         <v>162.9933333333333</v>
       </c>
       <c r="T100">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="U100">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-3.067139687784604E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0001022641277892422</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>163.05</v>
@@ -8502,21 +8805,24 @@
         <v>163.0133333333333</v>
       </c>
       <c r="T101">
+        <v>163.0833333333333</v>
+      </c>
+      <c r="U101">
         <v>0.009375000000034106</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-3.067233764109112E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.0001227044050879922</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0003065603923971816</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>163.05</v>
@@ -8573,21 +8879,24 @@
         <v>163.0233333333333</v>
       </c>
       <c r="T102">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="U102">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>0</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>6.134467528240428E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>163.1</v>
@@ -8644,21 +8953,24 @@
         <v>163.0333333333333</v>
       </c>
       <c r="T103">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="U103">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>6.134091234377692E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0003066544004906024</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>163.05</v>
@@ -8715,21 +9027,24 @@
         <v>163.0333333333333</v>
       </c>
       <c r="T104">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="U104">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-2.044885230834126E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0003065603923971816</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>162.95</v>
@@ -8786,21 +9101,24 @@
         <v>163.03</v>
       </c>
       <c r="T105">
+        <v>163.0333333333333</v>
+      </c>
+      <c r="U105">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-3.067390570821171E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-2.044571662229711E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.0006133088009814269</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>162.85</v>
@@ -8857,21 +9175,24 @@
         <v>163.0133333333333</v>
       </c>
       <c r="T106">
+        <v>162.95</v>
+      </c>
+      <c r="U106">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-4.089979550114808E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0001022306732912925</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0006136851795028875</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>162.7</v>
@@ -8928,21 +9249,24 @@
         <v>162.99</v>
       </c>
       <c r="T107">
+        <v>162.8333333333333</v>
+      </c>
+      <c r="U107">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-7.157756963482864E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.0001431375756584252</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.000921093030396114</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>162.65</v>
@@ -8999,21 +9323,24 @@
         <v>162.96</v>
       </c>
       <c r="T108">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="U108">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-8.180879239993999E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.000184060371801742</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0003073140749845216</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>162.5</v>
@@ -9070,21 +9397,24 @@
         <v>162.9233333333333</v>
       </c>
       <c r="T109">
+        <v>162.6166666666667</v>
+      </c>
+      <c r="U109">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-0.0001124962927359086</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0002250040909834716</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0009222256378728089</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>162.5</v>
@@ -9141,21 +9471,24 @@
         <v>162.8933333333333</v>
       </c>
       <c r="T110">
+        <v>162.55</v>
+      </c>
+      <c r="U110">
         <v>-0.1093750000000284</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-0.000112508949575485</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.000184135687542164</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>162.5</v>
@@ -9212,21 +9545,24 @@
         <v>162.8733333333334</v>
       </c>
       <c r="T111">
+        <v>162.5</v>
+      </c>
+      <c r="U111">
         <v>-0.15625</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-0.0001125216092634496</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0001227797331585512</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>162.55</v>
@@ -9283,21 +9619,24 @@
         <v>162.8433333333333</v>
       </c>
       <c r="T112">
+        <v>162.5166666666667</v>
+      </c>
+      <c r="U112">
         <v>-0.2031250000000284</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-0.0001023038834554457</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0001841922148092534</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.0003076923076923421</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>162.6</v>
@@ -9354,21 +9693,24 @@
         <v>162.8166666666667</v>
       </c>
       <c r="T113">
+        <v>162.55</v>
+      </c>
+      <c r="U113">
         <v>-0.2218749999999829</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-6.138861036664167E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0001637565758499937</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0003075976622577414</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>162.65</v>
@@ -9425,21 +9767,24 @@
         <v>162.7866666666667</v>
       </c>
       <c r="T114">
+        <v>162.6</v>
+      </c>
+      <c r="U114">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-3.069618957951548E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-0.0001842563210154857</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.0003075030750308017</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>162.65</v>
@@ -9496,21 +9841,24 @@
         <v>162.7566666666667</v>
       </c>
       <c r="T115">
+        <v>162.6333333333334</v>
+      </c>
+      <c r="U115">
         <v>-0.203125</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-4.09295091530204E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0001842902776639788</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>162.65</v>
@@ -9567,21 +9915,24 @@
         <v>162.73</v>
       </c>
       <c r="T116">
+        <v>162.65</v>
+      </c>
+      <c r="U116">
         <v>-0.1749999999999829</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-2.046559222323996E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-0.0001638437749604815</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>162.6</v>
@@ -9638,21 +9989,24 @@
         <v>162.7</v>
       </c>
       <c r="T117">
+        <v>162.6333333333334</v>
+      </c>
+      <c r="U117">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-6.139803321614234E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-0.0001843544521602514</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.000307408545957677</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>162.6</v>
@@ -9709,21 +10063,24 @@
         <v>162.6666666666667</v>
       </c>
       <c r="T118">
+        <v>162.6166666666667</v>
+      </c>
+      <c r="U118">
         <v>-0.09375</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-7.163543702748409E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0002048760499897551</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>162.7</v>
@@ -9780,21 +10137,24 @@
         <v>162.6433333333333</v>
       </c>
       <c r="T119">
+        <v>162.6333333333333</v>
+      </c>
+      <c r="U119">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-7.164056903075089E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0001434426229507402</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0006150061500613813</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>162.75</v>
@@ -9851,21 +10211,24 @@
         <v>162.63</v>
       </c>
       <c r="T120">
+        <v>162.6833333333333</v>
+      </c>
+      <c r="U120">
         <v>0</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-5.117550126398918E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-8.197897239348162E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.0003073140749847436</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>162.85</v>
@@ -9922,21 +10285,24 @@
         <v>162.63</v>
       </c>
       <c r="T121">
+        <v>162.7666666666667</v>
+      </c>
+      <c r="U121">
         <v>0.03749999999996589</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-5.117812033017533E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>0</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.0006144393241167556</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>162.85</v>
@@ -9993,21 +10359,24 @@
         <v>162.64</v>
       </c>
       <c r="T122">
+        <v>162.8166666666667</v>
+      </c>
+      <c r="U122">
         <v>0.0625</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-4.094459173120679E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>6.148927012206151E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>162.9</v>
@@ -10064,21 +10433,24 @@
         <v>162.6566666666667</v>
       </c>
       <c r="T123">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="U123">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-4.094626825945635E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>0.0001024758157075478</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0.000307031010132075</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>162.9</v>
@@ -10135,21 +10507,24 @@
         <v>162.6833333333333</v>
       </c>
       <c r="T124">
+        <v>162.8833333333333</v>
+      </c>
+      <c r="U124">
         <v>0.09687499999998295</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-3.071095869378038E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>0.0001639445047851851</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>162.95</v>
@@ -10206,21 +10581,24 @@
         <v>162.7133333333333</v>
       </c>
       <c r="T125">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U125">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>0</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>0.0001844073353138853</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0003069367710251125</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>163.05</v>
@@ -10277,21 +10655,24 @@
         <v>162.75</v>
       </c>
       <c r="T126">
+        <v>162.9666666666667</v>
+      </c>
+      <c r="U126">
         <v>0.1343750000000057</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>5.118650314273054E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>0.0002253451878559964</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0006136851795031095</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>163</v>
@@ -10348,21 +10729,24 @@
         <v>162.78</v>
       </c>
       <c r="T127">
+        <v>163</v>
+      </c>
+      <c r="U127">
         <v>0.140625</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>0</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>0.0001843317972352043</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0003066544004907135</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>162.95</v>
@@ -10419,21 +10803,24 @@
         <v>162.8033333333333</v>
       </c>
       <c r="T128">
+        <v>163</v>
+      </c>
+      <c r="U128">
         <v>0.140625</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-1.023677664380163E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>0.0001433427529997644</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.000306748466257778</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>162.9</v>
@@ -10490,21 +10877,24 @@
         <v>162.82</v>
       </c>
       <c r="T129">
+        <v>162.95</v>
+      </c>
+      <c r="U129">
         <v>0.1281249999999829</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-4.094752574590466E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>0.0001023730062856831</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.0003068425897513327</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>162.85</v>
@@ -10561,21 +10951,24 @@
         <v>162.8333333333333</v>
       </c>
       <c r="T130">
+        <v>162.9</v>
+      </c>
+      <c r="U130">
         <v>0.1156249999999943</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-5.118650314261952E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>8.189002170078119E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0003069367710252235</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>162.9</v>
@@ -10632,21 +11025,24 @@
         <v>162.85</v>
       </c>
       <c r="T131">
+        <v>162.8833333333333</v>
+      </c>
+      <c r="U131">
         <v>0.09999999999999432</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-3.071347400118718E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>0.0001023541453428756</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.000307031010132075</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>163.1</v>
@@ -10703,21 +11099,24 @@
         <v>162.8833333333333</v>
       </c>
       <c r="T132">
+        <v>162.95</v>
+      </c>
+      <c r="U132">
         <v>0.09687500000001137</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>1.023813911582572E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>0.00020468734008805</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0.001227747084100672</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>163.05</v>
@@ -10774,21 +11173,24 @@
         <v>162.9133333333334</v>
       </c>
       <c r="T133">
+        <v>163.0166666666667</v>
+      </c>
+      <c r="U133">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-1.023803429744952E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>0.0001841809065794564</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0003065603923971816</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>163.15</v>
@@ -10845,21 +11247,24 @@
         <v>162.9433333333333</v>
       </c>
       <c r="T134">
+        <v>163.1</v>
+      </c>
+      <c r="U134">
         <v>0.05937500000001705</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>2.047627823187348E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>0.0001841469902195136</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0006133088009812049</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>163.15</v>
@@ -10916,21 +11321,24 @@
         <v>162.97</v>
       </c>
       <c r="T135">
+        <v>163.1166666666667</v>
+      </c>
+      <c r="U135">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>4.095171792450891E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>0.0001636560767546147</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>163.15</v>
@@ -10987,21 +11395,24 @@
         <v>162.99</v>
       </c>
       <c r="T136">
+        <v>163.15</v>
+      </c>
+      <c r="U136">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>6.142506142503557E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>0.0001227219733694884</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>163.15</v>
@@ -11058,21 +11469,24 @@
         <v>163.01</v>
       </c>
       <c r="T137">
+        <v>163.15</v>
+      </c>
+      <c r="U137">
         <v>0.0625</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>9.21319329278969E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0.0001227069145348647</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>163.15</v>
@@ -11129,21 +11543,24 @@
         <v>163.0266666666667</v>
       </c>
       <c r="T138">
+        <v>163.15</v>
+      </c>
+      <c r="U138">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>0.0001023593837965464</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0001022432161625897</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>163.15</v>
@@ -11200,21 +11617,24 @@
         <v>163.0433333333333</v>
       </c>
       <c r="T139">
+        <v>163.15</v>
+      </c>
+      <c r="U139">
         <v>0.09687500000003979</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>0.0001330535796528753</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.0001022327635560316</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>163</v>
@@ -11271,21 +11691,24 @@
         <v>163.0466666666667</v>
       </c>
       <c r="T140">
+        <v>163.1</v>
+      </c>
+      <c r="U140">
         <v>0.07812500000002842</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>0.0001023352913487319</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>2.044446261728616E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.0009193993257738953</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>162.9</v>
@@ -11342,21 +11765,24 @@
         <v>163.0366666666667</v>
       </c>
       <c r="T141">
+        <v>163.0166666666667</v>
+      </c>
+      <c r="U141">
         <v>0.06250000000002842</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>8.185985592668032E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-6.133213394932113E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>-0.0006134969325153339</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>163</v>
@@ -11413,21 +11839,24 @@
         <v>163.0366666666667</v>
       </c>
       <c r="T142">
+        <v>162.9666666666667</v>
+      </c>
+      <c r="U142">
         <v>0.04687500000002842</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>9.208479986888563E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.000613873542050225</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>163.05</v>
@@ -11484,21 +11913,24 @@
         <v>163.0433333333334</v>
       </c>
       <c r="T143">
+        <v>162.9833333333333</v>
+      </c>
+      <c r="U143">
         <v>0.03125000000002842</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>9.207632103924723E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>4.089059720735477E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.000306748466257778</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>163.05</v>
@@ -11555,21 +11987,24 @@
         <v>163.0533333333333</v>
       </c>
       <c r="T144">
+        <v>163.0333333333333</v>
+      </c>
+      <c r="U144">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>8.183808335204823E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>6.133338785185849E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>162.9</v>
@@ -11626,21 +12061,24 @@
         <v>163.0566666666667</v>
       </c>
       <c r="T145">
+        <v>163</v>
+      </c>
+      <c r="U145">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>5.114461651789526E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>2.044320876604111E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0009199632014720294</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>162.9</v>
@@ -11697,21 +12135,24 @@
         <v>163.0566666666667</v>
       </c>
       <c r="T146">
+        <v>162.95</v>
+      </c>
+      <c r="U146">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>5.11420008795227E-05</v>
-      </c>
-      <c r="V146">
-        <v>0</v>
       </c>
       <c r="W146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>162.95</v>
@@ -11768,21 +12209,24 @@
         <v>163.0466666666667</v>
       </c>
       <c r="T147">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U147">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>7.159513971277676E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-6.132837254957391E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0003069367710251125</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>162.9</v>
@@ -11839,21 +12283,24 @@
         <v>163.0366666666667</v>
       </c>
       <c r="T148">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U148">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>6.136286932778567E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-6.133213394932113E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0003068425897513327</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>162.9</v>
@@ -11910,21 +12357,24 @@
         <v>163.02</v>
       </c>
       <c r="T149">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U149">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>4.09060694379626E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.0001022264930178318</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>162.9</v>
@@ -11981,21 +12431,24 @@
         <v>163.0033333333334</v>
       </c>
       <c r="T150">
+        <v>162.9</v>
+      </c>
+      <c r="U150">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>3.06782971499775E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-0.0001022369443420823</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>162.95</v>
@@ -12052,21 +12505,24 @@
         <v>162.99</v>
       </c>
       <c r="T151">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U151">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>2.045157068097936E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-8.179791824325378E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0003069367710251125</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>162.95</v>
@@ -12123,21 +12579,24 @@
         <v>162.9766666666667</v>
       </c>
       <c r="T152">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="U152">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>2.04511524222184E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-8.180460968965075E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>162.95</v>
@@ -12194,21 +12653,24 @@
         <v>162.9633333333333</v>
       </c>
       <c r="T153">
+        <v>162.95</v>
+      </c>
+      <c r="U153">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>1.02253670906105E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-8.181130223150479E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>162.9</v>
@@ -12265,21 +12727,24 @@
         <v>162.9466666666667</v>
       </c>
       <c r="T154">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="U154">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-0.0001022724948349651</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0003068425897513327</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>162.9</v>
@@ -12336,21 +12801,24 @@
         <v>162.94</v>
       </c>
       <c r="T155">
+        <v>162.9166666666667</v>
+      </c>
+      <c r="U155">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-1.022526253346978E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-4.09131822273201E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>162.85</v>
@@ -12407,21 +12875,24 @@
         <v>162.9366666666667</v>
       </c>
       <c r="T156">
+        <v>162.8833333333333</v>
+      </c>
+      <c r="U156">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-4.090146836288611E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-2.04574280923131E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>-0.0003069367710252235</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>162.8</v>
@@ -12478,21 +12949,24 @@
         <v>162.9233333333333</v>
       </c>
       <c r="T157">
+        <v>162.85</v>
+      </c>
+      <c r="U157">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-4.090314136118156E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-8.183138642814392E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.000307031010131964</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>162.8</v>
@@ -12549,21 +13023,24 @@
         <v>162.9066666666667</v>
       </c>
       <c r="T158">
+        <v>162.8166666666667</v>
+      </c>
+      <c r="U158">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-3.067861087246992E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0001022976041902268</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>162.75</v>
@@ -12620,21 +13097,24 @@
         <v>162.8866666666667</v>
       </c>
       <c r="T159">
+        <v>162.7833333333333</v>
+      </c>
+      <c r="U159">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-3.067955207847195E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0001227696840725434</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0003071253071253999</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>162.75</v>
@@ -12691,21 +13171,24 @@
         <v>162.8766666666667</v>
       </c>
       <c r="T160">
+        <v>162.7666666666667</v>
+      </c>
+      <c r="U160">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-2.045366222824807E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-6.139237915947504E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>162.75</v>
@@ -12762,21 +13245,24 @@
         <v>162.8666666666667</v>
       </c>
       <c r="T161">
+        <v>162.75</v>
+      </c>
+      <c r="U161">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-3.068112088355779E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-6.139614841493835E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>162.75</v>
@@ -12833,21 +13319,24 @@
         <v>162.8533333333334</v>
       </c>
       <c r="T162">
+        <v>162.75</v>
+      </c>
+      <c r="U162">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-7.159147856872217E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-8.186655751118987E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>162.7</v>
@@ -12904,21 +13393,24 @@
         <v>162.84</v>
       </c>
       <c r="T163">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="U163">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-7.159660427524805E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-8.187326019315488E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0003072196620584888</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>162.75</v>
@@ -12975,21 +13467,24 @@
         <v>162.83</v>
       </c>
       <c r="T164">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="U164">
         <v>-0.07812500000002842</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-8.183054938981638E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-6.14099729798756E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0003073140749847436</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>162.7</v>
@@ -13046,21 +13541,24 @@
         <v>162.8166666666667</v>
       </c>
       <c r="T165">
+        <v>162.7166666666667</v>
+      </c>
+      <c r="U165">
         <v>-0.078125</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-9.206690194896172E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-8.188499252792525E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0003072196620584888</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>162.6</v>
@@ -13117,21 +13615,24 @@
         <v>162.7933333333334</v>
       </c>
       <c r="T166">
+        <v>162.6833333333333</v>
+      </c>
+      <c r="U166">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.0001125365743863682</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0001433104719007483</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0006146281499692652</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>162.55</v>
@@ -13188,21 +13689,24 @@
         <v>162.7666666666667</v>
       </c>
       <c r="T167">
+        <v>162.6166666666667</v>
+      </c>
+      <c r="U167">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0001227809894099874</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-0.0001638068716982577</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0003075030750306906</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>162.55</v>
@@ -13259,21 +13763,24 @@
         <v>162.74</v>
       </c>
       <c r="T168">
+        <v>162.5666666666667</v>
+      </c>
+      <c r="U168">
         <v>-0.08437499999996589</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-0.0001227960664329508</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0001638337087858099</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>162.75</v>
@@ -13330,21 +13837,24 @@
         <v>162.73</v>
       </c>
       <c r="T169">
+        <v>162.6166666666667</v>
+      </c>
+      <c r="U169">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-8.187409810556101E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-6.144770800042831E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.001230390649030966</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>162.85</v>
@@ -13401,21 +13911,24 @@
         <v>162.7266666666666</v>
       </c>
       <c r="T170">
+        <v>162.7166666666667</v>
+      </c>
+      <c r="U170">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-3.070530075843791E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-2.048382801789206E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.0006144393241167556</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>162.8</v>
@@ -13472,21 +13985,24 @@
         <v>162.7233333333333</v>
       </c>
       <c r="T171">
+        <v>162.8</v>
+      </c>
+      <c r="U171">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-2.047082906875275E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-2.048424761336154E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.000307031010131964</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>162.8</v>
@@ -13543,21 +14059,24 @@
         <v>162.7233333333334</v>
       </c>
       <c r="T172">
+        <v>162.8166666666667</v>
+      </c>
+      <c r="U172">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-4.094249626396262E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>162.8</v>
@@ -13614,21 +14133,24 @@
         <v>162.7233333333333</v>
       </c>
       <c r="T173">
+        <v>162.8</v>
+      </c>
+      <c r="U173">
         <v>-0.015625</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-5.11802157755481E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>162.8</v>
@@ -13685,21 +14207,24 @@
         <v>162.7266666666667</v>
       </c>
       <c r="T174">
+        <v>162.8</v>
+      </c>
+      <c r="U174">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-5.11828353243482E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>2.048466722648357E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>162.8</v>
@@ -13756,21 +14281,24 @@
         <v>162.73</v>
       </c>
       <c r="T175">
+        <v>162.8</v>
+      </c>
+      <c r="U175">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-2.047418205675111E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>2.048424761369461E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>162.7</v>
@@ -13827,21 +14355,24 @@
         <v>162.7266666666667</v>
       </c>
       <c r="T176">
+        <v>162.7666666666667</v>
+      </c>
+      <c r="U176">
         <v>0.05937499999998863</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-4.094920251429546E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-2.048382801789206E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.0006142506142507997</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>162.7</v>
@@ -13898,21 +14429,24 @@
         <v>162.7233333333333</v>
       </c>
       <c r="T177">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="U177">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-5.11885992749983E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-2.048424761358358E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>162.65</v>
@@ -13969,21 +14503,24 @@
         <v>162.72</v>
       </c>
       <c r="T178">
+        <v>162.6833333333333</v>
+      </c>
+      <c r="U178">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-5.119121968211182E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-2.048466722670561E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.0003073140749845216</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>162.65</v>
@@ -14040,21 +14577,24 @@
         <v>162.7133333333333</v>
       </c>
       <c r="T179">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="U179">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-5.119384035723318E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-4.097017371329503E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>162.7</v>
@@ -14111,21 +14651,24 @@
         <v>162.7133333333333</v>
       </c>
       <c r="T180">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="U180">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-4.09571690402899E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0.0003074085459575659</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>162.7</v>
@@ -14182,21 +14725,24 @@
         <v>162.72</v>
       </c>
       <c r="T181">
+        <v>162.6833333333333</v>
+      </c>
+      <c r="U181">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-5.119855824875508E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>4.097185233753464E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>162.5</v>
@@ -14253,21 +14799,24 @@
         <v>162.7166666666667</v>
       </c>
       <c r="T182">
+        <v>162.6333333333333</v>
+      </c>
+      <c r="U182">
         <v>-0.03125</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-9.216212341522922E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-2.048508685670303E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>-0.001229256299938419</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>162.5</v>
@@ -14324,21 +14873,24 @@
         <v>162.7133333333333</v>
       </c>
       <c r="T183">
+        <v>162.5666666666667</v>
+      </c>
+      <c r="U183">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-9.217061805533167E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-2.048550650413095E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>162.5</v>
@@ -14395,21 +14947,24 @@
         <v>162.6966666666667</v>
       </c>
       <c r="T184">
+        <v>162.5</v>
+      </c>
+      <c r="U184">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-8.193699045422331E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0001024296308435035</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>162.45</v>
@@ -14466,21 +15021,24 @@
         <v>162.67</v>
       </c>
       <c r="T185">
+        <v>162.4833333333333</v>
+      </c>
+      <c r="U185">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-9.218666775934192E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001639041979962785</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0003076923076923421</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>162.45</v>
@@ -14537,21 +15095,24 @@
         <v>162.6466666666666</v>
       </c>
       <c r="T186">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="U186">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-8.195125948839976E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0001434396836133001</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>162.35</v>
@@ -14608,21 +15169,24 @@
         <v>162.6166666666667</v>
       </c>
       <c r="T187">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U187">
         <v>-0.1093750000000284</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-9.220272305365818E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0001844489076524569</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>-0.000615574022776233</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>162.35</v>
@@ -14679,21 +15243,24 @@
         <v>162.5866666666667</v>
       </c>
       <c r="T188">
+        <v>162.3833333333333</v>
+      </c>
+      <c r="U188">
         <v>-0.125</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-9.221122517988345E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-0.0001844829353284672</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>162.35</v>
@@ -14750,21 +15317,24 @@
         <v>162.5566666666667</v>
       </c>
       <c r="T189">
+        <v>162.35</v>
+      </c>
+      <c r="U189">
         <v>-0.1406250000000284</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-8.197309233237693E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.0001845169755617659</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>162.35</v>
@@ -14821,21 +15391,24 @@
         <v>162.5266666666666</v>
       </c>
       <c r="T190">
+        <v>162.35</v>
+      </c>
+      <c r="U190">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-8.197981247115571E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001845510283595697</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>162.35</v>
@@ -14892,21 +15465,24 @@
         <v>162.5033333333333</v>
       </c>
       <c r="T191">
+        <v>162.35</v>
+      </c>
+      <c r="U191">
         <v>-0.1218749999999886</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-8.198653371216391E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.0001435661840109015</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>162.3</v>
@@ -14963,21 +15539,24 @@
         <v>162.4766666666667</v>
       </c>
       <c r="T192">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="U192">
         <v>-0.1218749999999886</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-9.224241306149406E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-0.0001640991979650064</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.0003079765937787915</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>162.35</v>
@@ -15034,21 +15613,24 @@
         <v>162.4566666666666</v>
       </c>
       <c r="T193">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="U193">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-7.175071750709083E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.0001230945981988141</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0.0003080714725816058</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>162.4</v>
@@ -15105,21 +15687,24 @@
         <v>162.44</v>
       </c>
       <c r="T194">
+        <v>162.35</v>
+      </c>
+      <c r="U194">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-7.175586604202255E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.0001025914602867939</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0.0003079765937790135</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>162.4</v>
@@ -15176,21 +15761,24 @@
         <v>162.42</v>
       </c>
       <c r="T195">
+        <v>162.3833333333334</v>
+      </c>
+      <c r="U195">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-6.150944169946992E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.000123122383649199</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>162.5</v>
@@ -15247,21 +15835,24 @@
         <v>162.4066666666667</v>
       </c>
       <c r="T196">
+        <v>162.4333333333333</v>
+      </c>
+      <c r="U196">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-2.050440844780788E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-8.209169642503511E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0.0006157635467980427</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>162.6</v>
@@ -15318,21 +15909,24 @@
         <v>162.4133333333333</v>
       </c>
       <c r="T197">
+        <v>162.5</v>
+      </c>
+      <c r="U197">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>1.025241444363445E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>4.104921801229011E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0006153846153846843</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>162.55</v>
@@ -15389,21 +15983,24 @@
         <v>162.4166666666667</v>
       </c>
       <c r="T198">
+        <v>162.55</v>
+      </c>
+      <c r="U198">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>0</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>2.052376652161847E-05</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.0003075030750306906</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>162.5</v>
@@ -15460,21 +16057,24 @@
         <v>162.4166666666667</v>
       </c>
       <c r="T199">
+        <v>162.55</v>
+      </c>
+      <c r="U199">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-5.126154666335037E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>0</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0003075976622578525</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>162.4</v>
@@ -15531,21 +16131,24 @@
         <v>162.4133333333333</v>
       </c>
       <c r="T200">
+        <v>162.4833333333333</v>
+      </c>
+      <c r="U200">
         <v>0.04687500000002842</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-9.227551417978486E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-2.052334530522337E-05</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0006153846153845732</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>162.2</v>
@@ -15602,21 +16205,24 @@
         <v>162.3966666666667</v>
       </c>
       <c r="T201">
+        <v>162.3666666666666</v>
+      </c>
+      <c r="U201">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0001230453729813563</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0001026188326080923</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.001231527093596196</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>162.35</v>
@@ -15673,21 +16279,24 @@
         <v>162.3966666666666</v>
       </c>
       <c r="T202">
+        <v>162.3166666666667</v>
+      </c>
+      <c r="U202">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-9.229538625610267E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.0009247842170161391</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>162.4</v>
@@ -15744,21 +16353,24 @@
         <v>162.4</v>
       </c>
       <c r="T203">
+        <v>162.3166666666667</v>
+      </c>
+      <c r="U203">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-8.204791598298566E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>2.052587286294205E-05</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.0003079765937790135</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>162.45</v>
@@ -15815,21 +16427,24 @@
         <v>162.4066666666667</v>
       </c>
       <c r="T204">
+        <v>162.4</v>
+      </c>
+      <c r="U204">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-7.179781734611979E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>4.105090311989912E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0003078817733987993</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>162.4</v>
@@ -15886,21 +16501,24 @@
         <v>162.41</v>
       </c>
       <c r="T205">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U205">
         <v>0</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-8.206054016357545E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>2.052460900614506E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0003077870113880055</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>162.35</v>
@@ -15957,21 +16575,24 @@
         <v>162.41</v>
       </c>
       <c r="T206">
+        <v>162.4</v>
+      </c>
+      <c r="U206">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-7.180886531732433E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>0</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0003078817733991324</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>162.45</v>
@@ -16028,21 +16649,24 @@
         <v>162.42</v>
       </c>
       <c r="T207">
+        <v>162.4</v>
+      </c>
+      <c r="U207">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-5.129573014350797E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>6.157256326599914E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.000615953187557805</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>162.45</v>
@@ -16099,21 +16723,24 @@
         <v>162.4266666666667</v>
       </c>
       <c r="T208">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U208">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-4.103868922422649E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>4.104584821251755E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>162.45</v>
@@ -16170,21 +16797,24 @@
         <v>162.43</v>
       </c>
       <c r="T209">
+        <v>162.45</v>
+      </c>
+      <c r="U209">
         <v>-0.015625</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-4.104037346741585E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>2.052208175973291E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>162.45</v>
@@ -16241,21 +16871,24 @@
         <v>162.4333333333333</v>
       </c>
       <c r="T210">
+        <v>162.45</v>
+      </c>
+      <c r="U210">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-5.130257231111823E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>2.052166061283778E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>162.45</v>
@@ -16312,21 +16945,24 @@
         <v>162.43</v>
       </c>
       <c r="T211">
+        <v>162.45</v>
+      </c>
+      <c r="U211">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-5.130520439966535E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-2.052123948304008E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>162.45</v>
@@ -16383,21 +17019,24 @@
         <v>162.42</v>
       </c>
       <c r="T212">
+        <v>162.45</v>
+      </c>
+      <c r="U212">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-1.02615673519546E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-6.156498183806924E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>162.5</v>
@@ -16454,21 +17093,24 @@
         <v>162.4166666666667</v>
       </c>
       <c r="T213">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="U213">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>0</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-2.05229241063698E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0003077870113881165</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>162.5</v>
@@ -16525,10 +17167,10 @@
         <v>162.4166666666667</v>
       </c>
       <c r="T214">
+        <v>162.4833333333333</v>
+      </c>
+      <c r="U214">
         <v>0.04062499999997726</v>
-      </c>
-      <c r="U214">
-        <v>0</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -16536,10 +17178,13 @@
       <c r="W214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="X214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>162.45</v>
@@ -16596,21 +17241,24 @@
         <v>162.42</v>
       </c>
       <c r="T215">
+        <v>162.4833333333333</v>
+      </c>
+      <c r="U215">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>0</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>2.052334530544542E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>-0.0003076923076923421</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>162.45</v>
@@ -16667,21 +17315,24 @@
         <v>162.4366666666666</v>
       </c>
       <c r="T216">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="U216">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>0</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0001026146205309608</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>162.45</v>
@@ -16738,21 +17389,24 @@
         <v>162.4433333333333</v>
       </c>
       <c r="T217">
+        <v>162.45</v>
+      </c>
+      <c r="U217">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>2.052334530522337E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>4.104163674067962E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>162.4</v>
@@ -16809,21 +17463,24 @@
         <v>162.4433333333333</v>
       </c>
       <c r="T218">
+        <v>162.4333333333333</v>
+      </c>
+      <c r="U218">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>1.02614620531849E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.0003077870113880055</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>162.4</v>
@@ -16880,21 +17537,24 @@
         <v>162.44</v>
       </c>
       <c r="T219">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U219">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>1.026135675630258E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-2.051997619667567E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>162.35</v>
@@ -16951,21 +17611,24 @@
         <v>162.4366666666666</v>
       </c>
       <c r="T220">
+        <v>162.3833333333333</v>
+      </c>
+      <c r="U220">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>0</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-2.052039727507005E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0003078817733991324</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>162.3</v>
@@ -17022,21 +17685,24 @@
         <v>162.4333333333333</v>
       </c>
       <c r="T221">
+        <v>162.35</v>
+      </c>
+      <c r="U221">
         <v>-0.015625</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-1.026125146208479E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-2.052081837000674E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>-0.0003079765937787915</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>162.25</v>
@@ -17093,21 +17759,24 @@
         <v>162.42</v>
       </c>
       <c r="T222">
+        <v>162.3</v>
+      </c>
+      <c r="U222">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-1.026135675663564E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-8.20849579316052E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>-0.0003080714725817169</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>162.25</v>
@@ -17164,21 +17833,24 @@
         <v>162.4066666666667</v>
       </c>
       <c r="T223">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="U223">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-2.05229241063698E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-8.209169642481307E-05</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>162.35</v>
@@ -17235,21 +17907,24 @@
         <v>162.4</v>
       </c>
       <c r="T224">
+        <v>162.2833333333333</v>
+      </c>
+      <c r="U224">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-1.026167265261169E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-4.104921801240113E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.0006163328197226203</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>162.45</v>
@@ -17306,21 +17981,24 @@
         <v>162.4</v>
       </c>
       <c r="T225">
+        <v>162.35</v>
+      </c>
+      <c r="U225">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>1.026177795560024E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.000615953187557805</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>162.5</v>
@@ -17377,21 +18055,24 @@
         <v>162.4033333333333</v>
       </c>
       <c r="T226">
+        <v>162.4333333333333</v>
+      </c>
+      <c r="U226">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>0</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>2.052545155994956E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.0003077870113881165</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>162.55</v>
@@ -17448,21 +18129,24 @@
         <v>162.41</v>
       </c>
       <c r="T227">
+        <v>162.5</v>
+      </c>
+      <c r="U227">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-1.026167265261169E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>4.105006054877514E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0.0003076923076923421</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>162.45</v>
@@ -17519,21 +18203,24 @@
         <v>162.4066666666667</v>
       </c>
       <c r="T228">
+        <v>162.5</v>
+      </c>
+      <c r="U228">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-2.05235559113115E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-2.052418775522202E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>-0.0006151953245157049</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>162.6</v>
@@ -17590,21 +18277,24 @@
         <v>162.4133333333334</v>
       </c>
       <c r="T229">
+        <v>162.5333333333333</v>
+      </c>
+      <c r="U229">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>2.052397713625531E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>4.104921801251216E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.0009233610341643494</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>162.6</v>
@@ -17661,21 +18351,24 @@
         <v>162.4233333333333</v>
       </c>
       <c r="T230">
+        <v>162.55</v>
+      </c>
+      <c r="U230">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>4.104711182262299E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>6.157129956463336E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>162.6</v>
@@ -17732,21 +18425,24 @@
         <v>162.4333333333333</v>
       </c>
       <c r="T231">
+        <v>162.6</v>
+      </c>
+      <c r="U231">
         <v>0.078125</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>8.209085405286309E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>6.15675087733969E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>162.6</v>
@@ -17803,21 +18499,24 @@
         <v>162.4433333333333</v>
       </c>
       <c r="T232">
+        <v>162.6</v>
+      </c>
+      <c r="U232">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>5.130257231100721E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>6.15637184484541E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>162.5</v>
@@ -17874,21 +18573,24 @@
         <v>162.45</v>
       </c>
       <c r="T233">
+        <v>162.5666666666667</v>
+      </c>
+      <c r="U233">
         <v>0.1031250000000341</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>2.051997619689772E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>4.103995239379543E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.0006150061500614923</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>162.45</v>
@@ -17945,21 +18647,24 @@
         <v>162.4533333333333</v>
       </c>
       <c r="T234">
+        <v>162.5166666666667</v>
+      </c>
+      <c r="U234">
         <v>0.09374999999997158</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>2.051913409273354E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.0003076923076923421</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>162.35</v>
@@ -18016,21 +18721,24 @@
         <v>162.4533333333333</v>
       </c>
       <c r="T235">
+        <v>162.4333333333333</v>
+      </c>
+      <c r="U235">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-1.025977756796692E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>0</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.000615574022776233</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>162.4</v>
@@ -18087,21 +18795,24 @@
         <v>162.46</v>
       </c>
       <c r="T236">
+        <v>162.4</v>
+      </c>
+      <c r="U236">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>1.025988283220869E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>4.10374261325952E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.0003079765937790135</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>162.4</v>
@@ -18158,21 +18869,24 @@
         <v>162.47</v>
       </c>
       <c r="T237">
+        <v>162.3833333333333</v>
+      </c>
+      <c r="U237">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-1.025977756796692E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>6.155361319692965E-05</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>162.45</v>
@@ -18229,21 +18943,24 @@
         <v>162.4833333333333</v>
       </c>
       <c r="T238">
-        <v>0</v>
+        <v>162.4166666666667</v>
       </c>
       <c r="U238">
         <v>0</v>
       </c>
       <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
         <v>8.206643277719472E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0003078817733987993</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>162.45</v>
@@ -18300,21 +19017,24 @@
         <v>162.49</v>
       </c>
       <c r="T239">
+        <v>162.4333333333333</v>
+      </c>
+      <c r="U239">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>4.102984921527941E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>162.35</v>
@@ -18371,21 +19091,24 @@
         <v>162.4833333333333</v>
       </c>
       <c r="T240">
+        <v>162.4166666666667</v>
+      </c>
+      <c r="U240">
         <v>-0.0625</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-2.051976566441738E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-4.102816583584357E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>-0.000615574022776233</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>162.4</v>
@@ -18442,21 +19165,24 @@
         <v>162.4766666666666</v>
       </c>
       <c r="T241">
+        <v>162.4</v>
+      </c>
+      <c r="U241">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-1.026009336679845E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-4.102984921539043E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0003079765937790135</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>162.4</v>
@@ -18513,21 +19239,24 @@
         <v>162.4666666666667</v>
       </c>
       <c r="T242">
+        <v>162.3833333333334</v>
+      </c>
+      <c r="U242">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-1.026019863747951E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-6.154729909912948E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>162.4</v>
@@ -18584,21 +19313,24 @@
         <v>162.4633333333333</v>
       </c>
       <c r="T243">
+        <v>162.4</v>
+      </c>
+      <c r="U243">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-2.052060782053999E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-2.051702913430375E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>162.4</v>
@@ -18655,21 +19387,24 @@
         <v>162.45</v>
       </c>
       <c r="T244">
+        <v>162.4</v>
+      </c>
+      <c r="U244">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-2.052102892424745E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-8.206980036518097E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>162.35</v>
@@ -18726,21 +19461,24 @@
         <v>162.4333333333333</v>
       </c>
       <c r="T245">
+        <v>162.3833333333333</v>
+      </c>
+      <c r="U245">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-2.05214500458295E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-0.0001025956704626685</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>-0.0003078817733991324</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>162.15</v>
@@ -18797,21 +19535,24 @@
         <v>162.4033333333333</v>
       </c>
       <c r="T246">
+        <v>162.3</v>
+      </c>
+      <c r="U246">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-6.156561355241674E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-0.0001846911553458064</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.001231906375115388</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>162.2</v>
@@ -18868,21 +19609,24 @@
         <v>162.3766666666667</v>
       </c>
       <c r="T247">
+        <v>162.2333333333333</v>
+      </c>
+      <c r="U247">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-5.130783675910688E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-0.0001642002421954336</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0003083564600676603</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>162.1</v>
@@ -18939,21 +19683,24 @@
         <v>162.35</v>
       </c>
       <c r="T248">
+        <v>162.15</v>
+      </c>
+      <c r="U248">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-6.157256326577709E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-0.0001642272083427487</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>-0.0006165228113439447</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>162</v>
@@ -19010,21 +19757,24 @@
         <v>162.32</v>
       </c>
       <c r="T249">
+        <v>162.1</v>
+      </c>
+      <c r="U249">
         <v>-0.078125</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-8.210180623968721E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-0.0001847859562673637</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.0006169031462059937</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>161.9</v>
@@ -19081,21 +19831,24 @@
         <v>162.29</v>
       </c>
       <c r="T250">
+        <v>162</v>
+      </c>
+      <c r="U250">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-9.237211593748906E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-0.0001848201084277967</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0006172839506172201</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>161.85</v>
@@ -19152,21 +19905,24 @@
         <v>162.2533333333333</v>
       </c>
       <c r="T251">
+        <v>161.9166666666667</v>
+      </c>
+      <c r="U251">
         <v>-0.1437499999999829</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-9.238064933325685E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-0.0002259330005958127</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>-0.0003088326127239638</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>161.75</v>
@@ -19223,21 +19979,24 @@
         <v>162.21</v>
       </c>
       <c r="T252">
+        <v>161.8333333333333</v>
+      </c>
+      <c r="U252">
         <v>-0.1843749999999602</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-0.0001026546492289837</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-0.0002670720683703998</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>-0.0006178560395427857</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>161.7</v>
@@ -19294,21 +20053,24 @@
         <v>162.16</v>
       </c>
       <c r="T253">
+        <v>161.7666666666667</v>
+      </c>
+      <c r="U253">
         <v>-0.2218750000000114</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-0.0001129317071167923</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-0.0003082424018246988</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.0003091190108192032</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>161.7</v>
@@ -19365,21 +20127,24 @@
         <v>162.11</v>
       </c>
       <c r="T254">
+        <v>161.7166666666667</v>
+      </c>
+      <c r="U254">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-0.0001334798188780129</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-0.0003083374444992071</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>161.9</v>
@@ -19436,21 +20201,24 @@
         <v>162.08</v>
       </c>
       <c r="T255">
+        <v>161.7666666666667</v>
+      </c>
+      <c r="U255">
         <v>-0.234375</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-0.000112959539946722</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-0.0001850595274813793</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0.001236858379715544</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>161.95</v>
@@ -19507,21 +20275,24 @@
         <v>162.05</v>
       </c>
       <c r="T256">
+        <v>161.85</v>
+      </c>
+      <c r="U256">
         <v>-0.2281249999999773</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-0.0001129723012456285</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>-0.0001850937808489661</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0.0003088326127238528</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>161.65</v>
@@ -19578,21 +20349,24 @@
         <v>162</v>
       </c>
       <c r="T257">
+        <v>161.8333333333333</v>
+      </c>
+      <c r="U257">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-0.0001848846525197567</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-0.000308546744831939</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.001852423587526908</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>161.6</v>
@@ -19649,21 +20423,24 @@
         <v>161.9466666666667</v>
       </c>
       <c r="T258">
+        <v>161.7333333333333</v>
+      </c>
+      <c r="U258">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-0.0001746455722209106</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-0.0003292181069959321</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>-0.0003093102381689361</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>161.5</v>
@@ -19720,21 +20497,24 @@
         <v>161.8866666666667</v>
       </c>
       <c r="T259">
+        <v>161.5833333333333</v>
+      </c>
+      <c r="U259">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-0.0002260513958672883</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>-0.0003704923431582241</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>-0.0006188118811880639</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>161.25</v>
@@ -19791,21 +20571,24 @@
         <v>161.8133333333333</v>
       </c>
       <c r="T260">
+        <v>161.45</v>
+      </c>
+      <c r="U260">
         <v>-0.1906249999999829</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-0.000277489439985068</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-0.000452991804966385</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>-0.001547987616099089</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>161.2</v>
@@ -19862,21 +20645,24 @@
         <v>161.75</v>
       </c>
       <c r="T261">
+        <v>161.3166666666667</v>
+      </c>
+      <c r="U261">
         <v>-0.1812500000000057</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-0.0002878467010712926</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>-0.0003913974950560117</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>-0.0003100775193799477</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>161.3</v>
@@ -19933,21 +20719,24 @@
         <v>161.69</v>
       </c>
       <c r="T262">
+        <v>161.25</v>
+      </c>
+      <c r="U262">
         <v>-0.1781249999999943</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-0.0002673631820333533</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-0.0003709428129829995</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>0.0006203473945409765</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>161.2</v>
@@ -20004,21 +20793,24 @@
         <v>161.63</v>
       </c>
       <c r="T263">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U263">
         <v>-0.2031250000000284</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-0.0002674346842214126</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-0.0003710804626134712</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>-0.000619962802231977</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>161.3</v>
@@ -20075,21 +20867,24 @@
         <v>161.5833333333333</v>
       </c>
       <c r="T264">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U264">
         <v>-0.234375</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-0.0002366401218180103</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-0.0002887252778981386</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0.0006203473945409765</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>161.2</v>
@@ -20146,21 +20941,24 @@
         <v>161.5366666666667</v>
       </c>
       <c r="T265">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U265">
         <v>-0.2406250000000227</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>-0.0002366961336200957</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>-0.0002888086642598431</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.000619962802231977</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>161.1</v>
@@ -20217,21 +21015,24 @@
         <v>161.4866666666667</v>
       </c>
       <c r="T266">
+        <v>161.2</v>
+      </c>
+      <c r="U266">
         <v>-0.2531250000000114</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>-0.000267632890023739</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-0.0003095272487155798</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>-0.0006203473945408655</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>160.95</v>
@@ -20288,21 +21089,24 @@
         <v>161.4333333333333</v>
       </c>
       <c r="T267">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U267">
         <v>-0.265625</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-0.000298593521549928</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>-0.0003302646245304519</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>-0.0009310986964619072</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>160.75</v>
@@ -20359,21 +21163,24 @@
         <v>161.37</v>
       </c>
       <c r="T268">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U268">
         <v>-0.265625</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-0.0003501797245939464</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-0.0003923188106547126</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>-0.001242621932277088</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>160.9</v>
@@ -20430,21 +21237,24 @@
         <v>161.3166666666667</v>
       </c>
       <c r="T269">
+        <v>160.8666666666666</v>
+      </c>
+      <c r="U269">
         <v>-0.2531249999999829</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-0.0003193933586790321</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-0.0003305033979879024</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0.0009331259720062324</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>161</v>
@@ -20501,21 +21311,24 @@
         <v>161.2566666666667</v>
       </c>
       <c r="T270">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U270">
         <v>-0.2468749999999886</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-0.0002782701900480022</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-0.0003719392499225149</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0.0006215040397761218</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>161.05</v>
@@ -20572,21 +21385,24 @@
         <v>161.1966666666667</v>
       </c>
       <c r="T271">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U271">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-0.0002783476459006229</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-0.000372077640200752</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.0003105590062113528</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>161.2</v>
@@ -20643,21 +21459,24 @@
         <v>161.1666666666667</v>
       </c>
       <c r="T272">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U272">
         <v>-0.1781250000000227</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-0.0002474890176747957</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-0.0001861080667509007</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.0009313877677739058</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>161.3</v>
@@ -20714,21 +21533,24 @@
         <v>161.1466666666667</v>
       </c>
       <c r="T273">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U273">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-0.0002269210933470989</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-0.0001240951396068724</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.0006203473945409765</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>161.4</v>
@@ -20785,21 +21607,24 @@
         <v>161.14</v>
       </c>
       <c r="T274">
+        <v>161.3</v>
+      </c>
+      <c r="U274">
         <v>-0.09375</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>-0.0002063387256522331</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-4.137018037408957E-05</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>0.000619962802231866</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>161.35</v>
@@ -20856,21 +21681,24 @@
         <v>161.1466666666667</v>
       </c>
       <c r="T275">
+        <v>161.35</v>
+      </c>
+      <c r="U275">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-0.0002063813101084166</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>4.137189193675894E-05</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>-0.0003097893432466581</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>161.25</v>
@@ -20927,21 +21755,24 @@
         <v>161.15</v>
       </c>
       <c r="T276">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="U276">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-0.0001857815209315161</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>2.068509018693376E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0006197706848465323</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>161.2</v>
@@ -20998,21 +21829,24 @@
         <v>161.1433333333333</v>
       </c>
       <c r="T277">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U277">
         <v>0.06562500000001137</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-0.0002064622690203244</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-4.136932464571252E-05</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>-0.0003100775193799477</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>161.3</v>
@@ -21069,21 +21903,24 @@
         <v>161.15</v>
       </c>
       <c r="T278">
+        <v>161.25</v>
+      </c>
+      <c r="U278">
         <v>0.1031249999999773</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-0.0001652039235932046</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>4.137103613754967E-05</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>0.0006203473945409765</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>161.4</v>
@@ -21140,21 +21977,24 @@
         <v>161.1566666666667</v>
       </c>
       <c r="T279">
+        <v>161.3</v>
+      </c>
+      <c r="U279">
         <v>0.1343750000000341</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-0.0001239234153294078</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>4.136932464571252E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0.000619962802231866</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>161.45</v>
@@ -21211,21 +22051,24 @@
         <v>161.1733333333333</v>
       </c>
       <c r="T280">
+        <v>161.3833333333333</v>
+      </c>
+      <c r="U280">
         <v>0.15625</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-9.295408068410449E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>0.0001034190332387386</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0.000309789343246436</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>161.55</v>
@@ -21282,21 +22125,24 @@
         <v>161.2033333333333</v>
       </c>
       <c r="T281">
+        <v>161.4666666666667</v>
+      </c>
+      <c r="U281">
         <v>0.1656250000000341</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-6.197514796579817E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>0.0001861350099272574</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>0.0006193868070611952</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>161.5</v>
@@ -21353,21 +22199,24 @@
         <v>161.24</v>
       </c>
       <c r="T282">
+        <v>161.5</v>
+      </c>
+      <c r="U282">
         <v>0.1531250000000171</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-5.164915760214051E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>0.0002274560079402743</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.0003095017022594071</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>161.5</v>
@@ -21424,21 +22273,24 @@
         <v>161.29</v>
       </c>
       <c r="T283">
+        <v>161.5166666666667</v>
+      </c>
+      <c r="U283">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-4.132146030033645E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>0.0003100967501861174</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>161.5</v>
@@ -21495,21 +22347,24 @@
         <v>161.33</v>
       </c>
       <c r="T284">
+        <v>161.5</v>
+      </c>
+      <c r="U284">
         <v>0.1218750000000171</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-4.132316783400647E-05</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>0.000248000496001044</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>161.55</v>
@@ -21566,21 +22421,24 @@
         <v>161.3666666666667</v>
       </c>
       <c r="T285">
+        <v>161.5166666666667</v>
+      </c>
+      <c r="U285">
         <v>0.125</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-7.231853214040296E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>0.0002272774230873686</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.0003095975232199066</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>161.6</v>
@@ -21637,21 +22495,24 @@
         <v>161.4033333333333</v>
       </c>
       <c r="T286">
+        <v>161.55</v>
+      </c>
+      <c r="U286">
         <v>0.1250000000000284</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-7.232376248866856E-05</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>0.0002272257797972799</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>0.0003095017022591851</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>161.65</v>
@@ -21708,21 +22569,24 @@
         <v>161.4333333333333</v>
       </c>
       <c r="T287">
+        <v>161.6</v>
+      </c>
+      <c r="U287">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>0</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>0.0001858697672498799</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>0.0003094059405941429</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>161.55</v>
@@ -21779,21 +22643,24 @@
         <v>161.45</v>
       </c>
       <c r="T288">
+        <v>161.6</v>
+      </c>
+      <c r="U288">
         <v>0.1093749999999716</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-1.033271337069763E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>0.0001032417922774975</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>-0.0006186204763377612</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>161.6</v>
@@ -21850,21 +22717,24 @@
         <v>161.4633333333333</v>
       </c>
       <c r="T289">
+        <v>161.6</v>
+      </c>
+      <c r="U289">
         <v>0.09687500000001137</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>2.066564027325413E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>8.258490760826298E-05</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>0.0003095017022591851</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>161.65</v>
@@ -21921,21 +22791,24 @@
         <v>161.4833333333333</v>
       </c>
       <c r="T290">
+        <v>161.6</v>
+      </c>
+      <c r="U290">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>8.266085285346669E-05</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>0.0001238671318564144</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>0.0003094059405941429</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>161.65</v>
@@ -21992,21 +22865,24 @@
         <v>161.51</v>
       </c>
       <c r="T291">
+        <v>161.6333333333334</v>
+      </c>
+      <c r="U291">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>9.298577317662371E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>0.0001651357209204729</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>161.5</v>
@@ -22063,21 +22939,24 @@
         <v>161.53</v>
       </c>
       <c r="T292">
+        <v>161.6</v>
+      </c>
+      <c r="U292">
         <v>0.08437500000002274</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>4.132316783400647E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>0.0001238313417128989</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>-0.0009279307145066973</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>161.55</v>
@@ -22134,21 +23013,24 @@
         <v>161.5466666666667</v>
       </c>
       <c r="T293">
+        <v>161.5666666666667</v>
+      </c>
+      <c r="U293">
         <v>0.0625</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>7.231255552575533E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>0.0001031800078414857</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.0003095975232199066</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>161.5</v>
@@ -22205,21 +23087,24 @@
         <v>161.5533333333333</v>
       </c>
       <c r="T294">
+        <v>161.5166666666667</v>
+      </c>
+      <c r="U294">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>4.131847245614217E-05</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>4.126774513046882E-05</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0003095017022594071</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>161.2</v>
@@ -22276,21 +23161,24 @@
         <v>161.5366666666667</v>
       </c>
       <c r="T295">
+        <v>161.4166666666667</v>
+      </c>
+      <c r="U295">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>0</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-0.0001031651054346217</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>-0.001857585139318996</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>161.2</v>
@@ -22347,21 +23235,24 @@
         <v>161.5133333333333</v>
       </c>
       <c r="T296">
+        <v>161.3</v>
+      </c>
+      <c r="U296">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>2.065838265519204E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>-0.0001444460494005595</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>161.3</v>
@@ -22418,21 +23309,24 @@
         <v>161.5</v>
       </c>
       <c r="T297">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U297">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>7.230284563330969E-05</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-8.25525240435443E-05</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0.0006203473945409765</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>161.35</v>
@@ -22489,21 +23383,24 @@
         <v>161.49</v>
       </c>
       <c r="T298">
+        <v>161.2833333333333</v>
+      </c>
+      <c r="U298">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>0.0001239387742455467</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>-6.191950464373708E-05</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>0.000309981401115822</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>161.3</v>
@@ -22560,21 +23457,24 @@
         <v>161.4766666666667</v>
       </c>
       <c r="T299">
+        <v>161.3166666666667</v>
+      </c>
+      <c r="U299">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>8.261561021960517E-05</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>-8.256445187548866E-05</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>-0.0003098853424231551</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>161.25</v>
@@ -22631,15 +23531,18 @@
         <v>161.4566666666666</v>
       </c>
       <c r="T300">
+        <v>161.3</v>
+      </c>
+      <c r="U300">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>5.163049090284311E-05</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>-0.0001238569039903048</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>-0.000309981401116044</v>
       </c>
     </row>
